--- a/Version_on_pcloud/Data_processing_notebooks/Data_processing_SWRZ/Notebook_Compiled_data/SWRZ_Raman_averaged.xlsx
+++ b/Version_on_pcloud/Data_processing_notebooks/Data_processing_SWRZ/Notebook_Compiled_data/SWRZ_Raman_averaged.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GL158"/>
+  <dimension ref="A1:GQ158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -985,420 +985,445 @@
       </c>
       <c r="DG1" s="1" t="inlineStr">
         <is>
+          <t>EBSD_simple_name</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>EBSD_grainID</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>EBSDname+grainID</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>EBSD_comment</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
           <t>Density g/cm3_Raman_STD</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="DL1" s="1" t="inlineStr">
         <is>
           <t>σ Density g/cm3_Raman_STD</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
+      <c r="DM1" s="1" t="inlineStr">
         <is>
           <t>σ Density g/cm3 (from Ne+peakfit)_Raman_STD</t>
         </is>
       </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>σ Density g/cm3 (from densimeter)_Raman_STD</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>Corrected_Splitting_Raman_STD</t>
         </is>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>Corrected_Splitting_σ_Raman_STD</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>Corrected_Splitting_σ_Ne_Raman_STD</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>Corrected_Splitting_σ_peak_fit_Raman_STD</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>power (mW)_Raman_STD</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>Spectral Center_Raman_STD</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>Preferred D_σ_Ne_Raman_STD</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>Preferred D_σ_pkfit_Raman_STD</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>LowD_RT_Raman_STD</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>HighD_RT_Raman_STD</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>LowD_SC_Raman_STD</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>LowD_SC_σ_Raman_STD</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>MedD_SC_Raman_STD</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>MedD_SC_σ_Raman_STD</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>HighD_SC_Raman_STD</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>HighD_SC_σ_Raman_STD</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>Splitting_Raman_STD</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>Split_σ_Raman_STD</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>Diad1_Combofit_Cent_Raman_STD</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>Diad1_cent_err_Raman_STD</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>Diad1_Combofit_Height_Raman_STD</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>Diad1_Voigt_Cent_Raman_STD</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>Diad1_Voigt_Area_Raman_STD</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>Diad1_Voigt_Sigma_Raman_STD</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>Diad1_Residual_Raman_STD</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>Diad1_Prop_Lor_Raman_STD</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>Diad1_fwhm_Raman_STD</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>Diad2_Combofit_Cent_Raman_STD</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>Diad2_cent_err_Raman_STD</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>Diad2_Combofit_Height_Raman_STD</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>Diad2_Voigt_Cent_Raman_STD</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>Diad2_Voigt_Area_Raman_STD</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>Diad2_Voigt_Sigma_Raman_STD</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>Diad2_Voigt_Gamma_Raman_STD</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>Diad2_Residual_Raman_STD</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>Diad2_Prop_Lor_Raman_STD</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>Diad2_fwhm_Raman_STD</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>HB1_Cent_Raman_STD</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>HB1_Area_Raman_STD</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>HB1_Sigma_Raman_STD</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>HB2_Cent_Raman_STD</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>HB2_Area_Raman_STD</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>HB2_Sigma_Raman_STD</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>C13_Cent_Raman_STD</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>C13_Area_Raman_STD</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>C13_Sigma_Raman_STD</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>Diad2_Gauss_Cent_Raman_STD</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>Diad2_Gauss_Area_Raman_STD</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>Diad2_Gauss_Sigma_Raman_STD</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
         <is>
           <t>Diad1_Gauss_Cent_Raman_STD</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="FM1" s="1" t="inlineStr">
         <is>
           <t>Diad1_Gauss_Area_Raman_STD</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>Diad1_Gauss_Sigma_Raman_STD</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>Diad1_Asym50_Raman_STD</t>
         </is>
       </c>
-      <c r="FL1" s="1" t="inlineStr">
+      <c r="FP1" s="1" t="inlineStr">
         <is>
           <t>Diad1_Asym70_Raman_STD</t>
         </is>
       </c>
-      <c r="FM1" s="1" t="inlineStr">
+      <c r="FQ1" s="1" t="inlineStr">
         <is>
           <t>Diad1_Yuan2017_sym_factor_Raman_STD</t>
         </is>
       </c>
-      <c r="FN1" s="1" t="inlineStr">
+      <c r="FR1" s="1" t="inlineStr">
         <is>
           <t>Diad1_Remigi2021_BSF_Raman_STD</t>
         </is>
       </c>
-      <c r="FO1" s="1" t="inlineStr">
+      <c r="FS1" s="1" t="inlineStr">
         <is>
           <t>Diad2_Asym50_Raman_STD</t>
         </is>
       </c>
-      <c r="FP1" s="1" t="inlineStr">
+      <c r="FT1" s="1" t="inlineStr">
         <is>
           <t>Diad2_Asym70_Raman_STD</t>
         </is>
       </c>
-      <c r="FQ1" s="1" t="inlineStr">
+      <c r="FU1" s="1" t="inlineStr">
         <is>
           <t>Diad2_Yuan2017_sym_factor_Raman_STD</t>
         </is>
       </c>
-      <c r="FR1" s="1" t="inlineStr">
+      <c r="FV1" s="1" t="inlineStr">
         <is>
           <t>Diad2_Remigi2021_BSF_Raman_STD</t>
         </is>
       </c>
-      <c r="FS1" s="1" t="inlineStr">
+      <c r="FW1" s="1" t="inlineStr">
         <is>
           <t>Day_Raman_STD</t>
         </is>
       </c>
-      <c r="FT1" s="1" t="inlineStr">
+      <c r="FX1" s="1" t="inlineStr">
         <is>
           <t>Int_time (s)_Raman_STD</t>
         </is>
       </c>
-      <c r="FU1" s="1" t="inlineStr">
+      <c r="FY1" s="1" t="inlineStr">
         <is>
           <t>accumulations_Raman_STD</t>
         </is>
       </c>
-      <c r="FV1" s="1" t="inlineStr">
+      <c r="FZ1" s="1" t="inlineStr">
         <is>
           <t>Mag (X)_Raman_STD</t>
         </is>
       </c>
-      <c r="FW1" s="1" t="inlineStr">
+      <c r="GA1" s="1" t="inlineStr">
         <is>
           <t>sec since midnight_Raman_STD</t>
         </is>
       </c>
-      <c r="FX1" s="1" t="inlineStr">
+      <c r="GB1" s="1" t="inlineStr">
         <is>
           <t>Peak_Cent_SO2_Raman_STD</t>
         </is>
       </c>
-      <c r="FY1" s="1" t="inlineStr">
+      <c r="GC1" s="1" t="inlineStr">
         <is>
           <t>Peak_Area_SO2_Raman_STD</t>
         </is>
       </c>
-      <c r="FZ1" s="1" t="inlineStr">
+      <c r="GD1" s="1" t="inlineStr">
         <is>
           <t>Peak_Height_SO2_Raman_STD</t>
         </is>
       </c>
-      <c r="GA1" s="1" t="inlineStr">
+      <c r="GE1" s="1" t="inlineStr">
         <is>
           <t>Peak_Cent_Carb_Raman_STD</t>
         </is>
       </c>
-      <c r="GB1" s="1" t="inlineStr">
+      <c r="GF1" s="1" t="inlineStr">
         <is>
           <t>Peak_Area_Carb_Raman_STD</t>
         </is>
       </c>
-      <c r="GC1" s="1" t="inlineStr">
+      <c r="GG1" s="1" t="inlineStr">
         <is>
           <t>Peak_Height_Carb_Raman_STD</t>
         </is>
       </c>
-      <c r="GD1" s="1" t="inlineStr">
+      <c r="GH1" s="1" t="inlineStr">
         <is>
           <t>Carb_Diad_Ratio_Raman_STD</t>
         </is>
       </c>
-      <c r="GE1" s="1" t="inlineStr">
+      <c r="GI1" s="1" t="inlineStr">
         <is>
           <t>SO2_Diad_Ratio_Raman_STD</t>
         </is>
       </c>
-      <c r="GF1" s="1" t="inlineStr">
+      <c r="GJ1" s="1" t="inlineStr">
         <is>
           <t>SO2_mol_ratio_Raman_STD</t>
         </is>
       </c>
-      <c r="GG1" s="1" t="inlineStr">
+      <c r="GK1" s="1" t="inlineStr">
         <is>
           <t>time_Raman_STD</t>
         </is>
       </c>
-      <c r="GH1" s="1" t="inlineStr">
+      <c r="GL1" s="1" t="inlineStr">
         <is>
           <t>preferred_values_Raman_STD</t>
         </is>
       </c>
-      <c r="GI1" s="1" t="inlineStr">
+      <c r="GM1" s="1" t="inlineStr">
         <is>
           <t>lower_values_Raman_STD</t>
         </is>
       </c>
-      <c r="GJ1" s="1" t="inlineStr">
+      <c r="GN1" s="1" t="inlineStr">
         <is>
           <t>upper_values_Raman_STD</t>
         </is>
       </c>
-      <c r="GK1" s="1" t="inlineStr">
+      <c r="GO1" s="1" t="inlineStr">
         <is>
           <t>Region_Raman_STD</t>
         </is>
       </c>
-      <c r="GL1" s="1" t="inlineStr">
+      <c r="GP1" s="1" t="inlineStr">
+        <is>
+          <t>EBSD_grainID_Raman_STD</t>
+        </is>
+      </c>
+      <c r="GQ1" s="1" t="inlineStr">
         <is>
           <t>averaged?</t>
         </is>
@@ -1724,7 +1749,11 @@
       <c r="DG2" t="inlineStr"/>
       <c r="DH2" t="inlineStr"/>
       <c r="DI2" t="inlineStr"/>
-      <c r="DJ2" t="inlineStr"/>
+      <c r="DJ2" t="inlineStr">
+        <is>
+          <t>trash-couldn't do anything</t>
+        </is>
+      </c>
       <c r="DK2" t="inlineStr"/>
       <c r="DL2" t="inlineStr"/>
       <c r="DM2" t="inlineStr"/>
@@ -1804,7 +1833,12 @@
       <c r="GI2" t="inlineStr"/>
       <c r="GJ2" t="inlineStr"/>
       <c r="GK2" t="inlineStr"/>
-      <c r="GL2" t="inlineStr">
+      <c r="GL2" t="inlineStr"/>
+      <c r="GM2" t="inlineStr"/>
+      <c r="GN2" t="inlineStr"/>
+      <c r="GO2" t="inlineStr"/>
+      <c r="GP2" t="inlineStr"/>
+      <c r="GQ2" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2118,7 +2152,11 @@
       <c r="DG3" t="inlineStr"/>
       <c r="DH3" t="inlineStr"/>
       <c r="DI3" t="inlineStr"/>
-      <c r="DJ3" t="inlineStr"/>
+      <c r="DJ3" t="inlineStr">
+        <is>
+          <t>trash-couldn't do anything</t>
+        </is>
+      </c>
       <c r="DK3" t="inlineStr"/>
       <c r="DL3" t="inlineStr"/>
       <c r="DM3" t="inlineStr"/>
@@ -2198,7 +2236,12 @@
       <c r="GI3" t="inlineStr"/>
       <c r="GJ3" t="inlineStr"/>
       <c r="GK3" t="inlineStr"/>
-      <c r="GL3" t="inlineStr">
+      <c r="GL3" t="inlineStr"/>
+      <c r="GM3" t="inlineStr"/>
+      <c r="GN3" t="inlineStr"/>
+      <c r="GO3" t="inlineStr"/>
+      <c r="GP3" t="inlineStr"/>
+      <c r="GQ3" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2518,7 +2561,11 @@
       <c r="DG4" t="inlineStr"/>
       <c r="DH4" t="inlineStr"/>
       <c r="DI4" t="inlineStr"/>
-      <c r="DJ4" t="inlineStr"/>
+      <c r="DJ4" t="inlineStr">
+        <is>
+          <t>trash-couldn't do anything</t>
+        </is>
+      </c>
       <c r="DK4" t="inlineStr"/>
       <c r="DL4" t="inlineStr"/>
       <c r="DM4" t="inlineStr"/>
@@ -2598,7 +2645,12 @@
       <c r="GI4" t="inlineStr"/>
       <c r="GJ4" t="inlineStr"/>
       <c r="GK4" t="inlineStr"/>
-      <c r="GL4" t="inlineStr">
+      <c r="GL4" t="inlineStr"/>
+      <c r="GM4" t="inlineStr"/>
+      <c r="GN4" t="inlineStr"/>
+      <c r="GO4" t="inlineStr"/>
+      <c r="GP4" t="inlineStr"/>
+      <c r="GQ4" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2915,9 +2967,19 @@
         </is>
       </c>
       <c r="DF5" t="inlineStr"/>
-      <c r="DG5" t="inlineStr"/>
-      <c r="DH5" t="inlineStr"/>
-      <c r="DI5" t="inlineStr"/>
+      <c r="DG5" t="inlineStr">
+        <is>
+          <t>919_011_52</t>
+        </is>
+      </c>
+      <c r="DH5" t="n">
+        <v>161</v>
+      </c>
+      <c r="DI5" t="inlineStr">
+        <is>
+          <t>919_011_52_161</t>
+        </is>
+      </c>
       <c r="DJ5" t="inlineStr"/>
       <c r="DK5" t="inlineStr"/>
       <c r="DL5" t="inlineStr"/>
@@ -2998,7 +3060,12 @@
       <c r="GI5" t="inlineStr"/>
       <c r="GJ5" t="inlineStr"/>
       <c r="GK5" t="inlineStr"/>
-      <c r="GL5" t="inlineStr">
+      <c r="GL5" t="inlineStr"/>
+      <c r="GM5" t="inlineStr"/>
+      <c r="GN5" t="inlineStr"/>
+      <c r="GO5" t="inlineStr"/>
+      <c r="GP5" t="inlineStr"/>
+      <c r="GQ5" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -3333,9 +3400,19 @@
         </is>
       </c>
       <c r="DF6" t="inlineStr"/>
-      <c r="DG6" t="inlineStr"/>
-      <c r="DH6" t="inlineStr"/>
-      <c r="DI6" t="inlineStr"/>
+      <c r="DG6" t="inlineStr">
+        <is>
+          <t>919_011_52</t>
+        </is>
+      </c>
+      <c r="DH6" t="n">
+        <v>161</v>
+      </c>
+      <c r="DI6" t="inlineStr">
+        <is>
+          <t>919_011_52_161</t>
+        </is>
+      </c>
       <c r="DJ6" t="inlineStr"/>
       <c r="DK6" t="inlineStr"/>
       <c r="DL6" t="inlineStr"/>
@@ -3416,7 +3493,12 @@
       <c r="GI6" t="inlineStr"/>
       <c r="GJ6" t="inlineStr"/>
       <c r="GK6" t="inlineStr"/>
-      <c r="GL6" t="inlineStr">
+      <c r="GL6" t="inlineStr"/>
+      <c r="GM6" t="inlineStr"/>
+      <c r="GN6" t="inlineStr"/>
+      <c r="GO6" t="inlineStr"/>
+      <c r="GP6" t="inlineStr"/>
+      <c r="GQ6" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -3727,9 +3809,19 @@
         </is>
       </c>
       <c r="DF7" t="inlineStr"/>
-      <c r="DG7" t="inlineStr"/>
-      <c r="DH7" t="inlineStr"/>
-      <c r="DI7" t="inlineStr"/>
+      <c r="DG7" t="inlineStr">
+        <is>
+          <t>919_012_50</t>
+        </is>
+      </c>
+      <c r="DH7" t="n">
+        <v>937</v>
+      </c>
+      <c r="DI7" t="inlineStr">
+        <is>
+          <t>919_012_50_937</t>
+        </is>
+      </c>
       <c r="DJ7" t="inlineStr"/>
       <c r="DK7" t="inlineStr"/>
       <c r="DL7" t="inlineStr"/>
@@ -3810,7 +3902,12 @@
       <c r="GI7" t="inlineStr"/>
       <c r="GJ7" t="inlineStr"/>
       <c r="GK7" t="inlineStr"/>
-      <c r="GL7" t="inlineStr">
+      <c r="GL7" t="inlineStr"/>
+      <c r="GM7" t="inlineStr"/>
+      <c r="GN7" t="inlineStr"/>
+      <c r="GO7" t="inlineStr"/>
+      <c r="GP7" t="inlineStr"/>
+      <c r="GQ7" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -4133,9 +4230,19 @@
         </is>
       </c>
       <c r="DF8" t="inlineStr"/>
-      <c r="DG8" t="inlineStr"/>
-      <c r="DH8" t="inlineStr"/>
-      <c r="DI8" t="inlineStr"/>
+      <c r="DG8" t="inlineStr">
+        <is>
+          <t>919_012_50</t>
+        </is>
+      </c>
+      <c r="DH8" t="n">
+        <v>955</v>
+      </c>
+      <c r="DI8" t="inlineStr">
+        <is>
+          <t>919_012_50_955</t>
+        </is>
+      </c>
       <c r="DJ8" t="inlineStr"/>
       <c r="DK8" t="inlineStr"/>
       <c r="DL8" t="inlineStr"/>
@@ -4216,7 +4323,12 @@
       <c r="GI8" t="inlineStr"/>
       <c r="GJ8" t="inlineStr"/>
       <c r="GK8" t="inlineStr"/>
-      <c r="GL8" t="inlineStr">
+      <c r="GL8" t="inlineStr"/>
+      <c r="GM8" t="inlineStr"/>
+      <c r="GN8" t="inlineStr"/>
+      <c r="GO8" t="inlineStr"/>
+      <c r="GP8" t="inlineStr"/>
+      <c r="GQ8" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -4527,9 +4639,19 @@
         </is>
       </c>
       <c r="DF9" t="inlineStr"/>
-      <c r="DG9" t="inlineStr"/>
-      <c r="DH9" t="inlineStr"/>
-      <c r="DI9" t="inlineStr"/>
+      <c r="DG9" t="inlineStr">
+        <is>
+          <t>919_012_50</t>
+        </is>
+      </c>
+      <c r="DH9" t="n">
+        <v>955</v>
+      </c>
+      <c r="DI9" t="inlineStr">
+        <is>
+          <t>919_012_50_955</t>
+        </is>
+      </c>
       <c r="DJ9" t="inlineStr"/>
       <c r="DK9" t="inlineStr"/>
       <c r="DL9" t="inlineStr"/>
@@ -4610,7 +4732,12 @@
       <c r="GI9" t="inlineStr"/>
       <c r="GJ9" t="inlineStr"/>
       <c r="GK9" t="inlineStr"/>
-      <c r="GL9" t="inlineStr">
+      <c r="GL9" t="inlineStr"/>
+      <c r="GM9" t="inlineStr"/>
+      <c r="GN9" t="inlineStr"/>
+      <c r="GO9" t="inlineStr"/>
+      <c r="GP9" t="inlineStr"/>
+      <c r="GQ9" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -4951,129 +5078,139 @@
         </is>
       </c>
       <c r="DF10" t="inlineStr"/>
-      <c r="DG10" t="n">
+      <c r="DG10" t="inlineStr">
+        <is>
+          <t>919_013_49</t>
+        </is>
+      </c>
+      <c r="DH10" t="n">
+        <v>538</v>
+      </c>
+      <c r="DI10" t="inlineStr">
+        <is>
+          <t>919_013_49_538</t>
+        </is>
+      </c>
+      <c r="DJ10" t="inlineStr"/>
+      <c r="DK10" t="n">
         <v>0.01465663092952686</v>
       </c>
-      <c r="DH10" t="n">
+      <c r="DL10" t="n">
         <v>0.001391531530477535</v>
       </c>
-      <c r="DI10" t="n">
+      <c r="DM10" t="n">
         <v>0.001650779980771377</v>
       </c>
-      <c r="DJ10" t="n">
+      <c r="DN10" t="n">
         <v>5.452135507444933e-07</v>
       </c>
-      <c r="DK10" t="n">
+      <c r="DO10" t="n">
         <v>0.03283217129525115</v>
       </c>
-      <c r="DL10" t="n">
+      <c r="DP10" t="n">
         <v>0.003641137469885497</v>
       </c>
-      <c r="DM10" t="n">
+      <c r="DQ10" t="n">
         <v>0.0002379913975191358</v>
       </c>
-      <c r="DN10" t="n">
+      <c r="DR10" t="n">
         <v>0.003706620985048554</v>
       </c>
-      <c r="DO10" t="n">
+      <c r="DS10" t="n">
         <v>4.195264532779787</v>
       </c>
-      <c r="DP10" t="n">
+      <c r="DT10" t="n">
         <v>0</v>
       </c>
-      <c r="DQ10" t="n">
+      <c r="DU10" t="n">
         <v>0</v>
       </c>
-      <c r="DR10" t="n">
+      <c r="DV10" t="n">
         <v>0</v>
       </c>
-      <c r="DS10" t="inlineStr"/>
-      <c r="DT10" t="inlineStr"/>
-      <c r="DU10" t="n">
+      <c r="DW10" t="inlineStr"/>
+      <c r="DX10" t="inlineStr"/>
+      <c r="DY10" t="n">
         <v>0.0130094242501187</v>
       </c>
-      <c r="DV10" t="n">
+      <c r="DZ10" t="n">
         <v>0.0008393358235464301</v>
       </c>
-      <c r="DW10" t="n">
+      <c r="EA10" t="n">
         <v>0.01465663092952686</v>
       </c>
-      <c r="DX10" t="n">
+      <c r="EB10" t="n">
         <v>0.001391531530477535</v>
       </c>
-      <c r="DY10" t="n">
+      <c r="EC10" t="n">
         <v>0.01897417781016103</v>
       </c>
-      <c r="DZ10" t="n">
+      <c r="ED10" t="n">
         <v>0.001919656844895698</v>
       </c>
-      <c r="EA10" t="n">
+      <c r="EE10" t="n">
         <v>0.08886707306223345</v>
       </c>
-      <c r="EB10" t="n">
+      <c r="EF10" t="n">
         <v>0.003706620985048554</v>
       </c>
-      <c r="EC10" t="n">
+      <c r="EG10" t="n">
         <v>0.2439618102608635</v>
       </c>
-      <c r="ED10" t="n">
+      <c r="EH10" t="n">
         <v>0.003314618115938531</v>
       </c>
-      <c r="EE10" t="n">
+      <c r="EI10" t="n">
         <v>187.4230418601362</v>
       </c>
-      <c r="EF10" t="n">
+      <c r="EJ10" t="n">
         <v>0.2439971673683053</v>
       </c>
-      <c r="EG10" t="n">
+      <c r="EK10" t="n">
         <v>571.4426760628206</v>
       </c>
-      <c r="EH10" t="n">
+      <c r="EL10" t="n">
         <v>0.03955013110408152</v>
       </c>
-      <c r="EI10" t="n">
+      <c r="EM10" t="n">
         <v>0.3032522557317311</v>
       </c>
-      <c r="EJ10" t="n">
+      <c r="EN10" t="n">
         <v>0.06063327425918302</v>
       </c>
-      <c r="EK10" t="n">
+      <c r="EO10" t="n">
         <v>0.07910026220816242</v>
       </c>
-      <c r="EL10" t="n">
+      <c r="EP10" t="n">
         <v>0.1551654514121873</v>
       </c>
-      <c r="EM10" t="n">
+      <c r="EQ10" t="n">
         <v>0.001666691531909922</v>
       </c>
-      <c r="EN10" t="n">
+      <c r="ER10" t="n">
         <v>420.739076412175</v>
       </c>
-      <c r="EO10" t="n">
+      <c r="ES10" t="n">
         <v>0.1551300943053886</v>
       </c>
-      <c r="EP10" t="n">
+      <c r="ET10" t="n">
         <v>902.2401821988095</v>
       </c>
-      <c r="EQ10" t="n">
+      <c r="EU10" t="n">
         <v>0.004536028295384205</v>
       </c>
-      <c r="ER10" t="n">
+      <c r="EV10" t="n">
         <v>0</v>
       </c>
-      <c r="ES10" t="n">
+      <c r="EW10" t="n">
         <v>0.3794182307936993</v>
       </c>
-      <c r="ET10" t="n">
+      <c r="EX10" t="n">
         <v>0.04240775807277834</v>
       </c>
-      <c r="EU10" t="n">
+      <c r="EY10" t="n">
         <v>0.00907205659076841</v>
       </c>
-      <c r="EV10" t="inlineStr"/>
-      <c r="EW10" t="inlineStr"/>
-      <c r="EX10" t="inlineStr"/>
-      <c r="EY10" t="inlineStr"/>
       <c r="EZ10" t="inlineStr"/>
       <c r="FA10" t="inlineStr"/>
       <c r="FB10" t="inlineStr"/>
@@ -5085,78 +5222,85 @@
       <c r="FH10" t="inlineStr"/>
       <c r="FI10" t="inlineStr"/>
       <c r="FJ10" t="inlineStr"/>
-      <c r="FK10" t="n">
+      <c r="FK10" t="inlineStr"/>
+      <c r="FL10" t="inlineStr"/>
+      <c r="FM10" t="inlineStr"/>
+      <c r="FN10" t="inlineStr"/>
+      <c r="FO10" t="n">
         <v>0.2009313627890244</v>
       </c>
-      <c r="FL10" t="n">
+      <c r="FP10" t="n">
         <v>0.07723356115217575</v>
       </c>
-      <c r="FM10" t="n">
+      <c r="FQ10" t="n">
         <v>0.4523298674363747</v>
       </c>
-      <c r="FN10" t="n">
+      <c r="FR10" t="n">
         <v>0.002896401622033128</v>
       </c>
-      <c r="FO10" t="n">
+      <c r="FS10" t="n">
         <v>0.03078028452376906</v>
       </c>
-      <c r="FP10" t="n">
+      <c r="FT10" t="n">
         <v>0.01131017848094724</v>
       </c>
-      <c r="FQ10" t="n">
+      <c r="FU10" t="n">
         <v>0.04906965787702216</v>
       </c>
-      <c r="FR10" t="n">
+      <c r="FV10" t="n">
         <v>0.0009764501218470917</v>
       </c>
-      <c r="FS10" t="n">
+      <c r="FW10" t="n">
         <v>0.7071067811865476</v>
       </c>
-      <c r="FT10" t="n">
+      <c r="FX10" t="n">
         <v>10.60660171779821</v>
       </c>
-      <c r="FU10" t="n">
+      <c r="FY10" t="n">
         <v>0.7071067811865476</v>
       </c>
-      <c r="FV10" t="n">
+      <c r="FZ10" t="n">
         <v>0</v>
       </c>
-      <c r="FW10" t="n">
+      <c r="GA10" t="n">
         <v>66910.68627655825</v>
       </c>
-      <c r="FX10" t="n">
+      <c r="GB10" t="n">
         <v>0.09740504931721129</v>
       </c>
-      <c r="FY10" t="n">
+      <c r="GC10" t="n">
         <v>45.04797536935938</v>
       </c>
-      <c r="FZ10" t="n">
+      <c r="GD10" t="n">
         <v>26.00897960909389</v>
       </c>
-      <c r="GA10" t="inlineStr"/>
-      <c r="GB10" t="inlineStr"/>
-      <c r="GC10" t="inlineStr"/>
-      <c r="GD10" t="inlineStr"/>
-      <c r="GE10" t="n">
+      <c r="GE10" t="inlineStr"/>
+      <c r="GF10" t="inlineStr"/>
+      <c r="GG10" t="inlineStr"/>
+      <c r="GH10" t="inlineStr"/>
+      <c r="GI10" t="n">
         <v>0.000252134076796336</v>
       </c>
-      <c r="GF10" t="n">
+      <c r="GJ10" t="n">
         <v>0.0001061677391807527</v>
       </c>
-      <c r="GG10" t="n">
+      <c r="GK10" t="n">
         <v>66910.68627655825</v>
       </c>
-      <c r="GH10" t="n">
+      <c r="GL10" t="n">
         <v>0.0005377136739286114</v>
       </c>
-      <c r="GI10" t="n">
+      <c r="GM10" t="n">
         <v>0.0005354160563241137</v>
       </c>
-      <c r="GJ10" t="n">
+      <c r="GN10" t="n">
         <v>0.0005400112915331089</v>
       </c>
-      <c r="GK10" t="inlineStr"/>
-      <c r="GL10" t="inlineStr">
+      <c r="GO10" t="inlineStr"/>
+      <c r="GP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ10" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -5509,224 +5653,241 @@
         </is>
       </c>
       <c r="DF11" t="inlineStr"/>
-      <c r="DG11" t="n">
+      <c r="DG11" t="inlineStr">
+        <is>
+          <t>919_013_49</t>
+        </is>
+      </c>
+      <c r="DH11" t="n">
+        <v>538</v>
+      </c>
+      <c r="DI11" t="inlineStr">
+        <is>
+          <t>919_013_49_538</t>
+        </is>
+      </c>
+      <c r="DJ11" t="inlineStr"/>
+      <c r="DK11" t="n">
         <v>0.02572305129137397</v>
       </c>
-      <c r="DH11" t="n">
+      <c r="DL11" t="n">
         <v>0.0001526442334830355</v>
       </c>
-      <c r="DI11" t="n">
+      <c r="DM11" t="n">
         <v>0.0002525642951428723</v>
       </c>
-      <c r="DJ11" t="n">
+      <c r="DN11" t="n">
         <v>6.190641192719959e-07</v>
       </c>
-      <c r="DK11" t="n">
+      <c r="DO11" t="n">
         <v>0.05796440855356589</v>
       </c>
-      <c r="DL11" t="n">
+      <c r="DP11" t="n">
         <v>0.0006157552143349253</v>
       </c>
-      <c r="DM11" t="n">
+      <c r="DQ11" t="n">
         <v>0.0002395797591164581</v>
       </c>
-      <c r="DN11" t="n">
+      <c r="DR11" t="n">
         <v>0.0006955389747037809</v>
       </c>
-      <c r="DO11" t="n">
+      <c r="DS11" t="n">
         <v>4.189607678530294</v>
       </c>
-      <c r="DP11" t="n">
+      <c r="DT11" t="n">
         <v>0</v>
       </c>
-      <c r="DQ11" t="n">
+      <c r="DU11" t="n">
         <v>0</v>
       </c>
-      <c r="DR11" t="n">
+      <c r="DV11" t="n">
         <v>0</v>
       </c>
-      <c r="DS11" t="inlineStr"/>
-      <c r="DT11" t="inlineStr"/>
-      <c r="DU11" t="n">
+      <c r="DW11" t="inlineStr"/>
+      <c r="DX11" t="inlineStr"/>
+      <c r="DY11" t="n">
         <v>0.02296782553608717</v>
       </c>
-      <c r="DV11" t="n">
+      <c r="DZ11" t="n">
         <v>0.0001622841858623734</v>
       </c>
-      <c r="DW11" t="n">
+      <c r="EA11" t="n">
         <v>0.02572305129137397</v>
       </c>
-      <c r="DX11" t="n">
+      <c r="EB11" t="n">
         <v>0.0001526442334830355</v>
       </c>
-      <c r="DY11" t="n">
+      <c r="EC11" t="n">
         <v>0.03386583188559357</v>
       </c>
-      <c r="DZ11" t="n">
+      <c r="ED11" t="n">
         <v>0.0003391174765672024</v>
       </c>
-      <c r="EA11" t="n">
+      <c r="EE11" t="n">
         <v>0.00166228774489208</v>
       </c>
-      <c r="EB11" t="n">
+      <c r="EF11" t="n">
         <v>0.0006955389747037819</v>
       </c>
-      <c r="EC11" t="n">
+      <c r="EG11" t="n">
         <v>0.04260104857773268</v>
       </c>
-      <c r="ED11" t="n">
+      <c r="EH11" t="n">
         <v>0.0005665195250659913</v>
       </c>
-      <c r="EE11" t="n">
+      <c r="EI11" t="n">
         <v>1315.388395274785</v>
       </c>
-      <c r="EF11" t="n">
+      <c r="EJ11" t="n">
         <v>0.04260104857797384</v>
       </c>
-      <c r="EG11" t="n">
+      <c r="EK11" t="n">
         <v>3740.285986763584</v>
       </c>
-      <c r="EH11" t="n">
+      <c r="EL11" t="n">
         <v>0.005996315868032858</v>
       </c>
-      <c r="EI11" t="n">
+      <c r="EM11" t="n">
         <v>3.016841451410441</v>
       </c>
-      <c r="EJ11" t="n">
+      <c r="EN11" t="n">
         <v>0.009379349718816286</v>
       </c>
-      <c r="EK11" t="n">
+      <c r="EO11" t="n">
         <v>0.01199263173606572</v>
       </c>
-      <c r="EL11" t="n">
+      <c r="EP11" t="n">
         <v>0.04419262210936899</v>
       </c>
-      <c r="EM11" t="n">
+      <c r="EQ11" t="n">
         <v>0.0004135168434094085</v>
       </c>
-      <c r="EN11" t="n">
+      <c r="ER11" t="n">
         <v>2846.091882512138</v>
       </c>
-      <c r="EO11" t="n">
+      <c r="ES11" t="n">
         <v>0.04426333632312719</v>
       </c>
-      <c r="EP11" t="n">
+      <c r="ET11" t="n">
         <v>5883.178434692582</v>
       </c>
-      <c r="EQ11" t="n">
+      <c r="EU11" t="n">
         <v>0.005062985085230601</v>
       </c>
-      <c r="ER11" t="n">
+      <c r="EV11" t="n">
         <v>0</v>
       </c>
-      <c r="ES11" t="n">
+      <c r="EW11" t="n">
         <v>2.426483958308697</v>
       </c>
-      <c r="ET11" t="n">
+      <c r="EX11" t="n">
         <v>0.0232143872636297</v>
       </c>
-      <c r="EU11" t="n">
+      <c r="EY11" t="n">
         <v>0.01012597017046152</v>
       </c>
-      <c r="EV11" t="n">
+      <c r="EZ11" t="n">
         <v>0.06043691886493332</v>
       </c>
-      <c r="EW11" t="n">
+      <c r="FA11" t="n">
         <v>466.2070943993992</v>
       </c>
-      <c r="EX11" t="n">
+      <c r="FB11" t="n">
         <v>0.03204209526353088</v>
       </c>
-      <c r="EY11" t="n">
+      <c r="FC11" t="n">
         <v>0.07571818446673853</v>
       </c>
-      <c r="EZ11" t="n">
+      <c r="FD11" t="n">
         <v>620.2947460526543</v>
       </c>
-      <c r="FA11" t="n">
+      <c r="FE11" t="n">
         <v>0.001732580758036525</v>
       </c>
-      <c r="FB11" t="inlineStr"/>
-      <c r="FC11" t="inlineStr"/>
-      <c r="FD11" t="inlineStr"/>
-      <c r="FE11" t="inlineStr"/>
       <c r="FF11" t="inlineStr"/>
       <c r="FG11" t="inlineStr"/>
       <c r="FH11" t="inlineStr"/>
       <c r="FI11" t="inlineStr"/>
       <c r="FJ11" t="inlineStr"/>
-      <c r="FK11" t="n">
+      <c r="FK11" t="inlineStr"/>
+      <c r="FL11" t="inlineStr"/>
+      <c r="FM11" t="inlineStr"/>
+      <c r="FN11" t="inlineStr"/>
+      <c r="FO11" t="n">
         <v>0.01383200107035904</v>
       </c>
-      <c r="FL11" t="n">
+      <c r="FP11" t="n">
         <v>0.01320113848205606</v>
       </c>
-      <c r="FM11" t="n">
+      <c r="FQ11" t="n">
         <v>0.02810929579575908</v>
       </c>
-      <c r="FN11" t="n">
+      <c r="FR11" t="n">
         <v>0.001369691387727637</v>
       </c>
-      <c r="FO11" t="n">
+      <c r="FS11" t="n">
         <v>0.04985890541006292</v>
       </c>
-      <c r="FP11" t="n">
+      <c r="FT11" t="n">
         <v>0.04403546341636885</v>
       </c>
-      <c r="FQ11" t="n">
+      <c r="FU11" t="n">
         <v>0.07464013855802043</v>
       </c>
-      <c r="FR11" t="n">
+      <c r="FV11" t="n">
         <v>0.0004429587446765491</v>
       </c>
-      <c r="FS11" t="n">
+      <c r="FW11" t="n">
         <v>0.7071067811865476</v>
       </c>
-      <c r="FT11" t="n">
+      <c r="FX11" t="n">
         <v>10.60660171779821</v>
       </c>
-      <c r="FU11" t="n">
+      <c r="FY11" t="n">
         <v>0.7071067811865476</v>
       </c>
-      <c r="FV11" t="n">
+      <c r="FZ11" t="n">
         <v>0</v>
       </c>
-      <c r="FW11" t="n">
+      <c r="GA11" t="n">
         <v>66939.67765458689</v>
       </c>
-      <c r="FX11" t="n">
+      <c r="GB11" t="n">
         <v>0.03758205235201747</v>
       </c>
-      <c r="FY11" t="n">
+      <c r="GC11" t="n">
         <v>138.8958320950003</v>
       </c>
-      <c r="FZ11" t="n">
+      <c r="GD11" t="n">
         <v>103.0219230200878</v>
       </c>
-      <c r="GA11" t="inlineStr"/>
-      <c r="GB11" t="inlineStr"/>
-      <c r="GC11" t="inlineStr"/>
-      <c r="GD11" t="inlineStr"/>
-      <c r="GE11" t="n">
+      <c r="GE11" t="inlineStr"/>
+      <c r="GF11" t="inlineStr"/>
+      <c r="GG11" t="inlineStr"/>
+      <c r="GH11" t="inlineStr"/>
+      <c r="GI11" t="n">
         <v>0.001186044552939495</v>
       </c>
-      <c r="GF11" t="n">
+      <c r="GJ11" t="n">
         <v>0.0005054566521675766</v>
       </c>
-      <c r="GG11" t="n">
+      <c r="GK11" t="n">
         <v>66939.67765458689</v>
       </c>
-      <c r="GH11" t="n">
+      <c r="GL11" t="n">
         <v>0.0005419065328989578</v>
       </c>
-      <c r="GI11" t="n">
+      <c r="GM11" t="n">
         <v>0.0005396008429356707</v>
       </c>
-      <c r="GJ11" t="n">
+      <c r="GN11" t="n">
         <v>0.000544212222862245</v>
       </c>
-      <c r="GK11" t="inlineStr"/>
-      <c r="GL11" t="inlineStr">
+      <c r="GO11" t="inlineStr"/>
+      <c r="GP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ11" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -6079,236 +6240,253 @@
         </is>
       </c>
       <c r="DF12" t="inlineStr"/>
-      <c r="DG12" t="n">
+      <c r="DG12" t="inlineStr">
+        <is>
+          <t>919_013_49</t>
+        </is>
+      </c>
+      <c r="DH12" t="n">
+        <v>538</v>
+      </c>
+      <c r="DI12" t="inlineStr">
+        <is>
+          <t>919_013_49_538</t>
+        </is>
+      </c>
+      <c r="DJ12" t="inlineStr"/>
+      <c r="DK12" t="n">
         <v>0.02169796579914571</v>
       </c>
-      <c r="DH12" t="n">
+      <c r="DL12" t="n">
         <v>1.38506370237308e-05</v>
       </c>
-      <c r="DI12" t="n">
+      <c r="DM12" t="n">
         <v>2.358843145582725e-05</v>
       </c>
-      <c r="DJ12" t="n">
+      <c r="DN12" t="n">
         <v>1.657131909531904e-07</v>
       </c>
-      <c r="DK12" t="n">
+      <c r="DO12" t="n">
         <v>0.0492484375570132</v>
       </c>
-      <c r="DL12" t="n">
+      <c r="DP12" t="n">
         <v>9.114811959150215e-05</v>
       </c>
-      <c r="DM12" t="n">
+      <c r="DQ12" t="n">
         <v>0.0002397934298640002</v>
       </c>
-      <c r="DN12" t="n">
+      <c r="DR12" t="n">
         <v>0.0001558404403486619</v>
       </c>
-      <c r="DO12" t="n">
+      <c r="DS12" t="n">
         <v>4.193850319217414</v>
       </c>
-      <c r="DP12" t="n">
+      <c r="DT12" t="n">
         <v>0</v>
       </c>
-      <c r="DQ12" t="n">
+      <c r="DU12" t="n">
         <v>0</v>
       </c>
-      <c r="DR12" t="n">
+      <c r="DV12" t="n">
         <v>0</v>
       </c>
-      <c r="DS12" t="inlineStr"/>
-      <c r="DT12" t="inlineStr"/>
-      <c r="DU12" t="n">
+      <c r="DW12" t="inlineStr"/>
+      <c r="DX12" t="inlineStr"/>
+      <c r="DY12" t="n">
         <v>0.01951420794174832</v>
       </c>
-      <c r="DV12" t="n">
+      <c r="DZ12" t="n">
         <v>0.0001803016316565451</v>
       </c>
-      <c r="DW12" t="n">
+      <c r="EA12" t="n">
         <v>0.02169796579914571</v>
       </c>
-      <c r="DX12" t="n">
+      <c r="EB12" t="n">
         <v>1.38506370237308e-05</v>
       </c>
-      <c r="DY12" t="n">
+      <c r="EC12" t="n">
         <v>0.02915870567861535</v>
       </c>
-      <c r="DZ12" t="n">
+      <c r="ED12" t="n">
         <v>8.338641487293882e-05</v>
       </c>
-      <c r="EA12" t="n">
+      <c r="EE12" t="n">
         <v>0.007437632752265336</v>
       </c>
-      <c r="EB12" t="n">
+      <c r="EF12" t="n">
         <v>0.0001558404403486619</v>
       </c>
-      <c r="EC12" t="n">
+      <c r="EG12" t="n">
         <v>0.04487090168237531</v>
       </c>
-      <c r="ED12" t="n">
+      <c r="EH12" t="n">
         <v>0.0001789530890860058</v>
       </c>
-      <c r="EE12" t="n">
+      <c r="EI12" t="n">
         <v>1030.549390305232</v>
       </c>
-      <c r="EF12" t="n">
+      <c r="EJ12" t="n">
         <v>0.04487090168229493</v>
       </c>
-      <c r="EG12" t="n">
+      <c r="EK12" t="n">
         <v>2894.454721158165</v>
       </c>
-      <c r="EH12" t="n">
+      <c r="EL12" t="n">
         <v>0.001542225902266104</v>
       </c>
-      <c r="EI12" t="n">
+      <c r="EM12" t="n">
         <v>3.315254398276684</v>
       </c>
-      <c r="EJ12" t="n">
+      <c r="EN12" t="n">
         <v>0.004639311305070933</v>
       </c>
-      <c r="EK12" t="n">
+      <c r="EO12" t="n">
         <v>0.003084451804532679</v>
       </c>
-      <c r="EL12" t="n">
+      <c r="EP12" t="n">
         <v>0.03743326892932619</v>
       </c>
-      <c r="EM12" t="n">
+      <c r="EQ12" t="n">
         <v>1.66745158607431e-05</v>
       </c>
-      <c r="EN12" t="n">
+      <c r="ER12" t="n">
         <v>2243.98103521621</v>
       </c>
-      <c r="EO12" t="n">
+      <c r="ES12" t="n">
         <v>0.03743326892956735</v>
       </c>
-      <c r="EP12" t="n">
+      <c r="ET12" t="n">
         <v>4529.634532984051</v>
       </c>
-      <c r="EQ12" t="n">
+      <c r="EU12" t="n">
         <v>0.003370987805137661</v>
       </c>
-      <c r="ER12" t="n">
+      <c r="EV12" t="n">
         <v>0</v>
       </c>
-      <c r="ES12" t="n">
+      <c r="EW12" t="n">
         <v>2.85147429572378</v>
       </c>
-      <c r="ET12" t="n">
+      <c r="EX12" t="n">
         <v>0.005671140353772595</v>
       </c>
-      <c r="EU12" t="n">
+      <c r="EY12" t="n">
         <v>0.006741975610275321</v>
       </c>
-      <c r="EV12" t="n">
+      <c r="EZ12" t="n">
         <v>0.04089313679615371</v>
       </c>
-      <c r="EW12" t="n">
+      <c r="FA12" t="n">
         <v>362.1459587514834</v>
       </c>
-      <c r="EX12" t="n">
+      <c r="FB12" t="n">
         <v>0.08592381977133465</v>
       </c>
-      <c r="EY12" t="n">
+      <c r="FC12" t="n">
         <v>0.04936091010678668</v>
       </c>
-      <c r="EZ12" t="n">
+      <c r="FD12" t="n">
         <v>485.9326757447266</v>
       </c>
-      <c r="FA12" t="n">
+      <c r="FE12" t="n">
         <v>0.0003949087440625286</v>
       </c>
-      <c r="FB12" t="n">
+      <c r="FF12" t="n">
         <v>0.1197768466404392</v>
       </c>
-      <c r="FC12" t="n">
+      <c r="FG12" t="n">
         <v>63.49176744504125</v>
       </c>
-      <c r="FD12" t="n">
+      <c r="FH12" t="n">
         <v>0.001590245556296673</v>
       </c>
-      <c r="FE12" t="n">
+      <c r="FI12" t="n">
         <v>1.007397890368395</v>
       </c>
-      <c r="FF12" t="n">
+      <c r="FJ12" t="n">
         <v>338.1551573475179</v>
       </c>
-      <c r="FG12" t="n">
+      <c r="FK12" t="n">
         <v>0.07937314070450703</v>
       </c>
-      <c r="FH12" t="inlineStr"/>
-      <c r="FI12" t="inlineStr"/>
-      <c r="FJ12" t="inlineStr"/>
-      <c r="FK12" t="n">
+      <c r="FL12" t="inlineStr"/>
+      <c r="FM12" t="inlineStr"/>
+      <c r="FN12" t="inlineStr"/>
+      <c r="FO12" t="n">
         <v>0.01311820009522554</v>
       </c>
-      <c r="FL12" t="n">
+      <c r="FP12" t="n">
         <v>0.009601939132695587</v>
       </c>
-      <c r="FM12" t="n">
+      <c r="FQ12" t="n">
         <v>0.0272458159509292</v>
       </c>
-      <c r="FN12" t="n">
+      <c r="FR12" t="n">
         <v>0.0008206096634402185</v>
       </c>
-      <c r="FO12" t="n">
+      <c r="FS12" t="n">
         <v>0.03551003814823152</v>
       </c>
-      <c r="FP12" t="n">
+      <c r="FT12" t="n">
         <v>0.01773679217022154</v>
       </c>
-      <c r="FQ12" t="n">
+      <c r="FU12" t="n">
         <v>0.05429177646694539</v>
       </c>
-      <c r="FR12" t="n">
+      <c r="FV12" t="n">
         <v>0.0002771097150592462</v>
       </c>
-      <c r="FS12" t="n">
+      <c r="FW12" t="n">
         <v>0.7071067811865476</v>
       </c>
-      <c r="FT12" t="n">
+      <c r="FX12" t="n">
         <v>10.60660171779821</v>
       </c>
-      <c r="FU12" t="n">
+      <c r="FY12" t="n">
         <v>0.7071067811865476</v>
       </c>
-      <c r="FV12" t="n">
+      <c r="FZ12" t="n">
         <v>0</v>
       </c>
-      <c r="FW12" t="n">
+      <c r="GA12" t="n">
         <v>66912.10049012062</v>
       </c>
-      <c r="FX12" t="n">
+      <c r="GB12" t="n">
         <v>0.02988391536356558</v>
       </c>
-      <c r="FY12" t="n">
+      <c r="GC12" t="n">
         <v>106.9693750624059</v>
       </c>
-      <c r="FZ12" t="n">
+      <c r="GD12" t="n">
         <v>65.33749711852101</v>
       </c>
-      <c r="GA12" t="inlineStr"/>
-      <c r="GB12" t="inlineStr"/>
-      <c r="GC12" t="inlineStr"/>
-      <c r="GD12" t="inlineStr"/>
-      <c r="GE12" t="n">
+      <c r="GE12" t="inlineStr"/>
+      <c r="GF12" t="inlineStr"/>
+      <c r="GG12" t="inlineStr"/>
+      <c r="GH12" t="inlineStr"/>
+      <c r="GI12" t="n">
         <v>0.0004092899765518695</v>
       </c>
-      <c r="GF12" t="n">
+      <c r="GJ12" t="n">
         <v>0.0001747691533424445</v>
       </c>
-      <c r="GG12" t="n">
+      <c r="GK12" t="n">
         <v>66912.10049012062</v>
       </c>
-      <c r="GH12" t="n">
+      <c r="GL12" t="n">
         <v>0.0005456487624068553</v>
       </c>
-      <c r="GI12" t="n">
+      <c r="GM12" t="n">
         <v>0.0005433394002281502</v>
       </c>
-      <c r="GJ12" t="n">
+      <c r="GN12" t="n">
         <v>0.0005479581245855606</v>
       </c>
-      <c r="GK12" t="inlineStr"/>
-      <c r="GL12" t="inlineStr">
+      <c r="GO12" t="inlineStr"/>
+      <c r="GP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ12" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -6643,9 +6821,19 @@
         </is>
       </c>
       <c r="DF13" t="inlineStr"/>
-      <c r="DG13" t="inlineStr"/>
-      <c r="DH13" t="inlineStr"/>
-      <c r="DI13" t="inlineStr"/>
+      <c r="DG13" t="inlineStr">
+        <is>
+          <t>919_014_48</t>
+        </is>
+      </c>
+      <c r="DH13" t="n">
+        <v>271</v>
+      </c>
+      <c r="DI13" t="inlineStr">
+        <is>
+          <t>919_014_48_271</t>
+        </is>
+      </c>
       <c r="DJ13" t="inlineStr"/>
       <c r="DK13" t="inlineStr"/>
       <c r="DL13" t="inlineStr"/>
@@ -6726,7 +6914,12 @@
       <c r="GI13" t="inlineStr"/>
       <c r="GJ13" t="inlineStr"/>
       <c r="GK13" t="inlineStr"/>
-      <c r="GL13" t="inlineStr">
+      <c r="GL13" t="inlineStr"/>
+      <c r="GM13" t="inlineStr"/>
+      <c r="GN13" t="inlineStr"/>
+      <c r="GO13" t="inlineStr"/>
+      <c r="GP13" t="inlineStr"/>
+      <c r="GQ13" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -7037,9 +7230,19 @@
         </is>
       </c>
       <c r="DF14" t="inlineStr"/>
-      <c r="DG14" t="inlineStr"/>
-      <c r="DH14" t="inlineStr"/>
-      <c r="DI14" t="inlineStr"/>
+      <c r="DG14" t="inlineStr">
+        <is>
+          <t>919_014_48</t>
+        </is>
+      </c>
+      <c r="DH14" t="n">
+        <v>271</v>
+      </c>
+      <c r="DI14" t="inlineStr">
+        <is>
+          <t>919_014_48_271</t>
+        </is>
+      </c>
       <c r="DJ14" t="inlineStr"/>
       <c r="DK14" t="inlineStr"/>
       <c r="DL14" t="inlineStr"/>
@@ -7120,7 +7323,12 @@
       <c r="GI14" t="inlineStr"/>
       <c r="GJ14" t="inlineStr"/>
       <c r="GK14" t="inlineStr"/>
-      <c r="GL14" t="inlineStr">
+      <c r="GL14" t="inlineStr"/>
+      <c r="GM14" t="inlineStr"/>
+      <c r="GN14" t="inlineStr"/>
+      <c r="GO14" t="inlineStr"/>
+      <c r="GP14" t="inlineStr"/>
+      <c r="GQ14" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -7437,9 +7645,19 @@
         </is>
       </c>
       <c r="DF15" t="inlineStr"/>
-      <c r="DG15" t="inlineStr"/>
-      <c r="DH15" t="inlineStr"/>
-      <c r="DI15" t="inlineStr"/>
+      <c r="DG15" t="inlineStr">
+        <is>
+          <t>919_014_48</t>
+        </is>
+      </c>
+      <c r="DH15" t="n">
+        <v>271</v>
+      </c>
+      <c r="DI15" t="inlineStr">
+        <is>
+          <t>919_014_48_271</t>
+        </is>
+      </c>
       <c r="DJ15" t="inlineStr"/>
       <c r="DK15" t="inlineStr"/>
       <c r="DL15" t="inlineStr"/>
@@ -7520,7 +7738,12 @@
       <c r="GI15" t="inlineStr"/>
       <c r="GJ15" t="inlineStr"/>
       <c r="GK15" t="inlineStr"/>
-      <c r="GL15" t="inlineStr">
+      <c r="GL15" t="inlineStr"/>
+      <c r="GM15" t="inlineStr"/>
+      <c r="GN15" t="inlineStr"/>
+      <c r="GO15" t="inlineStr"/>
+      <c r="GP15" t="inlineStr"/>
+      <c r="GQ15" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -7843,9 +8066,19 @@
         </is>
       </c>
       <c r="DF16" t="inlineStr"/>
-      <c r="DG16" t="inlineStr"/>
-      <c r="DH16" t="inlineStr"/>
-      <c r="DI16" t="inlineStr"/>
+      <c r="DG16" t="inlineStr">
+        <is>
+          <t>919_015+016_47</t>
+        </is>
+      </c>
+      <c r="DH16" t="n">
+        <v>96</v>
+      </c>
+      <c r="DI16" t="inlineStr">
+        <is>
+          <t>919_015+016_47_96</t>
+        </is>
+      </c>
       <c r="DJ16" t="inlineStr"/>
       <c r="DK16" t="inlineStr"/>
       <c r="DL16" t="inlineStr"/>
@@ -7926,7 +8159,12 @@
       <c r="GI16" t="inlineStr"/>
       <c r="GJ16" t="inlineStr"/>
       <c r="GK16" t="inlineStr"/>
-      <c r="GL16" t="inlineStr">
+      <c r="GL16" t="inlineStr"/>
+      <c r="GM16" t="inlineStr"/>
+      <c r="GN16" t="inlineStr"/>
+      <c r="GO16" t="inlineStr"/>
+      <c r="GP16" t="inlineStr"/>
+      <c r="GQ16" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -8243,9 +8481,19 @@
         </is>
       </c>
       <c r="DF17" t="inlineStr"/>
-      <c r="DG17" t="inlineStr"/>
-      <c r="DH17" t="inlineStr"/>
-      <c r="DI17" t="inlineStr"/>
+      <c r="DG17" t="inlineStr">
+        <is>
+          <t>919_015+016_47</t>
+        </is>
+      </c>
+      <c r="DH17" t="n">
+        <v>96</v>
+      </c>
+      <c r="DI17" t="inlineStr">
+        <is>
+          <t>919_015+016_47_96</t>
+        </is>
+      </c>
       <c r="DJ17" t="inlineStr"/>
       <c r="DK17" t="inlineStr"/>
       <c r="DL17" t="inlineStr"/>
@@ -8326,7 +8574,12 @@
       <c r="GI17" t="inlineStr"/>
       <c r="GJ17" t="inlineStr"/>
       <c r="GK17" t="inlineStr"/>
-      <c r="GL17" t="inlineStr">
+      <c r="GL17" t="inlineStr"/>
+      <c r="GM17" t="inlineStr"/>
+      <c r="GN17" t="inlineStr"/>
+      <c r="GO17" t="inlineStr"/>
+      <c r="GP17" t="inlineStr"/>
+      <c r="GQ17" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -8643,9 +8896,19 @@
         </is>
       </c>
       <c r="DF18" t="inlineStr"/>
-      <c r="DG18" t="inlineStr"/>
-      <c r="DH18" t="inlineStr"/>
-      <c r="DI18" t="inlineStr"/>
+      <c r="DG18" t="inlineStr">
+        <is>
+          <t>919_015+016_47</t>
+        </is>
+      </c>
+      <c r="DH18" t="n">
+        <v>96</v>
+      </c>
+      <c r="DI18" t="inlineStr">
+        <is>
+          <t>919_015+016_47_96</t>
+        </is>
+      </c>
       <c r="DJ18" t="inlineStr"/>
       <c r="DK18" t="inlineStr"/>
       <c r="DL18" t="inlineStr"/>
@@ -8726,7 +8989,12 @@
       <c r="GI18" t="inlineStr"/>
       <c r="GJ18" t="inlineStr"/>
       <c r="GK18" t="inlineStr"/>
-      <c r="GL18" t="inlineStr">
+      <c r="GL18" t="inlineStr"/>
+      <c r="GM18" t="inlineStr"/>
+      <c r="GN18" t="inlineStr"/>
+      <c r="GO18" t="inlineStr"/>
+      <c r="GP18" t="inlineStr"/>
+      <c r="GQ18" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -9037,9 +9305,19 @@
         </is>
       </c>
       <c r="DF19" t="inlineStr"/>
-      <c r="DG19" t="inlineStr"/>
-      <c r="DH19" t="inlineStr"/>
-      <c r="DI19" t="inlineStr"/>
+      <c r="DG19" t="inlineStr">
+        <is>
+          <t>919_017+018_64</t>
+        </is>
+      </c>
+      <c r="DH19" t="n">
+        <v>94</v>
+      </c>
+      <c r="DI19" t="inlineStr">
+        <is>
+          <t>919_017+018_64_94</t>
+        </is>
+      </c>
       <c r="DJ19" t="inlineStr"/>
       <c r="DK19" t="inlineStr"/>
       <c r="DL19" t="inlineStr"/>
@@ -9120,7 +9398,12 @@
       <c r="GI19" t="inlineStr"/>
       <c r="GJ19" t="inlineStr"/>
       <c r="GK19" t="inlineStr"/>
-      <c r="GL19" t="inlineStr">
+      <c r="GL19" t="inlineStr"/>
+      <c r="GM19" t="inlineStr"/>
+      <c r="GN19" t="inlineStr"/>
+      <c r="GO19" t="inlineStr"/>
+      <c r="GP19" t="inlineStr"/>
+      <c r="GQ19" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -9443,9 +9726,19 @@
         </is>
       </c>
       <c r="DF20" t="inlineStr"/>
-      <c r="DG20" t="inlineStr"/>
-      <c r="DH20" t="inlineStr"/>
-      <c r="DI20" t="inlineStr"/>
+      <c r="DG20" t="inlineStr">
+        <is>
+          <t>919_017+018_64</t>
+        </is>
+      </c>
+      <c r="DH20" t="n">
+        <v>89</v>
+      </c>
+      <c r="DI20" t="inlineStr">
+        <is>
+          <t>919_017+018_64_89</t>
+        </is>
+      </c>
       <c r="DJ20" t="inlineStr"/>
       <c r="DK20" t="inlineStr"/>
       <c r="DL20" t="inlineStr"/>
@@ -9526,7 +9819,12 @@
       <c r="GI20" t="inlineStr"/>
       <c r="GJ20" t="inlineStr"/>
       <c r="GK20" t="inlineStr"/>
-      <c r="GL20" t="inlineStr">
+      <c r="GL20" t="inlineStr"/>
+      <c r="GM20" t="inlineStr"/>
+      <c r="GN20" t="inlineStr"/>
+      <c r="GO20" t="inlineStr"/>
+      <c r="GP20" t="inlineStr"/>
+      <c r="GQ20" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -9837,9 +10135,19 @@
         </is>
       </c>
       <c r="DF21" t="inlineStr"/>
-      <c r="DG21" t="inlineStr"/>
-      <c r="DH21" t="inlineStr"/>
-      <c r="DI21" t="inlineStr"/>
+      <c r="DG21" t="inlineStr">
+        <is>
+          <t>919_019_53</t>
+        </is>
+      </c>
+      <c r="DH21" t="n">
+        <v>110</v>
+      </c>
+      <c r="DI21" t="inlineStr">
+        <is>
+          <t>919_019_53_110</t>
+        </is>
+      </c>
       <c r="DJ21" t="inlineStr"/>
       <c r="DK21" t="inlineStr"/>
       <c r="DL21" t="inlineStr"/>
@@ -9920,7 +10228,12 @@
       <c r="GI21" t="inlineStr"/>
       <c r="GJ21" t="inlineStr"/>
       <c r="GK21" t="inlineStr"/>
-      <c r="GL21" t="inlineStr">
+      <c r="GL21" t="inlineStr"/>
+      <c r="GM21" t="inlineStr"/>
+      <c r="GN21" t="inlineStr"/>
+      <c r="GO21" t="inlineStr"/>
+      <c r="GP21" t="inlineStr"/>
+      <c r="GQ21" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -10231,9 +10544,19 @@
         </is>
       </c>
       <c r="DF22" t="inlineStr"/>
-      <c r="DG22" t="inlineStr"/>
-      <c r="DH22" t="inlineStr"/>
-      <c r="DI22" t="inlineStr"/>
+      <c r="DG22" t="inlineStr">
+        <is>
+          <t>919_019_53</t>
+        </is>
+      </c>
+      <c r="DH22" t="n">
+        <v>110</v>
+      </c>
+      <c r="DI22" t="inlineStr">
+        <is>
+          <t>919_019_53_110</t>
+        </is>
+      </c>
       <c r="DJ22" t="inlineStr"/>
       <c r="DK22" t="inlineStr"/>
       <c r="DL22" t="inlineStr"/>
@@ -10314,7 +10637,12 @@
       <c r="GI22" t="inlineStr"/>
       <c r="GJ22" t="inlineStr"/>
       <c r="GK22" t="inlineStr"/>
-      <c r="GL22" t="inlineStr">
+      <c r="GL22" t="inlineStr"/>
+      <c r="GM22" t="inlineStr"/>
+      <c r="GN22" t="inlineStr"/>
+      <c r="GO22" t="inlineStr"/>
+      <c r="GP22" t="inlineStr"/>
+      <c r="GQ22" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -10629,129 +10957,139 @@
         </is>
       </c>
       <c r="DF23" t="inlineStr"/>
-      <c r="DG23" t="n">
+      <c r="DG23" t="inlineStr">
+        <is>
+          <t>919_001_41</t>
+        </is>
+      </c>
+      <c r="DH23" t="n">
+        <v>112</v>
+      </c>
+      <c r="DI23" t="inlineStr">
+        <is>
+          <t>919_001_41_112</t>
+        </is>
+      </c>
+      <c r="DJ23" t="inlineStr"/>
+      <c r="DK23" t="n">
         <v>0.008097412197233403</v>
       </c>
-      <c r="DH23" t="n">
+      <c r="DL23" t="n">
         <v>0.003496376623363195</v>
       </c>
-      <c r="DI23" t="n">
+      <c r="DM23" t="n">
         <v>0.003838833051476876</v>
       </c>
-      <c r="DJ23" t="n">
+      <c r="DN23" t="n">
         <v>2.695612835186246e-05</v>
       </c>
-      <c r="DK23" t="n">
+      <c r="DO23" t="n">
         <v>0.02043561799479266</v>
       </c>
-      <c r="DL23" t="n">
+      <c r="DP23" t="n">
         <v>0.009688147753250099</v>
       </c>
-      <c r="DM23" t="n">
+      <c r="DQ23" t="n">
         <v>1.514751410294978e-05</v>
       </c>
-      <c r="DN23" t="n">
+      <c r="DR23" t="n">
         <v>0.009715843256529636</v>
       </c>
-      <c r="DO23" t="n">
+      <c r="DS23" t="n">
         <v>4.152131019127407</v>
       </c>
-      <c r="DP23" t="n">
+      <c r="DT23" t="n">
         <v>0</v>
       </c>
-      <c r="DQ23" t="n">
+      <c r="DU23" t="n">
         <v>0</v>
       </c>
-      <c r="DR23" t="n">
+      <c r="DV23" t="n">
         <v>0</v>
       </c>
-      <c r="DS23" t="inlineStr"/>
-      <c r="DT23" t="inlineStr"/>
-      <c r="DU23" t="n">
+      <c r="DW23" t="inlineStr"/>
+      <c r="DX23" t="inlineStr"/>
+      <c r="DY23" t="n">
         <v>0.008097412197233403</v>
       </c>
-      <c r="DV23" t="n">
+      <c r="DZ23" t="n">
         <v>0.003496376623363195</v>
       </c>
-      <c r="DW23" t="n">
+      <c r="EA23" t="n">
         <v>0.00825631466630611</v>
       </c>
-      <c r="DX23" t="n">
+      <c r="EB23" t="n">
         <v>0.003761942843426417</v>
       </c>
-      <c r="DY23" t="n">
+      <c r="EC23" t="n">
         <v>0.01450541071112061</v>
       </c>
-      <c r="DZ23" t="n">
+      <c r="ED23" t="n">
         <v>0.006928619970450862</v>
       </c>
-      <c r="EA23" t="n">
+      <c r="EE23" t="n">
         <v>0.02215124892200521</v>
       </c>
-      <c r="EB23" t="n">
+      <c r="EF23" t="n">
         <v>0.009715843256529636</v>
       </c>
-      <c r="EC23" t="n">
+      <c r="EG23" t="n">
         <v>0.03396092720657084</v>
       </c>
-      <c r="ED23" t="n">
+      <c r="EH23" t="n">
         <v>0.00942286140303078</v>
       </c>
-      <c r="EE23" t="n">
+      <c r="EI23" t="n">
         <v>29.49750998751662</v>
       </c>
-      <c r="EF23" t="n">
+      <c r="EJ23" t="n">
         <v>0.03396092720657084</v>
       </c>
-      <c r="EG23" t="n">
+      <c r="EK23" t="n">
         <v>49.008808094206</v>
       </c>
-      <c r="EH23" t="n">
+      <c r="EL23" t="n">
         <v>0.03577535504043643</v>
       </c>
-      <c r="EI23" t="n">
+      <c r="EM23" t="n">
         <v>0.0605905551032439</v>
       </c>
-      <c r="EJ23" t="n">
+      <c r="EN23" t="n">
         <v>0.06374339477664662</v>
       </c>
-      <c r="EK23" t="n">
+      <c r="EO23" t="n">
         <v>0.07155071008087295</v>
       </c>
-      <c r="EL23" t="n">
+      <c r="EP23" t="n">
         <v>0.01180967828447016</v>
       </c>
-      <c r="EM23" t="n">
+      <c r="EQ23" t="n">
         <v>0.00271342382292099</v>
       </c>
-      <c r="EN23" t="n">
+      <c r="ER23" t="n">
         <v>51.40199607712606</v>
       </c>
-      <c r="EO23" t="n">
+      <c r="ES23" t="n">
         <v>0.01180967828447016</v>
       </c>
-      <c r="EP23" t="n">
+      <c r="ET23" t="n">
         <v>71.29253324989872</v>
       </c>
-      <c r="EQ23" t="n">
+      <c r="EU23" t="n">
         <v>0.04058225483790897</v>
       </c>
-      <c r="ER23" t="n">
+      <c r="EV23" t="n">
         <v>0</v>
       </c>
-      <c r="ES23" t="n">
+      <c r="EW23" t="n">
         <v>0.3001335218184548</v>
       </c>
-      <c r="ET23" t="n">
+      <c r="EX23" t="n">
         <v>0.1226577254106325</v>
       </c>
-      <c r="EU23" t="n">
+      <c r="EY23" t="n">
         <v>0.08116450967581794</v>
       </c>
-      <c r="EV23" t="inlineStr"/>
-      <c r="EW23" t="inlineStr"/>
-      <c r="EX23" t="inlineStr"/>
-      <c r="EY23" t="inlineStr"/>
       <c r="EZ23" t="inlineStr"/>
       <c r="FA23" t="inlineStr"/>
       <c r="FB23" t="inlineStr"/>
@@ -10763,68 +11101,75 @@
       <c r="FH23" t="inlineStr"/>
       <c r="FI23" t="inlineStr"/>
       <c r="FJ23" t="inlineStr"/>
-      <c r="FK23" t="n">
+      <c r="FK23" t="inlineStr"/>
+      <c r="FL23" t="inlineStr"/>
+      <c r="FM23" t="inlineStr"/>
+      <c r="FN23" t="inlineStr"/>
+      <c r="FO23" t="n">
         <v>0.09484764291558032</v>
       </c>
-      <c r="FL23" t="n">
+      <c r="FP23" t="n">
         <v>0.06386254598614015</v>
       </c>
-      <c r="FM23" t="n">
+      <c r="FQ23" t="n">
         <v>0.1410519271345597</v>
       </c>
-      <c r="FN23" t="n">
+      <c r="FR23" t="n">
         <v>0.01036638141951751</v>
       </c>
-      <c r="FO23" t="n">
+      <c r="FS23" t="n">
         <v>0.127110861856019</v>
       </c>
-      <c r="FP23" t="n">
+      <c r="FT23" t="n">
         <v>0.07749075292442054</v>
       </c>
-      <c r="FQ23" t="n">
+      <c r="FU23" t="n">
         <v>0.1317215572754907</v>
       </c>
-      <c r="FR23" t="n">
+      <c r="FV23" t="n">
         <v>0.004407578286667878</v>
       </c>
-      <c r="FS23" t="n">
+      <c r="FW23" t="n">
         <v>0</v>
       </c>
-      <c r="FT23" t="n">
+      <c r="FX23" t="n">
         <v>0</v>
       </c>
-      <c r="FU23" t="n">
+      <c r="FY23" t="n">
         <v>0</v>
       </c>
-      <c r="FV23" t="n">
+      <c r="FZ23" t="n">
         <v>0</v>
       </c>
-      <c r="FW23" t="n">
+      <c r="GA23" t="n">
         <v>2728.725068598887</v>
       </c>
-      <c r="FX23" t="inlineStr"/>
-      <c r="FY23" t="inlineStr"/>
-      <c r="FZ23" t="inlineStr"/>
-      <c r="GA23" t="inlineStr"/>
       <c r="GB23" t="inlineStr"/>
       <c r="GC23" t="inlineStr"/>
       <c r="GD23" t="inlineStr"/>
       <c r="GE23" t="inlineStr"/>
       <c r="GF23" t="inlineStr"/>
-      <c r="GG23" t="n">
+      <c r="GG23" t="inlineStr"/>
+      <c r="GH23" t="inlineStr"/>
+      <c r="GI23" t="inlineStr"/>
+      <c r="GJ23" t="inlineStr"/>
+      <c r="GK23" t="n">
         <v>2728.725068598887</v>
       </c>
-      <c r="GH23" t="n">
+      <c r="GL23" t="n">
         <v>1.616993650993703e-05</v>
       </c>
-      <c r="GI23" t="n">
+      <c r="GM23" t="n">
         <v>1.602137308842616e-05</v>
       </c>
-      <c r="GJ23" t="n">
+      <c r="GN23" t="n">
         <v>1.631849993152641e-05</v>
       </c>
-      <c r="GK23" t="inlineStr"/>
-      <c r="GL23" t="inlineStr">
+      <c r="GO23" t="inlineStr"/>
+      <c r="GP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ23" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -11139,129 +11484,139 @@
         </is>
       </c>
       <c r="DF24" t="inlineStr"/>
-      <c r="DG24" t="n">
+      <c r="DG24" t="inlineStr">
+        <is>
+          <t>919_001_41</t>
+        </is>
+      </c>
+      <c r="DH24" t="n">
+        <v>112</v>
+      </c>
+      <c r="DI24" t="inlineStr">
+        <is>
+          <t>919_001_41_112</t>
+        </is>
+      </c>
+      <c r="DJ24" t="inlineStr"/>
+      <c r="DK24" t="n">
         <v>0.01662986299246724</v>
       </c>
-      <c r="DH24" t="n">
+      <c r="DL24" t="n">
         <v>0.0005263630572823978</v>
       </c>
-      <c r="DI24" t="n">
+      <c r="DM24" t="n">
         <v>0.0005531622138142959</v>
       </c>
-      <c r="DJ24" t="n">
+      <c r="DN24" t="n">
         <v>3.604344091565886e-06</v>
       </c>
-      <c r="DK24" t="n">
+      <c r="DO24" t="n">
         <v>0.04071908880470942</v>
       </c>
-      <c r="DL24" t="n">
+      <c r="DP24" t="n">
         <v>0.001447401855868825</v>
       </c>
-      <c r="DM24" t="n">
+      <c r="DQ24" t="n">
         <v>1.419789356554857e-05</v>
       </c>
-      <c r="DN24" t="n">
+      <c r="DR24" t="n">
         <v>0.001451439688310834</v>
       </c>
-      <c r="DO24" t="n">
+      <c r="DS24" t="n">
         <v>4.163444727626392</v>
       </c>
-      <c r="DP24" t="n">
+      <c r="DT24" t="n">
         <v>0</v>
       </c>
-      <c r="DQ24" t="n">
+      <c r="DU24" t="n">
         <v>0</v>
       </c>
-      <c r="DR24" t="n">
+      <c r="DV24" t="n">
         <v>0</v>
       </c>
-      <c r="DS24" t="inlineStr"/>
-      <c r="DT24" t="inlineStr"/>
-      <c r="DU24" t="n">
+      <c r="DW24" t="inlineStr"/>
+      <c r="DX24" t="inlineStr"/>
+      <c r="DY24" t="n">
         <v>0.01613453757215694</v>
       </c>
-      <c r="DV24" t="n">
+      <c r="DZ24" t="n">
         <v>0.0004555913486781745</v>
       </c>
-      <c r="DW24" t="n">
+      <c r="EA24" t="n">
         <v>0.01662986299246724</v>
       </c>
-      <c r="DX24" t="n">
+      <c r="EB24" t="n">
         <v>0.0005263630572823978</v>
       </c>
-      <c r="DY24" t="n">
+      <c r="EC24" t="n">
         <v>0.02814070770350823</v>
       </c>
-      <c r="DZ24" t="n">
+      <c r="ED24" t="n">
         <v>0.001141918307548048</v>
       </c>
-      <c r="EA24" t="n">
+      <c r="EE24" t="n">
         <v>0.04242744936091716</v>
       </c>
-      <c r="EB24" t="n">
+      <c r="EF24" t="n">
         <v>0.001451439688310834</v>
       </c>
-      <c r="EC24" t="n">
+      <c r="EG24" t="n">
         <v>0.01548808036349949</v>
       </c>
-      <c r="ED24" t="n">
+      <c r="EH24" t="n">
         <v>0.001207208455718019</v>
       </c>
-      <c r="EE24" t="n">
+      <c r="EI24" t="n">
         <v>7.595692393645014</v>
       </c>
-      <c r="EF24" t="n">
+      <c r="EJ24" t="n">
         <v>0.01548808036349949</v>
       </c>
-      <c r="EG24" t="n">
+      <c r="EK24" t="n">
         <v>11.88450338389194</v>
       </c>
-      <c r="EH24" t="n">
+      <c r="EL24" t="n">
         <v>0.01534428256477822</v>
       </c>
-      <c r="EI24" t="n">
+      <c r="EM24" t="n">
         <v>0.05355196588642245</v>
       </c>
-      <c r="EJ24" t="n">
+      <c r="EN24" t="n">
         <v>0.08617986046707238</v>
       </c>
-      <c r="EK24" t="n">
+      <c r="EO24" t="n">
         <v>0.03068856512955651</v>
       </c>
-      <c r="EL24" t="n">
+      <c r="EP24" t="n">
         <v>0.02693936899808088</v>
       </c>
-      <c r="EM24" t="n">
+      <c r="EQ24" t="n">
         <v>0.0008529394420378446</v>
       </c>
-      <c r="EN24" t="n">
+      <c r="ER24" t="n">
         <v>14.34895121424402</v>
       </c>
-      <c r="EO24" t="n">
+      <c r="ES24" t="n">
         <v>0.02693936899808088</v>
       </c>
-      <c r="EP24" t="n">
+      <c r="ET24" t="n">
         <v>23.9462724233975</v>
       </c>
-      <c r="EQ24" t="n">
+      <c r="EU24" t="n">
         <v>0.007426366037860027</v>
       </c>
-      <c r="ER24" t="n">
+      <c r="EV24" t="n">
         <v>0</v>
       </c>
-      <c r="ES24" t="n">
+      <c r="EW24" t="n">
         <v>0.02106942667688625</v>
       </c>
-      <c r="ET24" t="n">
+      <c r="EX24" t="n">
         <v>0.009520394651153128</v>
       </c>
-      <c r="EU24" t="n">
+      <c r="EY24" t="n">
         <v>0.01485273207571998</v>
       </c>
-      <c r="EV24" t="inlineStr"/>
-      <c r="EW24" t="inlineStr"/>
-      <c r="EX24" t="inlineStr"/>
-      <c r="EY24" t="inlineStr"/>
       <c r="EZ24" t="inlineStr"/>
       <c r="FA24" t="inlineStr"/>
       <c r="FB24" t="inlineStr"/>
@@ -11273,68 +11628,75 @@
       <c r="FH24" t="inlineStr"/>
       <c r="FI24" t="inlineStr"/>
       <c r="FJ24" t="inlineStr"/>
-      <c r="FK24" t="n">
+      <c r="FK24" t="inlineStr"/>
+      <c r="FL24" t="inlineStr"/>
+      <c r="FM24" t="inlineStr"/>
+      <c r="FN24" t="inlineStr"/>
+      <c r="FO24" t="n">
         <v>0.0896238161419011</v>
       </c>
-      <c r="FL24" t="n">
+      <c r="FP24" t="n">
         <v>0.09538253852489956</v>
       </c>
-      <c r="FM24" t="n">
+      <c r="FQ24" t="n">
         <v>0.1262689370012542</v>
       </c>
-      <c r="FN24" t="n">
+      <c r="FR24" t="n">
         <v>0.001043949565344742</v>
       </c>
-      <c r="FO24" t="n">
+      <c r="FS24" t="n">
         <v>0.01279826008784735</v>
       </c>
-      <c r="FP24" t="n">
+      <c r="FT24" t="n">
         <v>0.01291755172065062</v>
       </c>
-      <c r="FQ24" t="n">
+      <c r="FU24" t="n">
         <v>0.01653639851020305</v>
       </c>
-      <c r="FR24" t="n">
+      <c r="FV24" t="n">
         <v>0.0006035865063322781</v>
       </c>
-      <c r="FS24" t="n">
+      <c r="FW24" t="n">
         <v>0</v>
       </c>
-      <c r="FT24" t="n">
+      <c r="FX24" t="n">
         <v>0</v>
       </c>
-      <c r="FU24" t="n">
+      <c r="FY24" t="n">
         <v>0</v>
       </c>
-      <c r="FV24" t="n">
+      <c r="FZ24" t="n">
         <v>0</v>
       </c>
-      <c r="FW24" t="n">
+      <c r="GA24" t="n">
         <v>2674.984953228709</v>
       </c>
-      <c r="FX24" t="inlineStr"/>
-      <c r="FY24" t="inlineStr"/>
-      <c r="FZ24" t="inlineStr"/>
-      <c r="GA24" t="inlineStr"/>
       <c r="GB24" t="inlineStr"/>
       <c r="GC24" t="inlineStr"/>
       <c r="GD24" t="inlineStr"/>
       <c r="GE24" t="inlineStr"/>
       <c r="GF24" t="inlineStr"/>
-      <c r="GG24" t="n">
+      <c r="GG24" t="inlineStr"/>
+      <c r="GH24" t="inlineStr"/>
+      <c r="GI24" t="inlineStr"/>
+      <c r="GJ24" t="inlineStr"/>
+      <c r="GK24" t="n">
         <v>2674.984953228709</v>
       </c>
-      <c r="GH24" t="n">
+      <c r="GL24" t="n">
         <v>1.569121614370064e-05</v>
       </c>
-      <c r="GI24" t="n">
+      <c r="GM24" t="n">
         <v>1.555014300629373e-05</v>
       </c>
-      <c r="GJ24" t="n">
+      <c r="GN24" t="n">
         <v>1.583228928110757e-05</v>
       </c>
-      <c r="GK24" t="inlineStr"/>
-      <c r="GL24" t="inlineStr">
+      <c r="GO24" t="inlineStr"/>
+      <c r="GP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ24" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -11657,9 +12019,19 @@
         </is>
       </c>
       <c r="DF25" t="inlineStr"/>
-      <c r="DG25" t="inlineStr"/>
-      <c r="DH25" t="inlineStr"/>
-      <c r="DI25" t="inlineStr"/>
+      <c r="DG25" t="inlineStr">
+        <is>
+          <t>919_021+22_55</t>
+        </is>
+      </c>
+      <c r="DH25" t="n">
+        <v>299</v>
+      </c>
+      <c r="DI25" t="inlineStr">
+        <is>
+          <t>919_021+22_55_299</t>
+        </is>
+      </c>
       <c r="DJ25" t="inlineStr"/>
       <c r="DK25" t="inlineStr"/>
       <c r="DL25" t="inlineStr"/>
@@ -11740,7 +12112,12 @@
       <c r="GI25" t="inlineStr"/>
       <c r="GJ25" t="inlineStr"/>
       <c r="GK25" t="inlineStr"/>
-      <c r="GL25" t="inlineStr">
+      <c r="GL25" t="inlineStr"/>
+      <c r="GM25" t="inlineStr"/>
+      <c r="GN25" t="inlineStr"/>
+      <c r="GO25" t="inlineStr"/>
+      <c r="GP25" t="inlineStr"/>
+      <c r="GQ25" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -12063,9 +12440,19 @@
         </is>
       </c>
       <c r="DF26" t="inlineStr"/>
-      <c r="DG26" t="inlineStr"/>
-      <c r="DH26" t="inlineStr"/>
-      <c r="DI26" t="inlineStr"/>
+      <c r="DG26" t="inlineStr">
+        <is>
+          <t>919_021+22_55</t>
+        </is>
+      </c>
+      <c r="DH26" t="n">
+        <v>299</v>
+      </c>
+      <c r="DI26" t="inlineStr">
+        <is>
+          <t>919_021+22_55_299</t>
+        </is>
+      </c>
       <c r="DJ26" t="inlineStr"/>
       <c r="DK26" t="inlineStr"/>
       <c r="DL26" t="inlineStr"/>
@@ -12146,7 +12533,12 @@
       <c r="GI26" t="inlineStr"/>
       <c r="GJ26" t="inlineStr"/>
       <c r="GK26" t="inlineStr"/>
-      <c r="GL26" t="inlineStr">
+      <c r="GL26" t="inlineStr"/>
+      <c r="GM26" t="inlineStr"/>
+      <c r="GN26" t="inlineStr"/>
+      <c r="GO26" t="inlineStr"/>
+      <c r="GP26" t="inlineStr"/>
+      <c r="GQ26" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -12469,9 +12861,19 @@
         </is>
       </c>
       <c r="DF27" t="inlineStr"/>
-      <c r="DG27" t="inlineStr"/>
-      <c r="DH27" t="inlineStr"/>
-      <c r="DI27" t="inlineStr"/>
+      <c r="DG27" t="inlineStr">
+        <is>
+          <t>919_021+22_55</t>
+        </is>
+      </c>
+      <c r="DH27" t="n">
+        <v>370</v>
+      </c>
+      <c r="DI27" t="inlineStr">
+        <is>
+          <t>919_021+22_55_370</t>
+        </is>
+      </c>
       <c r="DJ27" t="inlineStr"/>
       <c r="DK27" t="inlineStr"/>
       <c r="DL27" t="inlineStr"/>
@@ -12552,7 +12954,12 @@
       <c r="GI27" t="inlineStr"/>
       <c r="GJ27" t="inlineStr"/>
       <c r="GK27" t="inlineStr"/>
-      <c r="GL27" t="inlineStr">
+      <c r="GL27" t="inlineStr"/>
+      <c r="GM27" t="inlineStr"/>
+      <c r="GN27" t="inlineStr"/>
+      <c r="GO27" t="inlineStr"/>
+      <c r="GP27" t="inlineStr"/>
+      <c r="GQ27" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -12869,9 +13276,19 @@
         </is>
       </c>
       <c r="DF28" t="inlineStr"/>
-      <c r="DG28" t="inlineStr"/>
-      <c r="DH28" t="inlineStr"/>
-      <c r="DI28" t="inlineStr"/>
+      <c r="DG28" t="inlineStr">
+        <is>
+          <t>919_021+22_55</t>
+        </is>
+      </c>
+      <c r="DH28" t="n">
+        <v>370</v>
+      </c>
+      <c r="DI28" t="inlineStr">
+        <is>
+          <t>919_021+22_55_370</t>
+        </is>
+      </c>
       <c r="DJ28" t="inlineStr"/>
       <c r="DK28" t="inlineStr"/>
       <c r="DL28" t="inlineStr"/>
@@ -12952,7 +13369,12 @@
       <c r="GI28" t="inlineStr"/>
       <c r="GJ28" t="inlineStr"/>
       <c r="GK28" t="inlineStr"/>
-      <c r="GL28" t="inlineStr">
+      <c r="GL28" t="inlineStr"/>
+      <c r="GM28" t="inlineStr"/>
+      <c r="GN28" t="inlineStr"/>
+      <c r="GO28" t="inlineStr"/>
+      <c r="GP28" t="inlineStr"/>
+      <c r="GQ28" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -13263,9 +13685,19 @@
         </is>
       </c>
       <c r="DF29" t="inlineStr"/>
-      <c r="DG29" t="inlineStr"/>
-      <c r="DH29" t="inlineStr"/>
-      <c r="DI29" t="inlineStr"/>
+      <c r="DG29" t="inlineStr">
+        <is>
+          <t>919_23+24_56</t>
+        </is>
+      </c>
+      <c r="DH29" t="n">
+        <v>120</v>
+      </c>
+      <c r="DI29" t="inlineStr">
+        <is>
+          <t>919_23+24_56_120</t>
+        </is>
+      </c>
       <c r="DJ29" t="inlineStr"/>
       <c r="DK29" t="inlineStr"/>
       <c r="DL29" t="inlineStr"/>
@@ -13346,7 +13778,12 @@
       <c r="GI29" t="inlineStr"/>
       <c r="GJ29" t="inlineStr"/>
       <c r="GK29" t="inlineStr"/>
-      <c r="GL29" t="inlineStr">
+      <c r="GL29" t="inlineStr"/>
+      <c r="GM29" t="inlineStr"/>
+      <c r="GN29" t="inlineStr"/>
+      <c r="GO29" t="inlineStr"/>
+      <c r="GP29" t="inlineStr"/>
+      <c r="GQ29" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -13693,214 +14130,223 @@
         </is>
       </c>
       <c r="DF30" t="inlineStr"/>
-      <c r="DG30" t="n">
+      <c r="DG30" t="inlineStr"/>
+      <c r="DH30" t="inlineStr"/>
+      <c r="DI30" t="inlineStr"/>
+      <c r="DJ30" t="inlineStr">
+        <is>
+          <t>trash-couldn't do anything</t>
+        </is>
+      </c>
+      <c r="DK30" t="n">
         <v>0.001617316744964423</v>
       </c>
-      <c r="DH30" t="n">
+      <c r="DL30" t="n">
         <v>0.003873536184911983</v>
       </c>
-      <c r="DI30" t="n">
+      <c r="DM30" t="n">
         <v>0.005446393524580034</v>
       </c>
-      <c r="DJ30" t="n">
+      <c r="DN30" t="n">
         <v>3.022495284494221e-06</v>
       </c>
-      <c r="DK30" t="n">
+      <c r="DO30" t="n">
         <v>0.004081657987932552</v>
       </c>
-      <c r="DL30" t="n">
+      <c r="DP30" t="n">
         <v>0.01374518362245352</v>
       </c>
-      <c r="DM30" t="n">
+      <c r="DQ30" t="n">
         <v>4.19669913800528e-06</v>
       </c>
-      <c r="DN30" t="n">
+      <c r="DR30" t="n">
         <v>0.01390777609465914</v>
       </c>
-      <c r="DO30" t="n">
+      <c r="DS30" t="n">
         <v>4.230619871839115</v>
       </c>
-      <c r="DP30" t="n">
+      <c r="DT30" t="n">
         <v>0</v>
       </c>
-      <c r="DQ30" t="n">
+      <c r="DU30" t="n">
         <v>0</v>
       </c>
-      <c r="DR30" t="n">
+      <c r="DV30" t="n">
         <v>0</v>
       </c>
-      <c r="DS30" t="inlineStr"/>
-      <c r="DT30" t="inlineStr"/>
-      <c r="DU30" t="n">
+      <c r="DW30" t="inlineStr"/>
+      <c r="DX30" t="inlineStr"/>
+      <c r="DY30" t="n">
         <v>0.001617316744964423</v>
       </c>
-      <c r="DV30" t="n">
+      <c r="DZ30" t="n">
         <v>0.003873536184911983</v>
       </c>
-      <c r="DW30" t="n">
+      <c r="EA30" t="n">
         <v>0.001635388489463682</v>
       </c>
-      <c r="DX30" t="n">
+      <c r="EB30" t="n">
         <v>0.00457165928165393</v>
       </c>
-      <c r="DY30" t="n">
+      <c r="EC30" t="n">
         <v>0.002963112844565108</v>
       </c>
-      <c r="DZ30" t="n">
+      <c r="ED30" t="n">
         <v>0.009431435291947655</v>
       </c>
-      <c r="EA30" t="n">
+      <c r="EE30" t="n">
         <v>0.003620454123064691</v>
       </c>
-      <c r="EB30" t="n">
+      <c r="EF30" t="n">
         <v>0.01390777609465914</v>
       </c>
-      <c r="EC30" t="n">
+      <c r="EG30" t="n">
         <v>0.003348398759602261</v>
       </c>
-      <c r="ED30" t="n">
+      <c r="EH30" t="n">
         <v>0.01416353761567927</v>
       </c>
-      <c r="EE30" t="n">
+      <c r="EI30" t="n">
         <v>396.1730553889596</v>
       </c>
-      <c r="EF30" t="n">
+      <c r="EJ30" t="n">
         <v>0.003348398759361094</v>
       </c>
-      <c r="EG30" t="n">
+      <c r="EK30" t="n">
         <v>636.6401540844598</v>
       </c>
-      <c r="EH30" t="n">
+      <c r="EL30" t="n">
         <v>0.004263583495489864</v>
       </c>
-      <c r="EI30" t="n">
+      <c r="EM30" t="n">
         <v>0.3998313700438985</v>
       </c>
-      <c r="EJ30" t="n">
+      <c r="EN30" t="n">
         <v>0.006108836472527388</v>
       </c>
-      <c r="EK30" t="n">
+      <c r="EO30" t="n">
         <v>0.008527166990979336</v>
       </c>
-      <c r="EL30" t="n">
+      <c r="EP30" t="n">
         <v>0.0003427695780395894</v>
       </c>
-      <c r="EM30" t="n">
+      <c r="EQ30" t="n">
         <v>0.0001981669088843103</v>
       </c>
-      <c r="EN30" t="n">
+      <c r="ER30" t="n">
         <v>798.5339751547235</v>
       </c>
-      <c r="EO30" t="n">
+      <c r="ES30" t="n">
         <v>0.0002720553642813907</v>
       </c>
-      <c r="EP30" t="n">
+      <c r="ET30" t="n">
         <v>995.1024485294512</v>
       </c>
-      <c r="EQ30" t="n">
+      <c r="EU30" t="n">
         <v>0.003552340729701851</v>
       </c>
-      <c r="ER30" t="n">
+      <c r="EV30" t="n">
         <v>0</v>
       </c>
-      <c r="ES30" t="n">
+      <c r="EW30" t="n">
         <v>1.043582851241977</v>
       </c>
-      <c r="ET30" t="n">
+      <c r="EX30" t="n">
         <v>0.008835611867291619</v>
       </c>
-      <c r="EU30" t="n">
+      <c r="EY30" t="n">
         <v>0.007104681459403702</v>
       </c>
-      <c r="EV30" t="n">
+      <c r="EZ30" t="n">
         <v>0.08511621255639645</v>
       </c>
-      <c r="EW30" t="n">
+      <c r="FA30" t="n">
         <v>83.43194859051448</v>
       </c>
-      <c r="EX30" t="n">
+      <c r="FB30" t="n">
         <v>0.005618181617684969</v>
       </c>
-      <c r="EY30" t="n">
+      <c r="FC30" t="n">
         <v>0.01656268895457311</v>
       </c>
-      <c r="EZ30" t="n">
+      <c r="FD30" t="n">
         <v>116.7791559847553</v>
       </c>
-      <c r="FA30" t="n">
+      <c r="FE30" t="n">
         <v>0.05068282624904497</v>
       </c>
-      <c r="FB30" t="inlineStr"/>
-      <c r="FC30" t="inlineStr"/>
-      <c r="FD30" t="inlineStr"/>
-      <c r="FE30" t="inlineStr"/>
       <c r="FF30" t="inlineStr"/>
       <c r="FG30" t="inlineStr"/>
       <c r="FH30" t="inlineStr"/>
       <c r="FI30" t="inlineStr"/>
       <c r="FJ30" t="inlineStr"/>
-      <c r="FK30" t="n">
+      <c r="FK30" t="inlineStr"/>
+      <c r="FL30" t="inlineStr"/>
+      <c r="FM30" t="inlineStr"/>
+      <c r="FN30" t="inlineStr"/>
+      <c r="FO30" t="n">
         <v>0.005975550263423694</v>
       </c>
-      <c r="FL30" t="n">
+      <c r="FP30" t="n">
         <v>0.01008156516344352</v>
       </c>
-      <c r="FM30" t="n">
+      <c r="FQ30" t="n">
         <v>0.007231247893656332</v>
       </c>
-      <c r="FN30" t="n">
+      <c r="FR30" t="n">
         <v>0.0005944203172303128</v>
       </c>
-      <c r="FO30" t="n">
+      <c r="FS30" t="n">
         <v>0.001202216988642828</v>
       </c>
-      <c r="FP30" t="n">
+      <c r="FT30" t="n">
         <v>0.0003324549088335932</v>
       </c>
-      <c r="FQ30" t="n">
+      <c r="FU30" t="n">
         <v>0.002979847652185305</v>
       </c>
-      <c r="FR30" t="n">
+      <c r="FV30" t="n">
         <v>0.0002937973709148146</v>
       </c>
-      <c r="FS30" t="n">
+      <c r="FW30" t="n">
         <v>0</v>
       </c>
-      <c r="FT30" t="n">
+      <c r="FX30" t="n">
         <v>0</v>
       </c>
-      <c r="FU30" t="n">
+      <c r="FY30" t="n">
         <v>0</v>
       </c>
-      <c r="FV30" t="n">
+      <c r="FZ30" t="n">
         <v>21.21320343559643</v>
       </c>
-      <c r="FW30" t="n">
+      <c r="GA30" t="n">
         <v>777.8174593052023</v>
       </c>
-      <c r="FX30" t="inlineStr"/>
-      <c r="FY30" t="inlineStr"/>
-      <c r="FZ30" t="inlineStr"/>
-      <c r="GA30" t="inlineStr"/>
       <c r="GB30" t="inlineStr"/>
       <c r="GC30" t="inlineStr"/>
       <c r="GD30" t="inlineStr"/>
       <c r="GE30" t="inlineStr"/>
       <c r="GF30" t="inlineStr"/>
-      <c r="GG30" t="n">
+      <c r="GG30" t="inlineStr"/>
+      <c r="GH30" t="inlineStr"/>
+      <c r="GI30" t="inlineStr"/>
+      <c r="GJ30" t="inlineStr"/>
+      <c r="GK30" t="n">
         <v>777.8174593052023</v>
       </c>
-      <c r="GH30" t="n">
+      <c r="GL30" t="n">
         <v>4.536487763458804e-06</v>
       </c>
-      <c r="GI30" t="n">
+      <c r="GM30" t="n">
         <v>4.496175247922535e-06</v>
       </c>
-      <c r="GJ30" t="n">
+      <c r="GN30" t="n">
         <v>4.576800279152084e-06</v>
       </c>
-      <c r="GK30" t="inlineStr"/>
-      <c r="GL30" t="inlineStr">
+      <c r="GO30" t="inlineStr"/>
+      <c r="GP30" t="inlineStr"/>
+      <c r="GQ30" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -14215,129 +14661,133 @@
         </is>
       </c>
       <c r="DF31" t="inlineStr"/>
-      <c r="DG31" t="n">
+      <c r="DG31" t="inlineStr"/>
+      <c r="DH31" t="inlineStr"/>
+      <c r="DI31" t="inlineStr"/>
+      <c r="DJ31" t="inlineStr">
+        <is>
+          <t>trash-couldn't do anything</t>
+        </is>
+      </c>
+      <c r="DK31" t="n">
         <v>0.002855846762930539</v>
       </c>
-      <c r="DH31" t="n">
+      <c r="DL31" t="n">
         <v>0.001943081788267273</v>
       </c>
-      <c r="DI31" t="n">
+      <c r="DM31" t="n">
         <v>0.00205639322482903</v>
       </c>
-      <c r="DJ31" t="n">
+      <c r="DN31" t="n">
         <v>6.454227349072329e-07</v>
       </c>
-      <c r="DK31" t="n">
+      <c r="DO31" t="n">
         <v>0.007009316499032275</v>
       </c>
-      <c r="DL31" t="n">
+      <c r="DP31" t="n">
         <v>0.00506227352185246</v>
       </c>
-      <c r="DM31" t="n">
+      <c r="DQ31" t="n">
         <v>1.705369057508781e-06</v>
       </c>
-      <c r="DN31" t="n">
+      <c r="DR31" t="n">
         <v>0.005080694622170565</v>
       </c>
-      <c r="DO31" t="n">
+      <c r="DS31" t="n">
         <v>4.211527988747077</v>
       </c>
-      <c r="DP31" t="n">
+      <c r="DT31" t="n">
         <v>0</v>
       </c>
-      <c r="DQ31" t="n">
+      <c r="DU31" t="n">
         <v>0</v>
       </c>
-      <c r="DR31" t="n">
+      <c r="DV31" t="n">
         <v>0</v>
       </c>
-      <c r="DS31" t="inlineStr"/>
-      <c r="DT31" t="inlineStr"/>
-      <c r="DU31" t="n">
+      <c r="DW31" t="inlineStr"/>
+      <c r="DX31" t="inlineStr"/>
+      <c r="DY31" t="n">
         <v>0.002777372572156451</v>
       </c>
-      <c r="DV31" t="n">
+      <c r="DZ31" t="n">
         <v>0.001711087335950051</v>
       </c>
-      <c r="DW31" t="n">
+      <c r="EA31" t="n">
         <v>0.002855846762930539</v>
       </c>
-      <c r="DX31" t="n">
+      <c r="EB31" t="n">
         <v>0.001943081788267273</v>
       </c>
-      <c r="DY31" t="n">
+      <c r="EC31" t="n">
         <v>0.004871482359789323</v>
       </c>
-      <c r="DZ31" t="n">
+      <c r="ED31" t="n">
         <v>0.003499980038350526</v>
       </c>
-      <c r="EA31" t="n">
+      <c r="EE31" t="n">
         <v>0.007223403889901135</v>
       </c>
-      <c r="EB31" t="n">
+      <c r="EF31" t="n">
         <v>0.005080694622170572</v>
       </c>
-      <c r="EC31" t="n">
+      <c r="EG31" t="n">
         <v>0.01534079586230718</v>
       </c>
-      <c r="ED31" t="n">
+      <c r="EH31" t="n">
         <v>0.004693067203112391</v>
       </c>
-      <c r="EE31" t="n">
+      <c r="EI31" t="n">
         <v>74.28995281454344</v>
       </c>
-      <c r="EF31" t="n">
+      <c r="EJ31" t="n">
         <v>0.01534079586230718</v>
       </c>
-      <c r="EG31" t="n">
+      <c r="EK31" t="n">
         <v>151.1353296057349</v>
       </c>
-      <c r="EH31" t="n">
+      <c r="EL31" t="n">
         <v>0.0003319774632790427</v>
       </c>
-      <c r="EI31" t="n">
+      <c r="EM31" t="n">
         <v>0.7676630697429341</v>
       </c>
-      <c r="EJ31" t="n">
+      <c r="EN31" t="n">
         <v>0.0546310724730282</v>
       </c>
-      <c r="EK31" t="n">
+      <c r="EO31" t="n">
         <v>0.0006639549265580854</v>
       </c>
-      <c r="EL31" t="n">
+      <c r="EP31" t="n">
         <v>0.008117391972024199</v>
       </c>
-      <c r="EM31" t="n">
+      <c r="EQ31" t="n">
         <v>0.001974533972652062</v>
       </c>
-      <c r="EN31" t="n">
+      <c r="ER31" t="n">
         <v>133.1093638535552</v>
       </c>
-      <c r="EO31" t="n">
+      <c r="ES31" t="n">
         <v>0.008117391972024199</v>
       </c>
-      <c r="EP31" t="n">
+      <c r="ET31" t="n">
         <v>215.0934818232253</v>
       </c>
-      <c r="EQ31" t="n">
+      <c r="EU31" t="n">
         <v>0.02168491849772382</v>
       </c>
-      <c r="ER31" t="n">
+      <c r="EV31" t="n">
         <v>0</v>
       </c>
-      <c r="ES31" t="n">
+      <c r="EW31" t="n">
         <v>0.4196359127503249</v>
       </c>
-      <c r="ET31" t="n">
+      <c r="EX31" t="n">
         <v>0.05527371114985356</v>
       </c>
-      <c r="EU31" t="n">
+      <c r="EY31" t="n">
         <v>0.0433698369954482</v>
       </c>
-      <c r="EV31" t="inlineStr"/>
-      <c r="EW31" t="inlineStr"/>
-      <c r="EX31" t="inlineStr"/>
-      <c r="EY31" t="inlineStr"/>
       <c r="EZ31" t="inlineStr"/>
       <c r="FA31" t="inlineStr"/>
       <c r="FB31" t="inlineStr"/>
@@ -14349,68 +14799,73 @@
       <c r="FH31" t="inlineStr"/>
       <c r="FI31" t="inlineStr"/>
       <c r="FJ31" t="inlineStr"/>
-      <c r="FK31" t="n">
+      <c r="FK31" t="inlineStr"/>
+      <c r="FL31" t="inlineStr"/>
+      <c r="FM31" t="inlineStr"/>
+      <c r="FN31" t="inlineStr"/>
+      <c r="FO31" t="n">
         <v>0.01197613461470105</v>
       </c>
-      <c r="FL31" t="n">
+      <c r="FP31" t="n">
         <v>0.0336717514849913</v>
       </c>
-      <c r="FM31" t="n">
+      <c r="FQ31" t="n">
         <v>0.01617069593526895</v>
       </c>
-      <c r="FN31" t="n">
+      <c r="FR31" t="n">
         <v>0.003686103283985219</v>
       </c>
-      <c r="FO31" t="n">
+      <c r="FS31" t="n">
         <v>0.002900950897550947</v>
       </c>
-      <c r="FP31" t="n">
+      <c r="FT31" t="n">
         <v>0.01122045044887839</v>
       </c>
-      <c r="FQ31" t="n">
+      <c r="FU31" t="n">
         <v>0.004557656180256722</v>
       </c>
-      <c r="FR31" t="n">
+      <c r="FV31" t="n">
         <v>0.001548146516879708</v>
       </c>
-      <c r="FS31" t="n">
+      <c r="FW31" t="n">
         <v>0</v>
       </c>
-      <c r="FT31" t="n">
+      <c r="FX31" t="n">
         <v>0</v>
       </c>
-      <c r="FU31" t="n">
+      <c r="FY31" t="n">
         <v>0</v>
       </c>
-      <c r="FV31" t="n">
+      <c r="FZ31" t="n">
         <v>0</v>
       </c>
-      <c r="FW31" t="n">
+      <c r="GA31" t="n">
         <v>330.9259735953042</v>
       </c>
-      <c r="FX31" t="inlineStr"/>
-      <c r="FY31" t="inlineStr"/>
-      <c r="FZ31" t="inlineStr"/>
-      <c r="GA31" t="inlineStr"/>
       <c r="GB31" t="inlineStr"/>
       <c r="GC31" t="inlineStr"/>
       <c r="GD31" t="inlineStr"/>
       <c r="GE31" t="inlineStr"/>
       <c r="GF31" t="inlineStr"/>
-      <c r="GG31" t="n">
+      <c r="GG31" t="inlineStr"/>
+      <c r="GH31" t="inlineStr"/>
+      <c r="GI31" t="inlineStr"/>
+      <c r="GJ31" t="inlineStr"/>
+      <c r="GK31" t="n">
         <v>330.9259735953042</v>
       </c>
-      <c r="GH31" t="n">
+      <c r="GL31" t="n">
         <v>1.929550993480383e-06</v>
       </c>
-      <c r="GI31" t="n">
+      <c r="GM31" t="n">
         <v>1.912413440848986e-06</v>
       </c>
-      <c r="GJ31" t="n">
+      <c r="GN31" t="n">
         <v>1.946688546190285e-06</v>
       </c>
-      <c r="GK31" t="inlineStr"/>
-      <c r="GL31" t="inlineStr">
+      <c r="GO31" t="inlineStr"/>
+      <c r="GP31" t="inlineStr"/>
+      <c r="GQ31" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -14746,7 +15201,11 @@
       <c r="DG32" t="inlineStr"/>
       <c r="DH32" t="inlineStr"/>
       <c r="DI32" t="inlineStr"/>
-      <c r="DJ32" t="inlineStr"/>
+      <c r="DJ32" t="inlineStr">
+        <is>
+          <t>trash-couldn't do anything</t>
+        </is>
+      </c>
       <c r="DK32" t="inlineStr"/>
       <c r="DL32" t="inlineStr"/>
       <c r="DM32" t="inlineStr"/>
@@ -14826,7 +15285,12 @@
       <c r="GI32" t="inlineStr"/>
       <c r="GJ32" t="inlineStr"/>
       <c r="GK32" t="inlineStr"/>
-      <c r="GL32" t="inlineStr">
+      <c r="GL32" t="inlineStr"/>
+      <c r="GM32" t="inlineStr"/>
+      <c r="GN32" t="inlineStr"/>
+      <c r="GO32" t="inlineStr"/>
+      <c r="GP32" t="inlineStr"/>
+      <c r="GQ32" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -15141,9 +15605,19 @@
         </is>
       </c>
       <c r="DF33" t="inlineStr"/>
-      <c r="DG33" t="inlineStr"/>
-      <c r="DH33" t="inlineStr"/>
-      <c r="DI33" t="inlineStr"/>
+      <c r="DG33" t="inlineStr">
+        <is>
+          <t>919_004_43</t>
+        </is>
+      </c>
+      <c r="DH33" t="n">
+        <v>128</v>
+      </c>
+      <c r="DI33" t="inlineStr">
+        <is>
+          <t>919_004_43_128</t>
+        </is>
+      </c>
       <c r="DJ33" t="inlineStr"/>
       <c r="DK33" t="inlineStr"/>
       <c r="DL33" t="inlineStr"/>
@@ -15224,7 +15698,12 @@
       <c r="GI33" t="inlineStr"/>
       <c r="GJ33" t="inlineStr"/>
       <c r="GK33" t="inlineStr"/>
-      <c r="GL33" t="inlineStr">
+      <c r="GL33" t="inlineStr"/>
+      <c r="GM33" t="inlineStr"/>
+      <c r="GN33" t="inlineStr"/>
+      <c r="GO33" t="inlineStr"/>
+      <c r="GP33" t="inlineStr"/>
+      <c r="GQ33" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -15545,9 +16024,19 @@
         </is>
       </c>
       <c r="DF34" t="inlineStr"/>
-      <c r="DG34" t="inlineStr"/>
-      <c r="DH34" t="inlineStr"/>
-      <c r="DI34" t="inlineStr"/>
+      <c r="DG34" t="inlineStr">
+        <is>
+          <t>919_004_43</t>
+        </is>
+      </c>
+      <c r="DH34" t="n">
+        <v>128</v>
+      </c>
+      <c r="DI34" t="inlineStr">
+        <is>
+          <t>919_004_43_128</t>
+        </is>
+      </c>
       <c r="DJ34" t="inlineStr"/>
       <c r="DK34" t="inlineStr"/>
       <c r="DL34" t="inlineStr"/>
@@ -15628,7 +16117,12 @@
       <c r="GI34" t="inlineStr"/>
       <c r="GJ34" t="inlineStr"/>
       <c r="GK34" t="inlineStr"/>
-      <c r="GL34" t="inlineStr">
+      <c r="GL34" t="inlineStr"/>
+      <c r="GM34" t="inlineStr"/>
+      <c r="GN34" t="inlineStr"/>
+      <c r="GO34" t="inlineStr"/>
+      <c r="GP34" t="inlineStr"/>
+      <c r="GQ34" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -15949,9 +16443,19 @@
         </is>
       </c>
       <c r="DF35" t="inlineStr"/>
-      <c r="DG35" t="inlineStr"/>
-      <c r="DH35" t="inlineStr"/>
-      <c r="DI35" t="inlineStr"/>
+      <c r="DG35" t="inlineStr">
+        <is>
+          <t>919_50_39</t>
+        </is>
+      </c>
+      <c r="DH35" t="n">
+        <v>41</v>
+      </c>
+      <c r="DI35" t="inlineStr">
+        <is>
+          <t>919_50_39_41</t>
+        </is>
+      </c>
       <c r="DJ35" t="inlineStr"/>
       <c r="DK35" t="inlineStr"/>
       <c r="DL35" t="inlineStr"/>
@@ -16032,7 +16536,12 @@
       <c r="GI35" t="inlineStr"/>
       <c r="GJ35" t="inlineStr"/>
       <c r="GK35" t="inlineStr"/>
-      <c r="GL35" t="inlineStr">
+      <c r="GL35" t="inlineStr"/>
+      <c r="GM35" t="inlineStr"/>
+      <c r="GN35" t="inlineStr"/>
+      <c r="GO35" t="inlineStr"/>
+      <c r="GP35" t="inlineStr"/>
+      <c r="GQ35" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -16373,9 +16882,19 @@
         </is>
       </c>
       <c r="DF36" t="inlineStr"/>
-      <c r="DG36" t="inlineStr"/>
-      <c r="DH36" t="inlineStr"/>
-      <c r="DI36" t="inlineStr"/>
+      <c r="DG36" t="inlineStr">
+        <is>
+          <t>919_50_39</t>
+        </is>
+      </c>
+      <c r="DH36" t="n">
+        <v>41</v>
+      </c>
+      <c r="DI36" t="inlineStr">
+        <is>
+          <t>919_50_39_41</t>
+        </is>
+      </c>
       <c r="DJ36" t="inlineStr"/>
       <c r="DK36" t="inlineStr"/>
       <c r="DL36" t="inlineStr"/>
@@ -16456,7 +16975,12 @@
       <c r="GI36" t="inlineStr"/>
       <c r="GJ36" t="inlineStr"/>
       <c r="GK36" t="inlineStr"/>
-      <c r="GL36" t="inlineStr">
+      <c r="GL36" t="inlineStr"/>
+      <c r="GM36" t="inlineStr"/>
+      <c r="GN36" t="inlineStr"/>
+      <c r="GO36" t="inlineStr"/>
+      <c r="GP36" t="inlineStr"/>
+      <c r="GQ36" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -16777,9 +17301,19 @@
         </is>
       </c>
       <c r="DF37" t="inlineStr"/>
-      <c r="DG37" t="inlineStr"/>
-      <c r="DH37" t="inlineStr"/>
-      <c r="DI37" t="inlineStr"/>
+      <c r="DG37" t="inlineStr">
+        <is>
+          <t>919_51_40</t>
+        </is>
+      </c>
+      <c r="DH37" t="n">
+        <v>42</v>
+      </c>
+      <c r="DI37" t="inlineStr">
+        <is>
+          <t>919_51_40_42</t>
+        </is>
+      </c>
       <c r="DJ37" t="inlineStr"/>
       <c r="DK37" t="inlineStr"/>
       <c r="DL37" t="inlineStr"/>
@@ -16860,7 +17394,12 @@
       <c r="GI37" t="inlineStr"/>
       <c r="GJ37" t="inlineStr"/>
       <c r="GK37" t="inlineStr"/>
-      <c r="GL37" t="inlineStr">
+      <c r="GL37" t="inlineStr"/>
+      <c r="GM37" t="inlineStr"/>
+      <c r="GN37" t="inlineStr"/>
+      <c r="GO37" t="inlineStr"/>
+      <c r="GP37" t="inlineStr"/>
+      <c r="GQ37" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -17184,7 +17723,11 @@
       <c r="DG38" t="inlineStr"/>
       <c r="DH38" t="inlineStr"/>
       <c r="DI38" t="inlineStr"/>
-      <c r="DJ38" t="inlineStr"/>
+      <c r="DJ38" t="inlineStr">
+        <is>
+          <t>trash-couldn't do anything</t>
+        </is>
+      </c>
       <c r="DK38" t="inlineStr"/>
       <c r="DL38" t="inlineStr"/>
       <c r="DM38" t="inlineStr"/>
@@ -17264,7 +17807,12 @@
       <c r="GI38" t="inlineStr"/>
       <c r="GJ38" t="inlineStr"/>
       <c r="GK38" t="inlineStr"/>
-      <c r="GL38" t="inlineStr">
+      <c r="GL38" t="inlineStr"/>
+      <c r="GM38" t="inlineStr"/>
+      <c r="GN38" t="inlineStr"/>
+      <c r="GO38" t="inlineStr"/>
+      <c r="GP38" t="inlineStr"/>
+      <c r="GQ38" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -17588,7 +18136,11 @@
       <c r="DG39" t="inlineStr"/>
       <c r="DH39" t="inlineStr"/>
       <c r="DI39" t="inlineStr"/>
-      <c r="DJ39" t="inlineStr"/>
+      <c r="DJ39" t="inlineStr">
+        <is>
+          <t>trash-couldn't do anything</t>
+        </is>
+      </c>
       <c r="DK39" t="inlineStr"/>
       <c r="DL39" t="inlineStr"/>
       <c r="DM39" t="inlineStr"/>
@@ -17668,7 +18220,12 @@
       <c r="GI39" t="inlineStr"/>
       <c r="GJ39" t="inlineStr"/>
       <c r="GK39" t="inlineStr"/>
-      <c r="GL39" t="inlineStr">
+      <c r="GL39" t="inlineStr"/>
+      <c r="GM39" t="inlineStr"/>
+      <c r="GN39" t="inlineStr"/>
+      <c r="GO39" t="inlineStr"/>
+      <c r="GP39" t="inlineStr"/>
+      <c r="GQ39" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -17995,9 +18552,19 @@
         </is>
       </c>
       <c r="DF40" t="inlineStr"/>
-      <c r="DG40" t="inlineStr"/>
-      <c r="DH40" t="inlineStr"/>
-      <c r="DI40" t="inlineStr"/>
+      <c r="DG40" t="inlineStr">
+        <is>
+          <t>919_53_58</t>
+        </is>
+      </c>
+      <c r="DH40" t="n">
+        <v>29</v>
+      </c>
+      <c r="DI40" t="inlineStr">
+        <is>
+          <t>919_53_58_29</t>
+        </is>
+      </c>
       <c r="DJ40" t="inlineStr"/>
       <c r="DK40" t="inlineStr"/>
       <c r="DL40" t="inlineStr"/>
@@ -18078,7 +18645,12 @@
       <c r="GI40" t="inlineStr"/>
       <c r="GJ40" t="inlineStr"/>
       <c r="GK40" t="inlineStr"/>
-      <c r="GL40" t="inlineStr">
+      <c r="GL40" t="inlineStr"/>
+      <c r="GM40" t="inlineStr"/>
+      <c r="GN40" t="inlineStr"/>
+      <c r="GO40" t="inlineStr"/>
+      <c r="GP40" t="inlineStr"/>
+      <c r="GQ40" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -18405,9 +18977,19 @@
         </is>
       </c>
       <c r="DF41" t="inlineStr"/>
-      <c r="DG41" t="inlineStr"/>
-      <c r="DH41" t="inlineStr"/>
-      <c r="DI41" t="inlineStr"/>
+      <c r="DG41" t="inlineStr">
+        <is>
+          <t>919_53_58</t>
+        </is>
+      </c>
+      <c r="DH41" t="n">
+        <v>29</v>
+      </c>
+      <c r="DI41" t="inlineStr">
+        <is>
+          <t>919_53_58_29</t>
+        </is>
+      </c>
       <c r="DJ41" t="inlineStr"/>
       <c r="DK41" t="inlineStr"/>
       <c r="DL41" t="inlineStr"/>
@@ -18488,7 +19070,12 @@
       <c r="GI41" t="inlineStr"/>
       <c r="GJ41" t="inlineStr"/>
       <c r="GK41" t="inlineStr"/>
-      <c r="GL41" t="inlineStr">
+      <c r="GL41" t="inlineStr"/>
+      <c r="GM41" t="inlineStr"/>
+      <c r="GN41" t="inlineStr"/>
+      <c r="GO41" t="inlineStr"/>
+      <c r="GP41" t="inlineStr"/>
+      <c r="GQ41" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -18829,9 +19416,19 @@
         </is>
       </c>
       <c r="DF42" t="inlineStr"/>
-      <c r="DG42" t="inlineStr"/>
-      <c r="DH42" t="inlineStr"/>
-      <c r="DI42" t="inlineStr"/>
+      <c r="DG42" t="inlineStr">
+        <is>
+          <t>919_53_58</t>
+        </is>
+      </c>
+      <c r="DH42" t="n">
+        <v>29</v>
+      </c>
+      <c r="DI42" t="inlineStr">
+        <is>
+          <t>919_53_58_29</t>
+        </is>
+      </c>
       <c r="DJ42" t="inlineStr"/>
       <c r="DK42" t="inlineStr"/>
       <c r="DL42" t="inlineStr"/>
@@ -18912,7 +19509,12 @@
       <c r="GI42" t="inlineStr"/>
       <c r="GJ42" t="inlineStr"/>
       <c r="GK42" t="inlineStr"/>
-      <c r="GL42" t="inlineStr">
+      <c r="GL42" t="inlineStr"/>
+      <c r="GM42" t="inlineStr"/>
+      <c r="GN42" t="inlineStr"/>
+      <c r="GO42" t="inlineStr"/>
+      <c r="GP42" t="inlineStr"/>
+      <c r="GQ42" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -19239,9 +19841,19 @@
         </is>
       </c>
       <c r="DF43" t="inlineStr"/>
-      <c r="DG43" t="inlineStr"/>
-      <c r="DH43" t="inlineStr"/>
-      <c r="DI43" t="inlineStr"/>
+      <c r="DG43" t="inlineStr">
+        <is>
+          <t>919_54_60</t>
+        </is>
+      </c>
+      <c r="DH43" t="n">
+        <v>44</v>
+      </c>
+      <c r="DI43" t="inlineStr">
+        <is>
+          <t>919_54_60_44</t>
+        </is>
+      </c>
       <c r="DJ43" t="inlineStr"/>
       <c r="DK43" t="inlineStr"/>
       <c r="DL43" t="inlineStr"/>
@@ -19322,7 +19934,12 @@
       <c r="GI43" t="inlineStr"/>
       <c r="GJ43" t="inlineStr"/>
       <c r="GK43" t="inlineStr"/>
-      <c r="GL43" t="inlineStr">
+      <c r="GL43" t="inlineStr"/>
+      <c r="GM43" t="inlineStr"/>
+      <c r="GN43" t="inlineStr"/>
+      <c r="GO43" t="inlineStr"/>
+      <c r="GP43" t="inlineStr"/>
+      <c r="GQ43" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -19645,9 +20262,19 @@
         </is>
       </c>
       <c r="DF44" t="inlineStr"/>
-      <c r="DG44" t="inlineStr"/>
-      <c r="DH44" t="inlineStr"/>
-      <c r="DI44" t="inlineStr"/>
+      <c r="DG44" t="inlineStr">
+        <is>
+          <t>919_55_63</t>
+        </is>
+      </c>
+      <c r="DH44" t="n">
+        <v>17</v>
+      </c>
+      <c r="DI44" t="inlineStr">
+        <is>
+          <t>919_55_63_17</t>
+        </is>
+      </c>
       <c r="DJ44" t="inlineStr"/>
       <c r="DK44" t="inlineStr"/>
       <c r="DL44" t="inlineStr"/>
@@ -19728,7 +20355,12 @@
       <c r="GI44" t="inlineStr"/>
       <c r="GJ44" t="inlineStr"/>
       <c r="GK44" t="inlineStr"/>
-      <c r="GL44" t="inlineStr">
+      <c r="GL44" t="inlineStr"/>
+      <c r="GM44" t="inlineStr"/>
+      <c r="GN44" t="inlineStr"/>
+      <c r="GO44" t="inlineStr"/>
+      <c r="GP44" t="inlineStr"/>
+      <c r="GQ44" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -20051,9 +20683,19 @@
         </is>
       </c>
       <c r="DF45" t="inlineStr"/>
-      <c r="DG45" t="inlineStr"/>
-      <c r="DH45" t="inlineStr"/>
-      <c r="DI45" t="inlineStr"/>
+      <c r="DG45" t="inlineStr">
+        <is>
+          <t>919_55_63</t>
+        </is>
+      </c>
+      <c r="DH45" t="n">
+        <v>17</v>
+      </c>
+      <c r="DI45" t="inlineStr">
+        <is>
+          <t>919_55_63_17</t>
+        </is>
+      </c>
       <c r="DJ45" t="inlineStr"/>
       <c r="DK45" t="inlineStr"/>
       <c r="DL45" t="inlineStr"/>
@@ -20134,7 +20776,12 @@
       <c r="GI45" t="inlineStr"/>
       <c r="GJ45" t="inlineStr"/>
       <c r="GK45" t="inlineStr"/>
-      <c r="GL45" t="inlineStr">
+      <c r="GL45" t="inlineStr"/>
+      <c r="GM45" t="inlineStr"/>
+      <c r="GN45" t="inlineStr"/>
+      <c r="GO45" t="inlineStr"/>
+      <c r="GP45" t="inlineStr"/>
+      <c r="GQ45" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -20469,214 +21116,231 @@
         </is>
       </c>
       <c r="DF46" t="inlineStr"/>
-      <c r="DG46" t="n">
+      <c r="DG46" t="inlineStr">
+        <is>
+          <t>919_56_65</t>
+        </is>
+      </c>
+      <c r="DH46" t="n">
+        <v>90</v>
+      </c>
+      <c r="DI46" t="inlineStr">
+        <is>
+          <t>919_56_65_90</t>
+        </is>
+      </c>
+      <c r="DJ46" t="inlineStr"/>
+      <c r="DK46" t="n">
         <v>0.005763306702147554</v>
       </c>
-      <c r="DH46" t="n">
+      <c r="DL46" t="n">
         <v>5.139640429469875e-05</v>
       </c>
-      <c r="DI46" t="n">
+      <c r="DM46" t="n">
         <v>7.776035927615546e-05</v>
       </c>
-      <c r="DJ46" t="n">
+      <c r="DN46" t="n">
         <v>7.140171370196507e-07</v>
       </c>
-      <c r="DK46" t="n">
+      <c r="DO46" t="n">
         <v>0.01373912422562496</v>
       </c>
-      <c r="DL46" t="n">
+      <c r="DP46" t="n">
         <v>0.0001744490699844559</v>
       </c>
-      <c r="DM46" t="n">
+      <c r="DQ46" t="n">
         <v>1.226066505581236e-06</v>
       </c>
-      <c r="DN46" t="n">
+      <c r="DR46" t="n">
         <v>0.0001770800204694529</v>
       </c>
-      <c r="DO46" t="n">
+      <c r="DS46" t="n">
         <v>0.01060660171779799</v>
       </c>
-      <c r="DP46" t="n">
+      <c r="DT46" t="n">
         <v>0</v>
       </c>
-      <c r="DQ46" t="n">
+      <c r="DU46" t="n">
         <v>0</v>
       </c>
-      <c r="DR46" t="n">
+      <c r="DV46" t="n">
         <v>0</v>
       </c>
-      <c r="DS46" t="inlineStr"/>
-      <c r="DT46" t="inlineStr"/>
-      <c r="DU46" t="n">
+      <c r="DW46" t="inlineStr"/>
+      <c r="DX46" t="inlineStr"/>
+      <c r="DY46" t="n">
         <v>0.005443992548313745</v>
       </c>
-      <c r="DV46" t="n">
+      <c r="DZ46" t="n">
         <v>6.563915104100838e-05</v>
       </c>
-      <c r="DW46" t="n">
+      <c r="EA46" t="n">
         <v>0.005763306702147554</v>
       </c>
-      <c r="DX46" t="n">
+      <c r="EB46" t="n">
         <v>5.139640429469875e-05</v>
       </c>
-      <c r="DY46" t="n">
+      <c r="EC46" t="n">
         <v>0.008949446964843283</v>
       </c>
-      <c r="DZ46" t="n">
+      <c r="ED46" t="n">
         <v>8.484334047913181e-05</v>
       </c>
-      <c r="EA46" t="n">
+      <c r="EE46" t="n">
         <v>0.01383844111363336</v>
       </c>
-      <c r="EB46" t="n">
+      <c r="EF46" t="n">
         <v>0.000177080020469452</v>
       </c>
-      <c r="EC46" t="n">
+      <c r="EG46" t="n">
         <v>0.02289545730114312</v>
       </c>
-      <c r="ED46" t="n">
+      <c r="EH46" t="n">
         <v>0.0001959776070413346</v>
       </c>
-      <c r="EE46" t="n">
+      <c r="EI46" t="n">
         <v>190.1664052646819</v>
       </c>
-      <c r="EF46" t="n">
+      <c r="EJ46" t="n">
         <v>0.02289545730106273</v>
       </c>
-      <c r="EG46" t="n">
+      <c r="EK46" t="n">
         <v>464.0193431093186</v>
       </c>
-      <c r="EH46" t="n">
+      <c r="EL46" t="n">
         <v>0.004648391308508292</v>
       </c>
-      <c r="EI46" t="n">
+      <c r="EM46" t="n">
         <v>1.418446023935326</v>
       </c>
-      <c r="EJ46" t="n">
+      <c r="EN46" t="n">
         <v>0.02873093607016462</v>
       </c>
-      <c r="EK46" t="n">
+      <c r="EO46" t="n">
         <v>0.009296782617016506</v>
       </c>
-      <c r="EL46" t="n">
+      <c r="EP46" t="n">
         <v>0.009057016186766159</v>
       </c>
-      <c r="EM46" t="n">
+      <c r="EQ46" t="n">
         <v>2.519260913781402e-06</v>
       </c>
-      <c r="EN46" t="n">
+      <c r="ER46" t="n">
         <v>335.9976335178202</v>
       </c>
-      <c r="EO46" t="n">
+      <c r="ES46" t="n">
         <v>0.009057016186766159</v>
       </c>
-      <c r="EP46" t="n">
+      <c r="ET46" t="n">
         <v>616.7260029936236</v>
       </c>
-      <c r="EQ46" t="n">
+      <c r="EU46" t="n">
         <v>0.002726120350469608</v>
       </c>
-      <c r="ER46" t="n">
+      <c r="EV46" t="n">
         <v>0</v>
       </c>
-      <c r="ES46" t="n">
+      <c r="EW46" t="n">
         <v>1.543643259162225</v>
       </c>
-      <c r="ET46" t="n">
+      <c r="EX46" t="n">
         <v>0.01829100889007371</v>
       </c>
-      <c r="EU46" t="n">
+      <c r="EY46" t="n">
         <v>0.005452240700939215</v>
       </c>
-      <c r="EV46" t="n">
+      <c r="EZ46" t="n">
         <v>0.03201810712725487</v>
       </c>
-      <c r="EW46" t="n">
+      <c r="FA46" t="n">
         <v>86.83233767290547</v>
       </c>
-      <c r="EX46" t="n">
+      <c r="FB46" t="n">
         <v>0.1899749024904913</v>
       </c>
-      <c r="EY46" t="n">
+      <c r="FC46" t="n">
         <v>0.04898080063647994</v>
       </c>
-      <c r="EZ46" t="n">
+      <c r="FD46" t="n">
         <v>65.11131985660775</v>
       </c>
-      <c r="FA46" t="n">
+      <c r="FE46" t="n">
         <v>0.04327535418913414</v>
       </c>
-      <c r="FB46" t="inlineStr"/>
-      <c r="FC46" t="inlineStr"/>
-      <c r="FD46" t="inlineStr"/>
-      <c r="FE46" t="inlineStr"/>
       <c r="FF46" t="inlineStr"/>
       <c r="FG46" t="inlineStr"/>
       <c r="FH46" t="inlineStr"/>
       <c r="FI46" t="inlineStr"/>
       <c r="FJ46" t="inlineStr"/>
-      <c r="FK46" t="n">
+      <c r="FK46" t="inlineStr"/>
+      <c r="FL46" t="inlineStr"/>
+      <c r="FM46" t="inlineStr"/>
+      <c r="FN46" t="inlineStr"/>
+      <c r="FO46" t="n">
         <v>0.04891570241203924</v>
       </c>
-      <c r="FL46" t="n">
+      <c r="FP46" t="n">
         <v>0.02953376925033471</v>
       </c>
-      <c r="FM46" t="n">
+      <c r="FQ46" t="n">
         <v>0.085372783761666</v>
       </c>
-      <c r="FN46" t="n">
+      <c r="FR46" t="n">
         <v>0.0002988891334718341</v>
       </c>
-      <c r="FO46" t="n">
+      <c r="FS46" t="n">
         <v>0.02112460659258524</v>
       </c>
-      <c r="FP46" t="n">
+      <c r="FT46" t="n">
         <v>0.0108255105265185</v>
       </c>
-      <c r="FQ46" t="n">
+      <c r="FU46" t="n">
         <v>0.02819911789674732</v>
       </c>
-      <c r="FR46" t="n">
+      <c r="FV46" t="n">
         <v>0.0001037767964400517</v>
       </c>
-      <c r="FS46" t="n">
+      <c r="FW46" t="n">
         <v>0</v>
       </c>
-      <c r="FT46" t="n">
+      <c r="FX46" t="n">
         <v>0</v>
       </c>
-      <c r="FU46" t="n">
+      <c r="FY46" t="n">
         <v>0</v>
       </c>
-      <c r="FV46" t="n">
+      <c r="FZ46" t="n">
         <v>0</v>
       </c>
-      <c r="FW46" t="n">
+      <c r="GA46" t="n">
         <v>214.2533546995239</v>
       </c>
-      <c r="FX46" t="inlineStr"/>
-      <c r="FY46" t="inlineStr"/>
-      <c r="FZ46" t="inlineStr"/>
-      <c r="GA46" t="inlineStr"/>
       <c r="GB46" t="inlineStr"/>
       <c r="GC46" t="inlineStr"/>
       <c r="GD46" t="inlineStr"/>
       <c r="GE46" t="inlineStr"/>
       <c r="GF46" t="inlineStr"/>
-      <c r="GG46" t="n">
+      <c r="GG46" t="inlineStr"/>
+      <c r="GH46" t="inlineStr"/>
+      <c r="GI46" t="inlineStr"/>
+      <c r="GJ46" t="inlineStr"/>
+      <c r="GK46" t="n">
         <v>214.2533546995239</v>
       </c>
-      <c r="GH46" t="n">
+      <c r="GL46" t="n">
         <v>6.89063388067879e-07</v>
       </c>
-      <c r="GI46" t="n">
+      <c r="GM46" t="n">
         <v>6.762377596305444e-07</v>
       </c>
-      <c r="GJ46" t="n">
+      <c r="GN46" t="n">
         <v>7.018890165837182e-07</v>
       </c>
-      <c r="GK46" t="inlineStr"/>
-      <c r="GL46" t="inlineStr">
+      <c r="GO46" t="inlineStr"/>
+      <c r="GP46" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ46" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -20999,9 +21663,19 @@
         </is>
       </c>
       <c r="DF47" t="inlineStr"/>
-      <c r="DG47" t="inlineStr"/>
-      <c r="DH47" t="inlineStr"/>
-      <c r="DI47" t="inlineStr"/>
+      <c r="DG47" t="inlineStr">
+        <is>
+          <t>919_58_3</t>
+        </is>
+      </c>
+      <c r="DH47" t="n">
+        <v>18</v>
+      </c>
+      <c r="DI47" t="inlineStr">
+        <is>
+          <t>919_58_3_18</t>
+        </is>
+      </c>
       <c r="DJ47" t="inlineStr"/>
       <c r="DK47" t="inlineStr"/>
       <c r="DL47" t="inlineStr"/>
@@ -21082,7 +21756,12 @@
       <c r="GI47" t="inlineStr"/>
       <c r="GJ47" t="inlineStr"/>
       <c r="GK47" t="inlineStr"/>
-      <c r="GL47" t="inlineStr">
+      <c r="GL47" t="inlineStr"/>
+      <c r="GM47" t="inlineStr"/>
+      <c r="GN47" t="inlineStr"/>
+      <c r="GO47" t="inlineStr"/>
+      <c r="GP47" t="inlineStr"/>
+      <c r="GQ47" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -21405,9 +22084,19 @@
         </is>
       </c>
       <c r="DF48" t="inlineStr"/>
-      <c r="DG48" t="inlineStr"/>
-      <c r="DH48" t="inlineStr"/>
-      <c r="DI48" t="inlineStr"/>
+      <c r="DG48" t="inlineStr">
+        <is>
+          <t>919_58_3</t>
+        </is>
+      </c>
+      <c r="DH48" t="n">
+        <v>18</v>
+      </c>
+      <c r="DI48" t="inlineStr">
+        <is>
+          <t>919_58_3_18</t>
+        </is>
+      </c>
       <c r="DJ48" t="inlineStr"/>
       <c r="DK48" t="inlineStr"/>
       <c r="DL48" t="inlineStr"/>
@@ -21488,7 +22177,12 @@
       <c r="GI48" t="inlineStr"/>
       <c r="GJ48" t="inlineStr"/>
       <c r="GK48" t="inlineStr"/>
-      <c r="GL48" t="inlineStr">
+      <c r="GL48" t="inlineStr"/>
+      <c r="GM48" t="inlineStr"/>
+      <c r="GN48" t="inlineStr"/>
+      <c r="GO48" t="inlineStr"/>
+      <c r="GP48" t="inlineStr"/>
+      <c r="GQ48" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -21805,9 +22499,19 @@
         </is>
       </c>
       <c r="DF49" t="inlineStr"/>
-      <c r="DG49" t="inlineStr"/>
-      <c r="DH49" t="inlineStr"/>
-      <c r="DI49" t="inlineStr"/>
+      <c r="DG49" t="inlineStr">
+        <is>
+          <t>919_58_3</t>
+        </is>
+      </c>
+      <c r="DH49" t="n">
+        <v>18</v>
+      </c>
+      <c r="DI49" t="inlineStr">
+        <is>
+          <t>919_58_3_18</t>
+        </is>
+      </c>
       <c r="DJ49" t="inlineStr"/>
       <c r="DK49" t="inlineStr"/>
       <c r="DL49" t="inlineStr"/>
@@ -21888,7 +22592,12 @@
       <c r="GI49" t="inlineStr"/>
       <c r="GJ49" t="inlineStr"/>
       <c r="GK49" t="inlineStr"/>
-      <c r="GL49" t="inlineStr">
+      <c r="GL49" t="inlineStr"/>
+      <c r="GM49" t="inlineStr"/>
+      <c r="GN49" t="inlineStr"/>
+      <c r="GO49" t="inlineStr"/>
+      <c r="GP49" t="inlineStr"/>
+      <c r="GQ49" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -22199,9 +22908,19 @@
         </is>
       </c>
       <c r="DF50" t="inlineStr"/>
-      <c r="DG50" t="inlineStr"/>
-      <c r="DH50" t="inlineStr"/>
-      <c r="DI50" t="inlineStr"/>
+      <c r="DG50" t="inlineStr">
+        <is>
+          <t>919_59_2</t>
+        </is>
+      </c>
+      <c r="DH50" t="n">
+        <v>28</v>
+      </c>
+      <c r="DI50" t="inlineStr">
+        <is>
+          <t>919_59_2_28</t>
+        </is>
+      </c>
       <c r="DJ50" t="inlineStr"/>
       <c r="DK50" t="inlineStr"/>
       <c r="DL50" t="inlineStr"/>
@@ -22282,7 +23001,12 @@
       <c r="GI50" t="inlineStr"/>
       <c r="GJ50" t="inlineStr"/>
       <c r="GK50" t="inlineStr"/>
-      <c r="GL50" t="inlineStr">
+      <c r="GL50" t="inlineStr"/>
+      <c r="GM50" t="inlineStr"/>
+      <c r="GN50" t="inlineStr"/>
+      <c r="GO50" t="inlineStr"/>
+      <c r="GP50" t="inlineStr"/>
+      <c r="GQ50" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -22606,7 +23330,11 @@
       <c r="DG51" t="inlineStr"/>
       <c r="DH51" t="inlineStr"/>
       <c r="DI51" t="inlineStr"/>
-      <c r="DJ51" t="inlineStr"/>
+      <c r="DJ51" t="inlineStr">
+        <is>
+          <t>trash-couldn't do anything</t>
+        </is>
+      </c>
       <c r="DK51" t="inlineStr"/>
       <c r="DL51" t="inlineStr"/>
       <c r="DM51" t="inlineStr"/>
@@ -22686,7 +23414,12 @@
       <c r="GI51" t="inlineStr"/>
       <c r="GJ51" t="inlineStr"/>
       <c r="GK51" t="inlineStr"/>
-      <c r="GL51" t="inlineStr">
+      <c r="GL51" t="inlineStr"/>
+      <c r="GM51" t="inlineStr"/>
+      <c r="GN51" t="inlineStr"/>
+      <c r="GO51" t="inlineStr"/>
+      <c r="GP51" t="inlineStr"/>
+      <c r="GQ51" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -22997,9 +23730,19 @@
         </is>
       </c>
       <c r="DF52" t="inlineStr"/>
-      <c r="DG52" t="inlineStr"/>
-      <c r="DH52" t="inlineStr"/>
-      <c r="DI52" t="inlineStr"/>
+      <c r="DG52" t="inlineStr">
+        <is>
+          <t>919_60_1</t>
+        </is>
+      </c>
+      <c r="DH52" t="n">
+        <v>1400</v>
+      </c>
+      <c r="DI52" t="inlineStr">
+        <is>
+          <t>919_60_1_1400</t>
+        </is>
+      </c>
       <c r="DJ52" t="inlineStr"/>
       <c r="DK52" t="inlineStr"/>
       <c r="DL52" t="inlineStr"/>
@@ -23080,7 +23823,12 @@
       <c r="GI52" t="inlineStr"/>
       <c r="GJ52" t="inlineStr"/>
       <c r="GK52" t="inlineStr"/>
-      <c r="GL52" t="inlineStr">
+      <c r="GL52" t="inlineStr"/>
+      <c r="GM52" t="inlineStr"/>
+      <c r="GN52" t="inlineStr"/>
+      <c r="GO52" t="inlineStr"/>
+      <c r="GP52" t="inlineStr"/>
+      <c r="GQ52" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -23397,9 +24145,19 @@
         </is>
       </c>
       <c r="DF53" t="inlineStr"/>
-      <c r="DG53" t="inlineStr"/>
-      <c r="DH53" t="inlineStr"/>
-      <c r="DI53" t="inlineStr"/>
+      <c r="DG53" t="inlineStr">
+        <is>
+          <t>919_61_70</t>
+        </is>
+      </c>
+      <c r="DH53" t="n">
+        <v>154</v>
+      </c>
+      <c r="DI53" t="inlineStr">
+        <is>
+          <t>919_61_70_154</t>
+        </is>
+      </c>
       <c r="DJ53" t="inlineStr"/>
       <c r="DK53" t="inlineStr"/>
       <c r="DL53" t="inlineStr"/>
@@ -23480,7 +24238,12 @@
       <c r="GI53" t="inlineStr"/>
       <c r="GJ53" t="inlineStr"/>
       <c r="GK53" t="inlineStr"/>
-      <c r="GL53" t="inlineStr">
+      <c r="GL53" t="inlineStr"/>
+      <c r="GM53" t="inlineStr"/>
+      <c r="GN53" t="inlineStr"/>
+      <c r="GO53" t="inlineStr"/>
+      <c r="GP53" t="inlineStr"/>
+      <c r="GQ53" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -23797,9 +24560,19 @@
         </is>
       </c>
       <c r="DF54" t="inlineStr"/>
-      <c r="DG54" t="inlineStr"/>
-      <c r="DH54" t="inlineStr"/>
-      <c r="DI54" t="inlineStr"/>
+      <c r="DG54" t="inlineStr">
+        <is>
+          <t>919_61_70</t>
+        </is>
+      </c>
+      <c r="DH54" t="n">
+        <v>154</v>
+      </c>
+      <c r="DI54" t="inlineStr">
+        <is>
+          <t>919_61_70_154</t>
+        </is>
+      </c>
       <c r="DJ54" t="inlineStr"/>
       <c r="DK54" t="inlineStr"/>
       <c r="DL54" t="inlineStr"/>
@@ -23880,7 +24653,12 @@
       <c r="GI54" t="inlineStr"/>
       <c r="GJ54" t="inlineStr"/>
       <c r="GK54" t="inlineStr"/>
-      <c r="GL54" t="inlineStr">
+      <c r="GL54" t="inlineStr"/>
+      <c r="GM54" t="inlineStr"/>
+      <c r="GN54" t="inlineStr"/>
+      <c r="GO54" t="inlineStr"/>
+      <c r="GP54" t="inlineStr"/>
+      <c r="GQ54" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -24197,10 +24975,24 @@
         </is>
       </c>
       <c r="DF55" t="inlineStr"/>
-      <c r="DG55" t="inlineStr"/>
-      <c r="DH55" t="inlineStr"/>
-      <c r="DI55" t="inlineStr"/>
-      <c r="DJ55" t="inlineStr"/>
+      <c r="DG55" t="inlineStr">
+        <is>
+          <t>919_62_69</t>
+        </is>
+      </c>
+      <c r="DH55" t="n">
+        <v>118</v>
+      </c>
+      <c r="DI55" t="inlineStr">
+        <is>
+          <t>919_62_69_118</t>
+        </is>
+      </c>
+      <c r="DJ55" t="inlineStr">
+        <is>
+          <t>difficult to segment</t>
+        </is>
+      </c>
       <c r="DK55" t="inlineStr"/>
       <c r="DL55" t="inlineStr"/>
       <c r="DM55" t="inlineStr"/>
@@ -24280,7 +25072,12 @@
       <c r="GI55" t="inlineStr"/>
       <c r="GJ55" t="inlineStr"/>
       <c r="GK55" t="inlineStr"/>
-      <c r="GL55" t="inlineStr">
+      <c r="GL55" t="inlineStr"/>
+      <c r="GM55" t="inlineStr"/>
+      <c r="GN55" t="inlineStr"/>
+      <c r="GO55" t="inlineStr"/>
+      <c r="GP55" t="inlineStr"/>
+      <c r="GQ55" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -24603,9 +25400,19 @@
         </is>
       </c>
       <c r="DF56" t="inlineStr"/>
-      <c r="DG56" t="inlineStr"/>
-      <c r="DH56" t="inlineStr"/>
-      <c r="DI56" t="inlineStr"/>
+      <c r="DG56" t="inlineStr">
+        <is>
+          <t>919_63_68</t>
+        </is>
+      </c>
+      <c r="DH56" t="n">
+        <v>106</v>
+      </c>
+      <c r="DI56" t="inlineStr">
+        <is>
+          <t>919_63_68_106</t>
+        </is>
+      </c>
       <c r="DJ56" t="inlineStr"/>
       <c r="DK56" t="inlineStr"/>
       <c r="DL56" t="inlineStr"/>
@@ -24686,7 +25493,12 @@
       <c r="GI56" t="inlineStr"/>
       <c r="GJ56" t="inlineStr"/>
       <c r="GK56" t="inlineStr"/>
-      <c r="GL56" t="inlineStr">
+      <c r="GL56" t="inlineStr"/>
+      <c r="GM56" t="inlineStr"/>
+      <c r="GN56" t="inlineStr"/>
+      <c r="GO56" t="inlineStr"/>
+      <c r="GP56" t="inlineStr"/>
+      <c r="GQ56" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -25009,10 +25821,24 @@
         </is>
       </c>
       <c r="DF57" t="inlineStr"/>
-      <c r="DG57" t="inlineStr"/>
-      <c r="DH57" t="inlineStr"/>
-      <c r="DI57" t="inlineStr"/>
-      <c r="DJ57" t="inlineStr"/>
+      <c r="DG57" t="inlineStr">
+        <is>
+          <t>919_64_67</t>
+        </is>
+      </c>
+      <c r="DH57" t="n">
+        <v>434</v>
+      </c>
+      <c r="DI57" t="inlineStr">
+        <is>
+          <t>919_64_67_434</t>
+        </is>
+      </c>
+      <c r="DJ57" t="inlineStr">
+        <is>
+          <t>difficult to segment</t>
+        </is>
+      </c>
       <c r="DK57" t="inlineStr"/>
       <c r="DL57" t="inlineStr"/>
       <c r="DM57" t="inlineStr"/>
@@ -25092,7 +25918,12 @@
       <c r="GI57" t="inlineStr"/>
       <c r="GJ57" t="inlineStr"/>
       <c r="GK57" t="inlineStr"/>
-      <c r="GL57" t="inlineStr">
+      <c r="GL57" t="inlineStr"/>
+      <c r="GM57" t="inlineStr"/>
+      <c r="GN57" t="inlineStr"/>
+      <c r="GO57" t="inlineStr"/>
+      <c r="GP57" t="inlineStr"/>
+      <c r="GQ57" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -25427,214 +26258,231 @@
         </is>
       </c>
       <c r="DF58" t="inlineStr"/>
-      <c r="DG58" t="n">
+      <c r="DG58" t="inlineStr">
+        <is>
+          <t>919_65_73</t>
+        </is>
+      </c>
+      <c r="DH58" t="n">
+        <v>140</v>
+      </c>
+      <c r="DI58" t="inlineStr">
+        <is>
+          <t>919_65_73_140</t>
+        </is>
+      </c>
+      <c r="DJ58" t="inlineStr"/>
+      <c r="DK58" t="n">
         <v>0.02537486796845736</v>
       </c>
-      <c r="DH58" t="n">
+      <c r="DL58" t="n">
         <v>0.0001333089903479572</v>
       </c>
-      <c r="DI58" t="n">
+      <c r="DM58" t="n">
         <v>0.000213598491856559</v>
       </c>
-      <c r="DJ58" t="n">
+      <c r="DN58" t="n">
         <v>9.223115485684937e-07</v>
       </c>
-      <c r="DK58" t="n">
+      <c r="DO58" t="n">
         <v>0.05686257742527281</v>
       </c>
-      <c r="DL58" t="n">
+      <c r="DP58" t="n">
         <v>0.0004306410188719449</v>
       </c>
-      <c r="DM58" t="n">
+      <c r="DQ58" t="n">
         <v>1.323449527841131e-05</v>
       </c>
-      <c r="DN58" t="n">
+      <c r="DR58" t="n">
         <v>0.0004362731077013002</v>
       </c>
-      <c r="DO58" t="n">
+      <c r="DS58" t="n">
         <v>4.29920922961421</v>
       </c>
-      <c r="DP58" t="n">
+      <c r="DT58" t="n">
         <v>0</v>
       </c>
-      <c r="DQ58" t="n">
+      <c r="DU58" t="n">
         <v>0</v>
       </c>
-      <c r="DR58" t="n">
+      <c r="DV58" t="n">
         <v>0</v>
       </c>
-      <c r="DS58" t="inlineStr"/>
-      <c r="DT58" t="inlineStr"/>
-      <c r="DU58" t="n">
+      <c r="DW58" t="inlineStr"/>
+      <c r="DX58" t="inlineStr"/>
+      <c r="DY58" t="n">
         <v>0.02253123581223935</v>
       </c>
-      <c r="DV58" t="n">
+      <c r="DZ58" t="n">
         <v>0.00027493622100902</v>
       </c>
-      <c r="DW58" t="n">
+      <c r="EA58" t="n">
         <v>0.02537486796845736</v>
       </c>
-      <c r="DX58" t="n">
+      <c r="EB58" t="n">
         <v>0.0001333089903479572</v>
       </c>
-      <c r="DY58" t="n">
+      <c r="EC58" t="n">
         <v>0.03288513241477465</v>
       </c>
-      <c r="DZ58" t="n">
+      <c r="ED58" t="n">
         <v>0.0001543714864869421</v>
       </c>
-      <c r="EA58" t="n">
+      <c r="EE58" t="n">
         <v>0.05781462011819876</v>
       </c>
-      <c r="EB58" t="n">
+      <c r="EF58" t="n">
         <v>0.0004362731077013005</v>
       </c>
-      <c r="EC58" t="n">
+      <c r="EG58" t="n">
         <v>0.1197735280885167</v>
       </c>
-      <c r="ED58" t="n">
+      <c r="EH58" t="n">
         <v>0.0003749160088532368</v>
       </c>
-      <c r="EE58" t="n">
+      <c r="EI58" t="n">
         <v>460.0358676031667</v>
       </c>
-      <c r="EF58" t="n">
+      <c r="EJ58" t="n">
         <v>0.1197735280884363</v>
       </c>
-      <c r="EG58" t="n">
+      <c r="EK58" t="n">
         <v>1509.277227051082</v>
       </c>
-      <c r="EH58" t="n">
+      <c r="EL58" t="n">
         <v>0.07500582124707467</v>
       </c>
-      <c r="EI58" t="n">
+      <c r="EM58" t="n">
         <v>1.366239846283143</v>
       </c>
-      <c r="EJ58" t="n">
+      <c r="EN58" t="n">
         <v>0.0485595946172545</v>
       </c>
-      <c r="EK58" t="n">
+      <c r="EO58" t="n">
         <v>0.1500116424941493</v>
       </c>
-      <c r="EL58" t="n">
+      <c r="EP58" t="n">
         <v>0.06195890797057922</v>
       </c>
-      <c r="EM58" t="n">
+      <c r="EQ58" t="n">
         <v>0.0002236619404122431</v>
       </c>
-      <c r="EN58" t="n">
+      <c r="ER58" t="n">
         <v>1054.327164483153</v>
       </c>
-      <c r="EO58" t="n">
+      <c r="ES58" t="n">
         <v>0.06195890797074</v>
       </c>
-      <c r="EP58" t="n">
+      <c r="ET58" t="n">
         <v>2341.888971939118</v>
       </c>
-      <c r="EQ58" t="n">
+      <c r="EU58" t="n">
         <v>0.0301675584672331</v>
       </c>
-      <c r="ER58" t="n">
+      <c r="EV58" t="n">
         <v>0</v>
       </c>
-      <c r="ES58" t="n">
+      <c r="EW58" t="n">
         <v>0.7665124904243491</v>
       </c>
-      <c r="ET58" t="n">
+      <c r="EX58" t="n">
         <v>0.05635704434815881</v>
       </c>
-      <c r="EU58" t="n">
+      <c r="EY58" t="n">
         <v>0.06033511693446628</v>
       </c>
-      <c r="EV58" t="n">
+      <c r="EZ58" t="n">
         <v>0.2909425143219203</v>
       </c>
-      <c r="EW58" t="n">
+      <c r="FA58" t="n">
         <v>263.4760978369351</v>
       </c>
-      <c r="EX58" t="n">
+      <c r="FB58" t="n">
         <v>0.1803481084699234</v>
       </c>
-      <c r="EY58" t="n">
+      <c r="FC58" t="n">
         <v>0.09922920808959328</v>
       </c>
-      <c r="EZ58" t="n">
+      <c r="FD58" t="n">
         <v>211.4056573051357</v>
       </c>
-      <c r="FA58" t="n">
+      <c r="FE58" t="n">
         <v>0.1406417393453878</v>
       </c>
-      <c r="FB58" t="inlineStr"/>
-      <c r="FC58" t="inlineStr"/>
-      <c r="FD58" t="inlineStr"/>
-      <c r="FE58" t="inlineStr"/>
       <c r="FF58" t="inlineStr"/>
       <c r="FG58" t="inlineStr"/>
       <c r="FH58" t="inlineStr"/>
       <c r="FI58" t="inlineStr"/>
       <c r="FJ58" t="inlineStr"/>
-      <c r="FK58" t="n">
+      <c r="FK58" t="inlineStr"/>
+      <c r="FL58" t="inlineStr"/>
+      <c r="FM58" t="inlineStr"/>
+      <c r="FN58" t="inlineStr"/>
+      <c r="FO58" t="n">
         <v>0.01746937779627667</v>
       </c>
-      <c r="FL58" t="n">
+      <c r="FP58" t="n">
         <v>0.02435889445892169</v>
       </c>
-      <c r="FM58" t="n">
+      <c r="FQ58" t="n">
         <v>0.03657482262997717</v>
       </c>
-      <c r="FN58" t="n">
+      <c r="FR58" t="n">
         <v>0.001055493802546342</v>
       </c>
-      <c r="FO58" t="n">
+      <c r="FS58" t="n">
         <v>0.02569934025886578</v>
       </c>
-      <c r="FP58" t="n">
+      <c r="FT58" t="n">
         <v>0.01233065624177666</v>
       </c>
-      <c r="FQ58" t="n">
+      <c r="FU58" t="n">
         <v>0.03748007173121295</v>
       </c>
-      <c r="FR58" t="n">
+      <c r="FV58" t="n">
         <v>0.0003871115525151323</v>
       </c>
-      <c r="FS58" t="n">
+      <c r="FW58" t="n">
         <v>0</v>
       </c>
-      <c r="FT58" t="n">
+      <c r="FX58" t="n">
         <v>10.60660171779821</v>
       </c>
-      <c r="FU58" t="n">
+      <c r="FY58" t="n">
         <v>0.7071067811865476</v>
       </c>
-      <c r="FV58" t="n">
+      <c r="FZ58" t="n">
         <v>0</v>
       </c>
-      <c r="FW58" t="n">
+      <c r="GA58" t="n">
         <v>5033.186068485846</v>
       </c>
-      <c r="FX58" t="inlineStr"/>
-      <c r="FY58" t="inlineStr"/>
-      <c r="FZ58" t="inlineStr"/>
-      <c r="GA58" t="inlineStr"/>
       <c r="GB58" t="inlineStr"/>
       <c r="GC58" t="inlineStr"/>
       <c r="GD58" t="inlineStr"/>
       <c r="GE58" t="inlineStr"/>
       <c r="GF58" t="inlineStr"/>
-      <c r="GG58" t="n">
+      <c r="GG58" t="inlineStr"/>
+      <c r="GH58" t="inlineStr"/>
+      <c r="GI58" t="inlineStr"/>
+      <c r="GJ58" t="inlineStr"/>
+      <c r="GK58" t="n">
         <v>5033.186068485846</v>
       </c>
-      <c r="GH58" t="n">
+      <c r="GL58" t="n">
         <v>8.014988102931494e-06</v>
       </c>
-      <c r="GI58" t="n">
+      <c r="GM58" t="n">
         <v>8.138284358814841e-06</v>
       </c>
-      <c r="GJ58" t="n">
+      <c r="GN58" t="n">
         <v>7.891691847126651e-06</v>
       </c>
-      <c r="GK58" t="inlineStr"/>
-      <c r="GL58" t="inlineStr">
+      <c r="GO58" t="inlineStr"/>
+      <c r="GP58" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ58" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -25957,9 +26805,19 @@
         </is>
       </c>
       <c r="DF59" t="inlineStr"/>
-      <c r="DG59" t="inlineStr"/>
-      <c r="DH59" t="inlineStr"/>
-      <c r="DI59" t="inlineStr"/>
+      <c r="DG59" t="inlineStr">
+        <is>
+          <t>919_66_4</t>
+        </is>
+      </c>
+      <c r="DH59" t="n">
+        <v>23</v>
+      </c>
+      <c r="DI59" t="inlineStr">
+        <is>
+          <t>919_66_4_23</t>
+        </is>
+      </c>
       <c r="DJ59" t="inlineStr"/>
       <c r="DK59" t="inlineStr"/>
       <c r="DL59" t="inlineStr"/>
@@ -26040,7 +26898,12 @@
       <c r="GI59" t="inlineStr"/>
       <c r="GJ59" t="inlineStr"/>
       <c r="GK59" t="inlineStr"/>
-      <c r="GL59" t="inlineStr">
+      <c r="GL59" t="inlineStr"/>
+      <c r="GM59" t="inlineStr"/>
+      <c r="GN59" t="inlineStr"/>
+      <c r="GO59" t="inlineStr"/>
+      <c r="GP59" t="inlineStr"/>
+      <c r="GQ59" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -26357,9 +27220,19 @@
         </is>
       </c>
       <c r="DF60" t="inlineStr"/>
-      <c r="DG60" t="inlineStr"/>
-      <c r="DH60" t="inlineStr"/>
-      <c r="DI60" t="inlineStr"/>
+      <c r="DG60" t="inlineStr">
+        <is>
+          <t>919_66_4</t>
+        </is>
+      </c>
+      <c r="DH60" t="n">
+        <v>23</v>
+      </c>
+      <c r="DI60" t="inlineStr">
+        <is>
+          <t>919_66_4_23</t>
+        </is>
+      </c>
       <c r="DJ60" t="inlineStr"/>
       <c r="DK60" t="inlineStr"/>
       <c r="DL60" t="inlineStr"/>
@@ -26440,7 +27313,12 @@
       <c r="GI60" t="inlineStr"/>
       <c r="GJ60" t="inlineStr"/>
       <c r="GK60" t="inlineStr"/>
-      <c r="GL60" t="inlineStr">
+      <c r="GL60" t="inlineStr"/>
+      <c r="GM60" t="inlineStr"/>
+      <c r="GN60" t="inlineStr"/>
+      <c r="GO60" t="inlineStr"/>
+      <c r="GP60" t="inlineStr"/>
+      <c r="GQ60" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -26751,9 +27629,19 @@
         </is>
       </c>
       <c r="DF61" t="inlineStr"/>
-      <c r="DG61" t="inlineStr"/>
-      <c r="DH61" t="inlineStr"/>
-      <c r="DI61" t="inlineStr"/>
+      <c r="DG61" t="inlineStr">
+        <is>
+          <t>919_66_4</t>
+        </is>
+      </c>
+      <c r="DH61" t="n">
+        <v>23</v>
+      </c>
+      <c r="DI61" t="inlineStr">
+        <is>
+          <t>919_66_4_23</t>
+        </is>
+      </c>
       <c r="DJ61" t="inlineStr"/>
       <c r="DK61" t="inlineStr"/>
       <c r="DL61" t="inlineStr"/>
@@ -26834,7 +27722,12 @@
       <c r="GI61" t="inlineStr"/>
       <c r="GJ61" t="inlineStr"/>
       <c r="GK61" t="inlineStr"/>
-      <c r="GL61" t="inlineStr">
+      <c r="GL61" t="inlineStr"/>
+      <c r="GM61" t="inlineStr"/>
+      <c r="GN61" t="inlineStr"/>
+      <c r="GO61" t="inlineStr"/>
+      <c r="GP61" t="inlineStr"/>
+      <c r="GQ61" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -27151,9 +28044,19 @@
         </is>
       </c>
       <c r="DF62" t="inlineStr"/>
-      <c r="DG62" t="inlineStr"/>
-      <c r="DH62" t="inlineStr"/>
-      <c r="DI62" t="inlineStr"/>
+      <c r="DG62" t="inlineStr">
+        <is>
+          <t>919_67_5</t>
+        </is>
+      </c>
+      <c r="DH62" t="n">
+        <v>57</v>
+      </c>
+      <c r="DI62" t="inlineStr">
+        <is>
+          <t>919_67_5_57</t>
+        </is>
+      </c>
       <c r="DJ62" t="inlineStr"/>
       <c r="DK62" t="inlineStr"/>
       <c r="DL62" t="inlineStr"/>
@@ -27234,7 +28137,12 @@
       <c r="GI62" t="inlineStr"/>
       <c r="GJ62" t="inlineStr"/>
       <c r="GK62" t="inlineStr"/>
-      <c r="GL62" t="inlineStr">
+      <c r="GL62" t="inlineStr"/>
+      <c r="GM62" t="inlineStr"/>
+      <c r="GN62" t="inlineStr"/>
+      <c r="GO62" t="inlineStr"/>
+      <c r="GP62" t="inlineStr"/>
+      <c r="GQ62" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -27583,10 +28491,24 @@
         </is>
       </c>
       <c r="DF63" t="inlineStr"/>
-      <c r="DG63" t="inlineStr"/>
-      <c r="DH63" t="inlineStr"/>
-      <c r="DI63" t="inlineStr"/>
-      <c r="DJ63" t="inlineStr"/>
+      <c r="DG63" t="inlineStr">
+        <is>
+          <t>919_68_6</t>
+        </is>
+      </c>
+      <c r="DH63" t="n">
+        <v>94</v>
+      </c>
+      <c r="DI63" t="inlineStr">
+        <is>
+          <t>919_68_6_94</t>
+        </is>
+      </c>
+      <c r="DJ63" t="inlineStr">
+        <is>
+          <t>difficult to segment</t>
+        </is>
+      </c>
       <c r="DK63" t="inlineStr"/>
       <c r="DL63" t="inlineStr"/>
       <c r="DM63" t="inlineStr"/>
@@ -27666,7 +28588,12 @@
       <c r="GI63" t="inlineStr"/>
       <c r="GJ63" t="inlineStr"/>
       <c r="GK63" t="inlineStr"/>
-      <c r="GL63" t="inlineStr">
+      <c r="GL63" t="inlineStr"/>
+      <c r="GM63" t="inlineStr"/>
+      <c r="GN63" t="inlineStr"/>
+      <c r="GO63" t="inlineStr"/>
+      <c r="GP63" t="inlineStr"/>
+      <c r="GQ63" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -27989,10 +28916,24 @@
         </is>
       </c>
       <c r="DF64" t="inlineStr"/>
-      <c r="DG64" t="inlineStr"/>
-      <c r="DH64" t="inlineStr"/>
-      <c r="DI64" t="inlineStr"/>
-      <c r="DJ64" t="inlineStr"/>
+      <c r="DG64" t="inlineStr">
+        <is>
+          <t>919_68_6</t>
+        </is>
+      </c>
+      <c r="DH64" t="n">
+        <v>94</v>
+      </c>
+      <c r="DI64" t="inlineStr">
+        <is>
+          <t>919_68_6_94</t>
+        </is>
+      </c>
+      <c r="DJ64" t="inlineStr">
+        <is>
+          <t>difficult to segment</t>
+        </is>
+      </c>
       <c r="DK64" t="inlineStr"/>
       <c r="DL64" t="inlineStr"/>
       <c r="DM64" t="inlineStr"/>
@@ -28072,7 +29013,12 @@
       <c r="GI64" t="inlineStr"/>
       <c r="GJ64" t="inlineStr"/>
       <c r="GK64" t="inlineStr"/>
-      <c r="GL64" t="inlineStr">
+      <c r="GL64" t="inlineStr"/>
+      <c r="GM64" t="inlineStr"/>
+      <c r="GN64" t="inlineStr"/>
+      <c r="GO64" t="inlineStr"/>
+      <c r="GP64" t="inlineStr"/>
+      <c r="GQ64" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -28395,9 +29341,19 @@
         </is>
       </c>
       <c r="DF65" t="inlineStr"/>
-      <c r="DG65" t="inlineStr"/>
-      <c r="DH65" t="inlineStr"/>
-      <c r="DI65" t="inlineStr"/>
+      <c r="DG65" t="inlineStr">
+        <is>
+          <t>919_69_7</t>
+        </is>
+      </c>
+      <c r="DH65" t="n">
+        <v>93</v>
+      </c>
+      <c r="DI65" t="inlineStr">
+        <is>
+          <t>919_69_7_93</t>
+        </is>
+      </c>
       <c r="DJ65" t="inlineStr"/>
       <c r="DK65" t="inlineStr"/>
       <c r="DL65" t="inlineStr"/>
@@ -28478,7 +29434,12 @@
       <c r="GI65" t="inlineStr"/>
       <c r="GJ65" t="inlineStr"/>
       <c r="GK65" t="inlineStr"/>
-      <c r="GL65" t="inlineStr">
+      <c r="GL65" t="inlineStr"/>
+      <c r="GM65" t="inlineStr"/>
+      <c r="GN65" t="inlineStr"/>
+      <c r="GO65" t="inlineStr"/>
+      <c r="GP65" t="inlineStr"/>
+      <c r="GQ65" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -28796,7 +29757,11 @@
       <c r="DG66" t="inlineStr"/>
       <c r="DH66" t="inlineStr"/>
       <c r="DI66" t="inlineStr"/>
-      <c r="DJ66" t="inlineStr"/>
+      <c r="DJ66" t="inlineStr">
+        <is>
+          <t>trash-couldn't do anything</t>
+        </is>
+      </c>
       <c r="DK66" t="inlineStr"/>
       <c r="DL66" t="inlineStr"/>
       <c r="DM66" t="inlineStr"/>
@@ -28876,7 +29841,12 @@
       <c r="GI66" t="inlineStr"/>
       <c r="GJ66" t="inlineStr"/>
       <c r="GK66" t="inlineStr"/>
-      <c r="GL66" t="inlineStr">
+      <c r="GL66" t="inlineStr"/>
+      <c r="GM66" t="inlineStr"/>
+      <c r="GN66" t="inlineStr"/>
+      <c r="GO66" t="inlineStr"/>
+      <c r="GP66" t="inlineStr"/>
+      <c r="GQ66" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -29193,9 +30163,19 @@
         </is>
       </c>
       <c r="DF67" t="inlineStr"/>
-      <c r="DG67" t="inlineStr"/>
-      <c r="DH67" t="inlineStr"/>
-      <c r="DI67" t="inlineStr"/>
+      <c r="DG67" t="inlineStr">
+        <is>
+          <t>919_70_71</t>
+        </is>
+      </c>
+      <c r="DH67" t="n">
+        <v>21</v>
+      </c>
+      <c r="DI67" t="inlineStr">
+        <is>
+          <t>919_70_71_21</t>
+        </is>
+      </c>
       <c r="DJ67" t="inlineStr"/>
       <c r="DK67" t="inlineStr"/>
       <c r="DL67" t="inlineStr"/>
@@ -29276,7 +30256,12 @@
       <c r="GI67" t="inlineStr"/>
       <c r="GJ67" t="inlineStr"/>
       <c r="GK67" t="inlineStr"/>
-      <c r="GL67" t="inlineStr">
+      <c r="GL67" t="inlineStr"/>
+      <c r="GM67" t="inlineStr"/>
+      <c r="GN67" t="inlineStr"/>
+      <c r="GO67" t="inlineStr"/>
+      <c r="GP67" t="inlineStr"/>
+      <c r="GQ67" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -29599,9 +30584,19 @@
         </is>
       </c>
       <c r="DF68" t="inlineStr"/>
-      <c r="DG68" t="inlineStr"/>
-      <c r="DH68" t="inlineStr"/>
-      <c r="DI68" t="inlineStr"/>
+      <c r="DG68" t="inlineStr">
+        <is>
+          <t>919_007_42</t>
+        </is>
+      </c>
+      <c r="DH68" t="n">
+        <v>220</v>
+      </c>
+      <c r="DI68" t="inlineStr">
+        <is>
+          <t>919_007_42_220</t>
+        </is>
+      </c>
       <c r="DJ68" t="inlineStr"/>
       <c r="DK68" t="inlineStr"/>
       <c r="DL68" t="inlineStr"/>
@@ -29682,7 +30677,12 @@
       <c r="GI68" t="inlineStr"/>
       <c r="GJ68" t="inlineStr"/>
       <c r="GK68" t="inlineStr"/>
-      <c r="GL68" t="inlineStr">
+      <c r="GL68" t="inlineStr"/>
+      <c r="GM68" t="inlineStr"/>
+      <c r="GN68" t="inlineStr"/>
+      <c r="GO68" t="inlineStr"/>
+      <c r="GP68" t="inlineStr"/>
+      <c r="GQ68" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -30015,9 +31015,19 @@
         </is>
       </c>
       <c r="DF69" t="inlineStr"/>
-      <c r="DG69" t="inlineStr"/>
-      <c r="DH69" t="inlineStr"/>
-      <c r="DI69" t="inlineStr"/>
+      <c r="DG69" t="inlineStr">
+        <is>
+          <t>919_008_45</t>
+        </is>
+      </c>
+      <c r="DH69" t="n">
+        <v>92</v>
+      </c>
+      <c r="DI69" t="inlineStr">
+        <is>
+          <t>919_008_45_92</t>
+        </is>
+      </c>
       <c r="DJ69" t="inlineStr"/>
       <c r="DK69" t="inlineStr"/>
       <c r="DL69" t="inlineStr"/>
@@ -30098,7 +31108,12 @@
       <c r="GI69" t="inlineStr"/>
       <c r="GJ69" t="inlineStr"/>
       <c r="GK69" t="inlineStr"/>
-      <c r="GL69" t="inlineStr">
+      <c r="GL69" t="inlineStr"/>
+      <c r="GM69" t="inlineStr"/>
+      <c r="GN69" t="inlineStr"/>
+      <c r="GO69" t="inlineStr"/>
+      <c r="GP69" t="inlineStr"/>
+      <c r="GQ69" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -30422,7 +31437,11 @@
       <c r="DG70" t="inlineStr"/>
       <c r="DH70" t="inlineStr"/>
       <c r="DI70" t="inlineStr"/>
-      <c r="DJ70" t="inlineStr"/>
+      <c r="DJ70" t="inlineStr">
+        <is>
+          <t>trash-couldn't do anything</t>
+        </is>
+      </c>
       <c r="DK70" t="inlineStr"/>
       <c r="DL70" t="inlineStr"/>
       <c r="DM70" t="inlineStr"/>
@@ -30502,7 +31521,12 @@
       <c r="GI70" t="inlineStr"/>
       <c r="GJ70" t="inlineStr"/>
       <c r="GK70" t="inlineStr"/>
-      <c r="GL70" t="inlineStr">
+      <c r="GL70" t="inlineStr"/>
+      <c r="GM70" t="inlineStr"/>
+      <c r="GN70" t="inlineStr"/>
+      <c r="GO70" t="inlineStr"/>
+      <c r="GP70" t="inlineStr"/>
+      <c r="GQ70" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -30894,7 +31918,12 @@
       <c r="GI71" t="inlineStr"/>
       <c r="GJ71" t="inlineStr"/>
       <c r="GK71" t="inlineStr"/>
-      <c r="GL71" t="inlineStr">
+      <c r="GL71" t="inlineStr"/>
+      <c r="GM71" t="inlineStr"/>
+      <c r="GN71" t="inlineStr"/>
+      <c r="GO71" t="inlineStr"/>
+      <c r="GP71" t="inlineStr"/>
+      <c r="GQ71" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -31292,7 +32321,12 @@
       <c r="GI72" t="inlineStr"/>
       <c r="GJ72" t="inlineStr"/>
       <c r="GK72" t="inlineStr"/>
-      <c r="GL72" t="inlineStr">
+      <c r="GL72" t="inlineStr"/>
+      <c r="GM72" t="inlineStr"/>
+      <c r="GN72" t="inlineStr"/>
+      <c r="GO72" t="inlineStr"/>
+      <c r="GP72" t="inlineStr"/>
+      <c r="GQ72" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -31690,7 +32724,12 @@
       <c r="GI73" t="inlineStr"/>
       <c r="GJ73" t="inlineStr"/>
       <c r="GK73" t="inlineStr"/>
-      <c r="GL73" t="inlineStr">
+      <c r="GL73" t="inlineStr"/>
+      <c r="GM73" t="inlineStr"/>
+      <c r="GN73" t="inlineStr"/>
+      <c r="GO73" t="inlineStr"/>
+      <c r="GP73" t="inlineStr"/>
+      <c r="GQ73" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -32088,7 +33127,12 @@
       <c r="GI74" t="inlineStr"/>
       <c r="GJ74" t="inlineStr"/>
       <c r="GK74" t="inlineStr"/>
-      <c r="GL74" t="inlineStr">
+      <c r="GL74" t="inlineStr"/>
+      <c r="GM74" t="inlineStr"/>
+      <c r="GN74" t="inlineStr"/>
+      <c r="GO74" t="inlineStr"/>
+      <c r="GP74" t="inlineStr"/>
+      <c r="GQ74" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -32486,7 +33530,12 @@
       <c r="GI75" t="inlineStr"/>
       <c r="GJ75" t="inlineStr"/>
       <c r="GK75" t="inlineStr"/>
-      <c r="GL75" t="inlineStr">
+      <c r="GL75" t="inlineStr"/>
+      <c r="GM75" t="inlineStr"/>
+      <c r="GN75" t="inlineStr"/>
+      <c r="GO75" t="inlineStr"/>
+      <c r="GP75" t="inlineStr"/>
+      <c r="GQ75" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -32878,7 +33927,12 @@
       <c r="GI76" t="inlineStr"/>
       <c r="GJ76" t="inlineStr"/>
       <c r="GK76" t="inlineStr"/>
-      <c r="GL76" t="inlineStr">
+      <c r="GL76" t="inlineStr"/>
+      <c r="GM76" t="inlineStr"/>
+      <c r="GN76" t="inlineStr"/>
+      <c r="GO76" t="inlineStr"/>
+      <c r="GP76" t="inlineStr"/>
+      <c r="GQ76" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -33276,7 +34330,12 @@
       <c r="GI77" t="inlineStr"/>
       <c r="GJ77" t="inlineStr"/>
       <c r="GK77" t="inlineStr"/>
-      <c r="GL77" t="inlineStr">
+      <c r="GL77" t="inlineStr"/>
+      <c r="GM77" t="inlineStr"/>
+      <c r="GN77" t="inlineStr"/>
+      <c r="GO77" t="inlineStr"/>
+      <c r="GP77" t="inlineStr"/>
+      <c r="GQ77" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -33680,7 +34739,12 @@
       <c r="GI78" t="inlineStr"/>
       <c r="GJ78" t="inlineStr"/>
       <c r="GK78" t="inlineStr"/>
-      <c r="GL78" t="inlineStr">
+      <c r="GL78" t="inlineStr"/>
+      <c r="GM78" t="inlineStr"/>
+      <c r="GN78" t="inlineStr"/>
+      <c r="GO78" t="inlineStr"/>
+      <c r="GP78" t="inlineStr"/>
+      <c r="GQ78" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -34084,7 +35148,12 @@
       <c r="GI79" t="inlineStr"/>
       <c r="GJ79" t="inlineStr"/>
       <c r="GK79" t="inlineStr"/>
-      <c r="GL79" t="inlineStr">
+      <c r="GL79" t="inlineStr"/>
+      <c r="GM79" t="inlineStr"/>
+      <c r="GN79" t="inlineStr"/>
+      <c r="GO79" t="inlineStr"/>
+      <c r="GP79" t="inlineStr"/>
+      <c r="GQ79" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -34482,7 +35551,12 @@
       <c r="GI80" t="inlineStr"/>
       <c r="GJ80" t="inlineStr"/>
       <c r="GK80" t="inlineStr"/>
-      <c r="GL80" t="inlineStr">
+      <c r="GL80" t="inlineStr"/>
+      <c r="GM80" t="inlineStr"/>
+      <c r="GN80" t="inlineStr"/>
+      <c r="GO80" t="inlineStr"/>
+      <c r="GP80" t="inlineStr"/>
+      <c r="GQ80" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -34874,7 +35948,12 @@
       <c r="GI81" t="inlineStr"/>
       <c r="GJ81" t="inlineStr"/>
       <c r="GK81" t="inlineStr"/>
-      <c r="GL81" t="inlineStr">
+      <c r="GL81" t="inlineStr"/>
+      <c r="GM81" t="inlineStr"/>
+      <c r="GN81" t="inlineStr"/>
+      <c r="GO81" t="inlineStr"/>
+      <c r="GP81" t="inlineStr"/>
+      <c r="GQ81" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -35266,7 +36345,12 @@
       <c r="GI82" t="inlineStr"/>
       <c r="GJ82" t="inlineStr"/>
       <c r="GK82" t="inlineStr"/>
-      <c r="GL82" t="inlineStr">
+      <c r="GL82" t="inlineStr"/>
+      <c r="GM82" t="inlineStr"/>
+      <c r="GN82" t="inlineStr"/>
+      <c r="GO82" t="inlineStr"/>
+      <c r="GP82" t="inlineStr"/>
+      <c r="GQ82" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -35670,7 +36754,12 @@
       <c r="GI83" t="inlineStr"/>
       <c r="GJ83" t="inlineStr"/>
       <c r="GK83" t="inlineStr"/>
-      <c r="GL83" t="inlineStr">
+      <c r="GL83" t="inlineStr"/>
+      <c r="GM83" t="inlineStr"/>
+      <c r="GN83" t="inlineStr"/>
+      <c r="GO83" t="inlineStr"/>
+      <c r="GP83" t="inlineStr"/>
+      <c r="GQ83" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -36068,7 +37157,12 @@
       <c r="GI84" t="inlineStr"/>
       <c r="GJ84" t="inlineStr"/>
       <c r="GK84" t="inlineStr"/>
-      <c r="GL84" t="inlineStr">
+      <c r="GL84" t="inlineStr"/>
+      <c r="GM84" t="inlineStr"/>
+      <c r="GN84" t="inlineStr"/>
+      <c r="GO84" t="inlineStr"/>
+      <c r="GP84" t="inlineStr"/>
+      <c r="GQ84" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -36460,7 +37554,12 @@
       <c r="GI85" t="inlineStr"/>
       <c r="GJ85" t="inlineStr"/>
       <c r="GK85" t="inlineStr"/>
-      <c r="GL85" t="inlineStr">
+      <c r="GL85" t="inlineStr"/>
+      <c r="GM85" t="inlineStr"/>
+      <c r="GN85" t="inlineStr"/>
+      <c r="GO85" t="inlineStr"/>
+      <c r="GP85" t="inlineStr"/>
+      <c r="GQ85" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -36803,10 +37902,24 @@
         </is>
       </c>
       <c r="DF86" t="inlineStr"/>
-      <c r="DG86" t="inlineStr"/>
-      <c r="DH86" t="inlineStr"/>
-      <c r="DI86" t="inlineStr"/>
-      <c r="DJ86" t="inlineStr"/>
+      <c r="DG86" t="inlineStr">
+        <is>
+          <t>K24_10_14</t>
+        </is>
+      </c>
+      <c r="DH86" t="n">
+        <v>472</v>
+      </c>
+      <c r="DI86" t="inlineStr">
+        <is>
+          <t>K24_10_14_472</t>
+        </is>
+      </c>
+      <c r="DJ86" t="inlineStr">
+        <is>
+          <t>trash</t>
+        </is>
+      </c>
       <c r="DK86" t="inlineStr"/>
       <c r="DL86" t="inlineStr"/>
       <c r="DM86" t="inlineStr"/>
@@ -36886,7 +37999,12 @@
       <c r="GI86" t="inlineStr"/>
       <c r="GJ86" t="inlineStr"/>
       <c r="GK86" t="inlineStr"/>
-      <c r="GL86" t="inlineStr">
+      <c r="GL86" t="inlineStr"/>
+      <c r="GM86" t="inlineStr"/>
+      <c r="GN86" t="inlineStr"/>
+      <c r="GO86" t="inlineStr"/>
+      <c r="GP86" t="inlineStr"/>
+      <c r="GQ86" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -37223,10 +38341,24 @@
         </is>
       </c>
       <c r="DF87" t="inlineStr"/>
-      <c r="DG87" t="inlineStr"/>
-      <c r="DH87" t="inlineStr"/>
-      <c r="DI87" t="inlineStr"/>
-      <c r="DJ87" t="inlineStr"/>
+      <c r="DG87" t="inlineStr">
+        <is>
+          <t>K24_10_14</t>
+        </is>
+      </c>
+      <c r="DH87" t="n">
+        <v>472</v>
+      </c>
+      <c r="DI87" t="inlineStr">
+        <is>
+          <t>K24_10_14_472</t>
+        </is>
+      </c>
+      <c r="DJ87" t="inlineStr">
+        <is>
+          <t>trash</t>
+        </is>
+      </c>
       <c r="DK87" t="inlineStr"/>
       <c r="DL87" t="inlineStr"/>
       <c r="DM87" t="inlineStr"/>
@@ -37306,7 +38438,12 @@
       <c r="GI87" t="inlineStr"/>
       <c r="GJ87" t="inlineStr"/>
       <c r="GK87" t="inlineStr"/>
-      <c r="GL87" t="inlineStr">
+      <c r="GL87" t="inlineStr"/>
+      <c r="GM87" t="inlineStr"/>
+      <c r="GN87" t="inlineStr"/>
+      <c r="GO87" t="inlineStr"/>
+      <c r="GP87" t="inlineStr"/>
+      <c r="GQ87" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -37649,9 +38786,19 @@
         </is>
       </c>
       <c r="DF88" t="inlineStr"/>
-      <c r="DG88" t="inlineStr"/>
-      <c r="DH88" t="inlineStr"/>
-      <c r="DI88" t="inlineStr"/>
+      <c r="DG88" t="inlineStr">
+        <is>
+          <t>K24_11_16</t>
+        </is>
+      </c>
+      <c r="DH88" t="n">
+        <v>111</v>
+      </c>
+      <c r="DI88" t="inlineStr">
+        <is>
+          <t>K24_11_16_111</t>
+        </is>
+      </c>
       <c r="DJ88" t="inlineStr"/>
       <c r="DK88" t="inlineStr"/>
       <c r="DL88" t="inlineStr"/>
@@ -37732,7 +38879,12 @@
       <c r="GI88" t="inlineStr"/>
       <c r="GJ88" t="inlineStr"/>
       <c r="GK88" t="inlineStr"/>
-      <c r="GL88" t="inlineStr">
+      <c r="GL88" t="inlineStr"/>
+      <c r="GM88" t="inlineStr"/>
+      <c r="GN88" t="inlineStr"/>
+      <c r="GO88" t="inlineStr"/>
+      <c r="GP88" t="inlineStr"/>
+      <c r="GQ88" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -38049,9 +39201,19 @@
         </is>
       </c>
       <c r="DF89" t="inlineStr"/>
-      <c r="DG89" t="inlineStr"/>
-      <c r="DH89" t="inlineStr"/>
-      <c r="DI89" t="inlineStr"/>
+      <c r="DG89" t="inlineStr">
+        <is>
+          <t>K24_11_16</t>
+        </is>
+      </c>
+      <c r="DH89" t="n">
+        <v>111</v>
+      </c>
+      <c r="DI89" t="inlineStr">
+        <is>
+          <t>K24_11_16_111</t>
+        </is>
+      </c>
       <c r="DJ89" t="inlineStr"/>
       <c r="DK89" t="inlineStr"/>
       <c r="DL89" t="inlineStr"/>
@@ -38132,7 +39294,12 @@
       <c r="GI89" t="inlineStr"/>
       <c r="GJ89" t="inlineStr"/>
       <c r="GK89" t="inlineStr"/>
-      <c r="GL89" t="inlineStr">
+      <c r="GL89" t="inlineStr"/>
+      <c r="GM89" t="inlineStr"/>
+      <c r="GN89" t="inlineStr"/>
+      <c r="GO89" t="inlineStr"/>
+      <c r="GP89" t="inlineStr"/>
+      <c r="GQ89" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -38475,9 +39642,19 @@
         </is>
       </c>
       <c r="DF90" t="inlineStr"/>
-      <c r="DG90" t="inlineStr"/>
-      <c r="DH90" t="inlineStr"/>
-      <c r="DI90" t="inlineStr"/>
+      <c r="DG90" t="inlineStr">
+        <is>
+          <t>K24_11_16</t>
+        </is>
+      </c>
+      <c r="DH90" t="n">
+        <v>111</v>
+      </c>
+      <c r="DI90" t="inlineStr">
+        <is>
+          <t>K24_11_16_111</t>
+        </is>
+      </c>
       <c r="DJ90" t="inlineStr"/>
       <c r="DK90" t="inlineStr"/>
       <c r="DL90" t="inlineStr"/>
@@ -38558,7 +39735,12 @@
       <c r="GI90" t="inlineStr"/>
       <c r="GJ90" t="inlineStr"/>
       <c r="GK90" t="inlineStr"/>
-      <c r="GL90" t="inlineStr">
+      <c r="GL90" t="inlineStr"/>
+      <c r="GM90" t="inlineStr"/>
+      <c r="GN90" t="inlineStr"/>
+      <c r="GO90" t="inlineStr"/>
+      <c r="GP90" t="inlineStr"/>
+      <c r="GQ90" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -38875,9 +40057,19 @@
         </is>
       </c>
       <c r="DF91" t="inlineStr"/>
-      <c r="DG91" t="inlineStr"/>
-      <c r="DH91" t="inlineStr"/>
-      <c r="DI91" t="inlineStr"/>
+      <c r="DG91" t="inlineStr">
+        <is>
+          <t>K24_12_17</t>
+        </is>
+      </c>
+      <c r="DH91" t="n">
+        <v>82</v>
+      </c>
+      <c r="DI91" t="inlineStr">
+        <is>
+          <t>K24_12_17_82</t>
+        </is>
+      </c>
       <c r="DJ91" t="inlineStr"/>
       <c r="DK91" t="inlineStr"/>
       <c r="DL91" t="inlineStr"/>
@@ -38958,7 +40150,12 @@
       <c r="GI91" t="inlineStr"/>
       <c r="GJ91" t="inlineStr"/>
       <c r="GK91" t="inlineStr"/>
-      <c r="GL91" t="inlineStr">
+      <c r="GL91" t="inlineStr"/>
+      <c r="GM91" t="inlineStr"/>
+      <c r="GN91" t="inlineStr"/>
+      <c r="GO91" t="inlineStr"/>
+      <c r="GP91" t="inlineStr"/>
+      <c r="GQ91" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -39275,9 +40472,19 @@
         </is>
       </c>
       <c r="DF92" t="inlineStr"/>
-      <c r="DG92" t="inlineStr"/>
-      <c r="DH92" t="inlineStr"/>
-      <c r="DI92" t="inlineStr"/>
+      <c r="DG92" t="inlineStr">
+        <is>
+          <t>K24_13_18</t>
+        </is>
+      </c>
+      <c r="DH92" t="n">
+        <v>720</v>
+      </c>
+      <c r="DI92" t="inlineStr">
+        <is>
+          <t>K24_13_18_720</t>
+        </is>
+      </c>
       <c r="DJ92" t="inlineStr"/>
       <c r="DK92" t="inlineStr"/>
       <c r="DL92" t="inlineStr"/>
@@ -39358,7 +40565,12 @@
       <c r="GI92" t="inlineStr"/>
       <c r="GJ92" t="inlineStr"/>
       <c r="GK92" t="inlineStr"/>
-      <c r="GL92" t="inlineStr">
+      <c r="GL92" t="inlineStr"/>
+      <c r="GM92" t="inlineStr"/>
+      <c r="GN92" t="inlineStr"/>
+      <c r="GO92" t="inlineStr"/>
+      <c r="GP92" t="inlineStr"/>
+      <c r="GQ92" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -39681,9 +40893,19 @@
         </is>
       </c>
       <c r="DF93" t="inlineStr"/>
-      <c r="DG93" t="inlineStr"/>
-      <c r="DH93" t="inlineStr"/>
-      <c r="DI93" t="inlineStr"/>
+      <c r="DG93" t="inlineStr">
+        <is>
+          <t>K24_13_18</t>
+        </is>
+      </c>
+      <c r="DH93" t="n">
+        <v>720</v>
+      </c>
+      <c r="DI93" t="inlineStr">
+        <is>
+          <t>K24_13_18_720</t>
+        </is>
+      </c>
       <c r="DJ93" t="inlineStr"/>
       <c r="DK93" t="inlineStr"/>
       <c r="DL93" t="inlineStr"/>
@@ -39764,7 +40986,12 @@
       <c r="GI93" t="inlineStr"/>
       <c r="GJ93" t="inlineStr"/>
       <c r="GK93" t="inlineStr"/>
-      <c r="GL93" t="inlineStr">
+      <c r="GL93" t="inlineStr"/>
+      <c r="GM93" t="inlineStr"/>
+      <c r="GN93" t="inlineStr"/>
+      <c r="GO93" t="inlineStr"/>
+      <c r="GP93" t="inlineStr"/>
+      <c r="GQ93" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -40087,9 +41314,19 @@
         </is>
       </c>
       <c r="DF94" t="inlineStr"/>
-      <c r="DG94" t="inlineStr"/>
-      <c r="DH94" t="inlineStr"/>
-      <c r="DI94" t="inlineStr"/>
+      <c r="DG94" t="inlineStr">
+        <is>
+          <t>K24_13_18</t>
+        </is>
+      </c>
+      <c r="DH94" t="n">
+        <v>610</v>
+      </c>
+      <c r="DI94" t="inlineStr">
+        <is>
+          <t>K24_13_18_610</t>
+        </is>
+      </c>
       <c r="DJ94" t="inlineStr"/>
       <c r="DK94" t="inlineStr"/>
       <c r="DL94" t="inlineStr"/>
@@ -40170,7 +41407,12 @@
       <c r="GI94" t="inlineStr"/>
       <c r="GJ94" t="inlineStr"/>
       <c r="GK94" t="inlineStr"/>
-      <c r="GL94" t="inlineStr">
+      <c r="GL94" t="inlineStr"/>
+      <c r="GM94" t="inlineStr"/>
+      <c r="GN94" t="inlineStr"/>
+      <c r="GO94" t="inlineStr"/>
+      <c r="GP94" t="inlineStr"/>
+      <c r="GQ94" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -40487,9 +41729,19 @@
         </is>
       </c>
       <c r="DF95" t="inlineStr"/>
-      <c r="DG95" t="inlineStr"/>
-      <c r="DH95" t="inlineStr"/>
-      <c r="DI95" t="inlineStr"/>
+      <c r="DG95" t="inlineStr">
+        <is>
+          <t>K24_14_19</t>
+        </is>
+      </c>
+      <c r="DH95" t="n">
+        <v>54</v>
+      </c>
+      <c r="DI95" t="inlineStr">
+        <is>
+          <t>K24_14_19_54</t>
+        </is>
+      </c>
       <c r="DJ95" t="inlineStr"/>
       <c r="DK95" t="inlineStr"/>
       <c r="DL95" t="inlineStr"/>
@@ -40570,7 +41822,12 @@
       <c r="GI95" t="inlineStr"/>
       <c r="GJ95" t="inlineStr"/>
       <c r="GK95" t="inlineStr"/>
-      <c r="GL95" t="inlineStr">
+      <c r="GL95" t="inlineStr"/>
+      <c r="GM95" t="inlineStr"/>
+      <c r="GN95" t="inlineStr"/>
+      <c r="GO95" t="inlineStr"/>
+      <c r="GP95" t="inlineStr"/>
+      <c r="GQ95" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -40899,10 +42156,24 @@
         </is>
       </c>
       <c r="DF96" t="inlineStr"/>
-      <c r="DG96" t="inlineStr"/>
-      <c r="DH96" t="inlineStr"/>
-      <c r="DI96" t="inlineStr"/>
-      <c r="DJ96" t="inlineStr"/>
+      <c r="DG96" t="inlineStr">
+        <is>
+          <t>K24_15_20</t>
+        </is>
+      </c>
+      <c r="DH96" t="n">
+        <v>344</v>
+      </c>
+      <c r="DI96" t="inlineStr">
+        <is>
+          <t>K24_15_20_344</t>
+        </is>
+      </c>
+      <c r="DJ96" t="inlineStr">
+        <is>
+          <t>trash</t>
+        </is>
+      </c>
       <c r="DK96" t="inlineStr"/>
       <c r="DL96" t="inlineStr"/>
       <c r="DM96" t="inlineStr"/>
@@ -40982,7 +42253,12 @@
       <c r="GI96" t="inlineStr"/>
       <c r="GJ96" t="inlineStr"/>
       <c r="GK96" t="inlineStr"/>
-      <c r="GL96" t="inlineStr">
+      <c r="GL96" t="inlineStr"/>
+      <c r="GM96" t="inlineStr"/>
+      <c r="GN96" t="inlineStr"/>
+      <c r="GO96" t="inlineStr"/>
+      <c r="GP96" t="inlineStr"/>
+      <c r="GQ96" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -41305,10 +42581,24 @@
         </is>
       </c>
       <c r="DF97" t="inlineStr"/>
-      <c r="DG97" t="inlineStr"/>
-      <c r="DH97" t="inlineStr"/>
-      <c r="DI97" t="inlineStr"/>
-      <c r="DJ97" t="inlineStr"/>
+      <c r="DG97" t="inlineStr">
+        <is>
+          <t>K24_15_20</t>
+        </is>
+      </c>
+      <c r="DH97" t="n">
+        <v>344</v>
+      </c>
+      <c r="DI97" t="inlineStr">
+        <is>
+          <t>K24_15_20_344</t>
+        </is>
+      </c>
+      <c r="DJ97" t="inlineStr">
+        <is>
+          <t>trash</t>
+        </is>
+      </c>
       <c r="DK97" t="inlineStr"/>
       <c r="DL97" t="inlineStr"/>
       <c r="DM97" t="inlineStr"/>
@@ -41388,7 +42678,12 @@
       <c r="GI97" t="inlineStr"/>
       <c r="GJ97" t="inlineStr"/>
       <c r="GK97" t="inlineStr"/>
-      <c r="GL97" t="inlineStr">
+      <c r="GL97" t="inlineStr"/>
+      <c r="GM97" t="inlineStr"/>
+      <c r="GN97" t="inlineStr"/>
+      <c r="GO97" t="inlineStr"/>
+      <c r="GP97" t="inlineStr"/>
+      <c r="GQ97" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -41717,9 +43012,19 @@
         </is>
       </c>
       <c r="DF98" t="inlineStr"/>
-      <c r="DG98" t="inlineStr"/>
-      <c r="DH98" t="inlineStr"/>
-      <c r="DI98" t="inlineStr"/>
+      <c r="DG98" t="inlineStr">
+        <is>
+          <t>K24_16_23</t>
+        </is>
+      </c>
+      <c r="DH98" t="n">
+        <v>235</v>
+      </c>
+      <c r="DI98" t="inlineStr">
+        <is>
+          <t>K24_16_23_235</t>
+        </is>
+      </c>
       <c r="DJ98" t="inlineStr"/>
       <c r="DK98" t="inlineStr"/>
       <c r="DL98" t="inlineStr"/>
@@ -41800,7 +43105,12 @@
       <c r="GI98" t="inlineStr"/>
       <c r="GJ98" t="inlineStr"/>
       <c r="GK98" t="inlineStr"/>
-      <c r="GL98" t="inlineStr">
+      <c r="GL98" t="inlineStr"/>
+      <c r="GM98" t="inlineStr"/>
+      <c r="GN98" t="inlineStr"/>
+      <c r="GO98" t="inlineStr"/>
+      <c r="GP98" t="inlineStr"/>
+      <c r="GQ98" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -42129,9 +43439,19 @@
         </is>
       </c>
       <c r="DF99" t="inlineStr"/>
-      <c r="DG99" t="inlineStr"/>
-      <c r="DH99" t="inlineStr"/>
-      <c r="DI99" t="inlineStr"/>
+      <c r="DG99" t="inlineStr">
+        <is>
+          <t>K24_16_23</t>
+        </is>
+      </c>
+      <c r="DH99" t="n">
+        <v>235</v>
+      </c>
+      <c r="DI99" t="inlineStr">
+        <is>
+          <t>K24_16_23_235</t>
+        </is>
+      </c>
       <c r="DJ99" t="inlineStr"/>
       <c r="DK99" t="inlineStr"/>
       <c r="DL99" t="inlineStr"/>
@@ -42212,7 +43532,12 @@
       <c r="GI99" t="inlineStr"/>
       <c r="GJ99" t="inlineStr"/>
       <c r="GK99" t="inlineStr"/>
-      <c r="GL99" t="inlineStr">
+      <c r="GL99" t="inlineStr"/>
+      <c r="GM99" t="inlineStr"/>
+      <c r="GN99" t="inlineStr"/>
+      <c r="GO99" t="inlineStr"/>
+      <c r="GP99" t="inlineStr"/>
+      <c r="GQ99" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -42558,7 +43883,11 @@
       <c r="DG100" t="inlineStr"/>
       <c r="DH100" t="inlineStr"/>
       <c r="DI100" t="inlineStr"/>
-      <c r="DJ100" t="inlineStr"/>
+      <c r="DJ100" t="inlineStr">
+        <is>
+          <t>trash-couldn't do anything</t>
+        </is>
+      </c>
       <c r="DK100" t="inlineStr"/>
       <c r="DL100" t="inlineStr"/>
       <c r="DM100" t="inlineStr"/>
@@ -42638,7 +43967,12 @@
       <c r="GI100" t="inlineStr"/>
       <c r="GJ100" t="inlineStr"/>
       <c r="GK100" t="inlineStr"/>
-      <c r="GL100" t="inlineStr">
+      <c r="GL100" t="inlineStr"/>
+      <c r="GM100" t="inlineStr"/>
+      <c r="GN100" t="inlineStr"/>
+      <c r="GO100" t="inlineStr"/>
+      <c r="GP100" t="inlineStr"/>
+      <c r="GQ100" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -42981,9 +44315,19 @@
         </is>
       </c>
       <c r="DF101" t="inlineStr"/>
-      <c r="DG101" t="inlineStr"/>
-      <c r="DH101" t="inlineStr"/>
-      <c r="DI101" t="inlineStr"/>
+      <c r="DG101" t="inlineStr">
+        <is>
+          <t>K24_18_25</t>
+        </is>
+      </c>
+      <c r="DH101" t="n">
+        <v>77</v>
+      </c>
+      <c r="DI101" t="inlineStr">
+        <is>
+          <t>K24_18_25_77</t>
+        </is>
+      </c>
       <c r="DJ101" t="inlineStr"/>
       <c r="DK101" t="inlineStr"/>
       <c r="DL101" t="inlineStr"/>
@@ -43064,7 +44408,12 @@
       <c r="GI101" t="inlineStr"/>
       <c r="GJ101" t="inlineStr"/>
       <c r="GK101" t="inlineStr"/>
-      <c r="GL101" t="inlineStr">
+      <c r="GL101" t="inlineStr"/>
+      <c r="GM101" t="inlineStr"/>
+      <c r="GN101" t="inlineStr"/>
+      <c r="GO101" t="inlineStr"/>
+      <c r="GP101" t="inlineStr"/>
+      <c r="GQ101" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -43387,9 +44736,19 @@
         </is>
       </c>
       <c r="DF102" t="inlineStr"/>
-      <c r="DG102" t="inlineStr"/>
-      <c r="DH102" t="inlineStr"/>
-      <c r="DI102" t="inlineStr"/>
+      <c r="DG102" t="inlineStr">
+        <is>
+          <t>K24_19_27</t>
+        </is>
+      </c>
+      <c r="DH102" t="n">
+        <v>41</v>
+      </c>
+      <c r="DI102" t="inlineStr">
+        <is>
+          <t>K24_19_27_41</t>
+        </is>
+      </c>
       <c r="DJ102" t="inlineStr"/>
       <c r="DK102" t="inlineStr"/>
       <c r="DL102" t="inlineStr"/>
@@ -43470,7 +44829,12 @@
       <c r="GI102" t="inlineStr"/>
       <c r="GJ102" t="inlineStr"/>
       <c r="GK102" t="inlineStr"/>
-      <c r="GL102" t="inlineStr">
+      <c r="GL102" t="inlineStr"/>
+      <c r="GM102" t="inlineStr"/>
+      <c r="GN102" t="inlineStr"/>
+      <c r="GO102" t="inlineStr"/>
+      <c r="GP102" t="inlineStr"/>
+      <c r="GQ102" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -43825,9 +45189,19 @@
         </is>
       </c>
       <c r="DF103" t="inlineStr"/>
-      <c r="DG103" t="inlineStr"/>
-      <c r="DH103" t="inlineStr"/>
-      <c r="DI103" t="inlineStr"/>
+      <c r="DG103" t="inlineStr">
+        <is>
+          <t>K24_1_3</t>
+        </is>
+      </c>
+      <c r="DH103" t="n">
+        <v>1098</v>
+      </c>
+      <c r="DI103" t="inlineStr">
+        <is>
+          <t>K24_1_3_1098</t>
+        </is>
+      </c>
       <c r="DJ103" t="inlineStr"/>
       <c r="DK103" t="inlineStr"/>
       <c r="DL103" t="inlineStr"/>
@@ -43908,7 +45282,12 @@
       <c r="GI103" t="inlineStr"/>
       <c r="GJ103" t="inlineStr"/>
       <c r="GK103" t="inlineStr"/>
-      <c r="GL103" t="inlineStr">
+      <c r="GL103" t="inlineStr"/>
+      <c r="GM103" t="inlineStr"/>
+      <c r="GN103" t="inlineStr"/>
+      <c r="GO103" t="inlineStr"/>
+      <c r="GP103" t="inlineStr"/>
+      <c r="GQ103" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -44251,9 +45630,19 @@
         </is>
       </c>
       <c r="DF104" t="inlineStr"/>
-      <c r="DG104" t="inlineStr"/>
-      <c r="DH104" t="inlineStr"/>
-      <c r="DI104" t="inlineStr"/>
+      <c r="DG104" t="inlineStr">
+        <is>
+          <t>K24_1_3</t>
+        </is>
+      </c>
+      <c r="DH104" t="n">
+        <v>1098</v>
+      </c>
+      <c r="DI104" t="inlineStr">
+        <is>
+          <t>K24_1_3_1098</t>
+        </is>
+      </c>
       <c r="DJ104" t="inlineStr"/>
       <c r="DK104" t="inlineStr"/>
       <c r="DL104" t="inlineStr"/>
@@ -44334,7 +45723,12 @@
       <c r="GI104" t="inlineStr"/>
       <c r="GJ104" t="inlineStr"/>
       <c r="GK104" t="inlineStr"/>
-      <c r="GL104" t="inlineStr">
+      <c r="GL104" t="inlineStr"/>
+      <c r="GM104" t="inlineStr"/>
+      <c r="GN104" t="inlineStr"/>
+      <c r="GO104" t="inlineStr"/>
+      <c r="GP104" t="inlineStr"/>
+      <c r="GQ104" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -44677,9 +46071,19 @@
         </is>
       </c>
       <c r="DF105" t="inlineStr"/>
-      <c r="DG105" t="inlineStr"/>
-      <c r="DH105" t="inlineStr"/>
-      <c r="DI105" t="inlineStr"/>
+      <c r="DG105" t="inlineStr">
+        <is>
+          <t>K24_1_3</t>
+        </is>
+      </c>
+      <c r="DH105" t="n">
+        <v>1098</v>
+      </c>
+      <c r="DI105" t="inlineStr">
+        <is>
+          <t>K24_1_3_1098</t>
+        </is>
+      </c>
       <c r="DJ105" t="inlineStr"/>
       <c r="DK105" t="inlineStr"/>
       <c r="DL105" t="inlineStr"/>
@@ -44760,7 +46164,12 @@
       <c r="GI105" t="inlineStr"/>
       <c r="GJ105" t="inlineStr"/>
       <c r="GK105" t="inlineStr"/>
-      <c r="GL105" t="inlineStr">
+      <c r="GL105" t="inlineStr"/>
+      <c r="GM105" t="inlineStr"/>
+      <c r="GN105" t="inlineStr"/>
+      <c r="GO105" t="inlineStr"/>
+      <c r="GP105" t="inlineStr"/>
+      <c r="GQ105" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -45089,9 +46498,19 @@
         </is>
       </c>
       <c r="DF106" t="inlineStr"/>
-      <c r="DG106" t="inlineStr"/>
-      <c r="DH106" t="inlineStr"/>
-      <c r="DI106" t="inlineStr"/>
+      <c r="DG106" t="inlineStr">
+        <is>
+          <t>K24_1_3</t>
+        </is>
+      </c>
+      <c r="DH106" t="n">
+        <v>1098</v>
+      </c>
+      <c r="DI106" t="inlineStr">
+        <is>
+          <t>K24_1_3_1098</t>
+        </is>
+      </c>
       <c r="DJ106" t="inlineStr"/>
       <c r="DK106" t="inlineStr"/>
       <c r="DL106" t="inlineStr"/>
@@ -45172,7 +46591,12 @@
       <c r="GI106" t="inlineStr"/>
       <c r="GJ106" t="inlineStr"/>
       <c r="GK106" t="inlineStr"/>
-      <c r="GL106" t="inlineStr">
+      <c r="GL106" t="inlineStr"/>
+      <c r="GM106" t="inlineStr"/>
+      <c r="GN106" t="inlineStr"/>
+      <c r="GO106" t="inlineStr"/>
+      <c r="GP106" t="inlineStr"/>
+      <c r="GQ106" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -45495,9 +46919,19 @@
         </is>
       </c>
       <c r="DF107" t="inlineStr"/>
-      <c r="DG107" t="inlineStr"/>
-      <c r="DH107" t="inlineStr"/>
-      <c r="DI107" t="inlineStr"/>
+      <c r="DG107" t="inlineStr">
+        <is>
+          <t>K24_20_26</t>
+        </is>
+      </c>
+      <c r="DH107" t="n">
+        <v>19</v>
+      </c>
+      <c r="DI107" t="inlineStr">
+        <is>
+          <t>K24_20_26_19</t>
+        </is>
+      </c>
       <c r="DJ107" t="inlineStr"/>
       <c r="DK107" t="inlineStr"/>
       <c r="DL107" t="inlineStr"/>
@@ -45578,7 +47012,12 @@
       <c r="GI107" t="inlineStr"/>
       <c r="GJ107" t="inlineStr"/>
       <c r="GK107" t="inlineStr"/>
-      <c r="GL107" t="inlineStr">
+      <c r="GL107" t="inlineStr"/>
+      <c r="GM107" t="inlineStr"/>
+      <c r="GN107" t="inlineStr"/>
+      <c r="GO107" t="inlineStr"/>
+      <c r="GP107" t="inlineStr"/>
+      <c r="GQ107" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -45921,9 +47360,19 @@
         </is>
       </c>
       <c r="DF108" t="inlineStr"/>
-      <c r="DG108" t="inlineStr"/>
-      <c r="DH108" t="inlineStr"/>
-      <c r="DI108" t="inlineStr"/>
+      <c r="DG108" t="inlineStr">
+        <is>
+          <t>K24_21_28</t>
+        </is>
+      </c>
+      <c r="DH108" t="n">
+        <v>34</v>
+      </c>
+      <c r="DI108" t="inlineStr">
+        <is>
+          <t>K24_21_28_34</t>
+        </is>
+      </c>
       <c r="DJ108" t="inlineStr"/>
       <c r="DK108" t="inlineStr"/>
       <c r="DL108" t="inlineStr"/>
@@ -46004,7 +47453,12 @@
       <c r="GI108" t="inlineStr"/>
       <c r="GJ108" t="inlineStr"/>
       <c r="GK108" t="inlineStr"/>
-      <c r="GL108" t="inlineStr">
+      <c r="GL108" t="inlineStr"/>
+      <c r="GM108" t="inlineStr"/>
+      <c r="GN108" t="inlineStr"/>
+      <c r="GO108" t="inlineStr"/>
+      <c r="GP108" t="inlineStr"/>
+      <c r="GQ108" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -46333,9 +47787,19 @@
         </is>
       </c>
       <c r="DF109" t="inlineStr"/>
-      <c r="DG109" t="inlineStr"/>
-      <c r="DH109" t="inlineStr"/>
-      <c r="DI109" t="inlineStr"/>
+      <c r="DG109" t="inlineStr">
+        <is>
+          <t>K24_22_29</t>
+        </is>
+      </c>
+      <c r="DH109" t="n">
+        <v>68</v>
+      </c>
+      <c r="DI109" t="inlineStr">
+        <is>
+          <t>K24_22_29_68</t>
+        </is>
+      </c>
       <c r="DJ109" t="inlineStr"/>
       <c r="DK109" t="inlineStr"/>
       <c r="DL109" t="inlineStr"/>
@@ -46416,7 +47880,12 @@
       <c r="GI109" t="inlineStr"/>
       <c r="GJ109" t="inlineStr"/>
       <c r="GK109" t="inlineStr"/>
-      <c r="GL109" t="inlineStr">
+      <c r="GL109" t="inlineStr"/>
+      <c r="GM109" t="inlineStr"/>
+      <c r="GN109" t="inlineStr"/>
+      <c r="GO109" t="inlineStr"/>
+      <c r="GP109" t="inlineStr"/>
+      <c r="GQ109" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -46745,9 +48214,19 @@
         </is>
       </c>
       <c r="DF110" t="inlineStr"/>
-      <c r="DG110" t="inlineStr"/>
-      <c r="DH110" t="inlineStr"/>
-      <c r="DI110" t="inlineStr"/>
+      <c r="DG110" t="inlineStr">
+        <is>
+          <t>K24_23_30</t>
+        </is>
+      </c>
+      <c r="DH110" t="n">
+        <v>114</v>
+      </c>
+      <c r="DI110" t="inlineStr">
+        <is>
+          <t>K24_23_30_114</t>
+        </is>
+      </c>
       <c r="DJ110" t="inlineStr"/>
       <c r="DK110" t="inlineStr"/>
       <c r="DL110" t="inlineStr"/>
@@ -46828,7 +48307,12 @@
       <c r="GI110" t="inlineStr"/>
       <c r="GJ110" t="inlineStr"/>
       <c r="GK110" t="inlineStr"/>
-      <c r="GL110" t="inlineStr">
+      <c r="GL110" t="inlineStr"/>
+      <c r="GM110" t="inlineStr"/>
+      <c r="GN110" t="inlineStr"/>
+      <c r="GO110" t="inlineStr"/>
+      <c r="GP110" t="inlineStr"/>
+      <c r="GQ110" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -47157,9 +48641,19 @@
         </is>
       </c>
       <c r="DF111" t="inlineStr"/>
-      <c r="DG111" t="inlineStr"/>
-      <c r="DH111" t="inlineStr"/>
-      <c r="DI111" t="inlineStr"/>
+      <c r="DG111" t="inlineStr">
+        <is>
+          <t>K24_24_31</t>
+        </is>
+      </c>
+      <c r="DH111" t="n">
+        <v>97</v>
+      </c>
+      <c r="DI111" t="inlineStr">
+        <is>
+          <t>K24_24_31_97</t>
+        </is>
+      </c>
       <c r="DJ111" t="inlineStr"/>
       <c r="DK111" t="inlineStr"/>
       <c r="DL111" t="inlineStr"/>
@@ -47240,7 +48734,12 @@
       <c r="GI111" t="inlineStr"/>
       <c r="GJ111" t="inlineStr"/>
       <c r="GK111" t="inlineStr"/>
-      <c r="GL111" t="inlineStr">
+      <c r="GL111" t="inlineStr"/>
+      <c r="GM111" t="inlineStr"/>
+      <c r="GN111" t="inlineStr"/>
+      <c r="GO111" t="inlineStr"/>
+      <c r="GP111" t="inlineStr"/>
+      <c r="GQ111" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -47569,9 +49068,19 @@
         </is>
       </c>
       <c r="DF112" t="inlineStr"/>
-      <c r="DG112" t="inlineStr"/>
-      <c r="DH112" t="inlineStr"/>
-      <c r="DI112" t="inlineStr"/>
+      <c r="DG112" t="inlineStr">
+        <is>
+          <t>K24_24_31</t>
+        </is>
+      </c>
+      <c r="DH112" t="n">
+        <v>97</v>
+      </c>
+      <c r="DI112" t="inlineStr">
+        <is>
+          <t>K24_24_31_97</t>
+        </is>
+      </c>
       <c r="DJ112" t="inlineStr"/>
       <c r="DK112" t="inlineStr"/>
       <c r="DL112" t="inlineStr"/>
@@ -47652,7 +49161,12 @@
       <c r="GI112" t="inlineStr"/>
       <c r="GJ112" t="inlineStr"/>
       <c r="GK112" t="inlineStr"/>
-      <c r="GL112" t="inlineStr">
+      <c r="GL112" t="inlineStr"/>
+      <c r="GM112" t="inlineStr"/>
+      <c r="GN112" t="inlineStr"/>
+      <c r="GO112" t="inlineStr"/>
+      <c r="GP112" t="inlineStr"/>
+      <c r="GQ112" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -47975,9 +49489,19 @@
         </is>
       </c>
       <c r="DF113" t="inlineStr"/>
-      <c r="DG113" t="inlineStr"/>
-      <c r="DH113" t="inlineStr"/>
-      <c r="DI113" t="inlineStr"/>
+      <c r="DG113" t="inlineStr">
+        <is>
+          <t>K24_25_37</t>
+        </is>
+      </c>
+      <c r="DH113" t="n">
+        <v>83</v>
+      </c>
+      <c r="DI113" t="inlineStr">
+        <is>
+          <t>K24_25_37_83</t>
+        </is>
+      </c>
       <c r="DJ113" t="inlineStr"/>
       <c r="DK113" t="inlineStr"/>
       <c r="DL113" t="inlineStr"/>
@@ -48058,7 +49582,12 @@
       <c r="GI113" t="inlineStr"/>
       <c r="GJ113" t="inlineStr"/>
       <c r="GK113" t="inlineStr"/>
-      <c r="GL113" t="inlineStr">
+      <c r="GL113" t="inlineStr"/>
+      <c r="GM113" t="inlineStr"/>
+      <c r="GN113" t="inlineStr"/>
+      <c r="GO113" t="inlineStr"/>
+      <c r="GP113" t="inlineStr"/>
+      <c r="GQ113" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -48378,7 +49907,11 @@
       <c r="DG114" t="inlineStr"/>
       <c r="DH114" t="inlineStr"/>
       <c r="DI114" t="inlineStr"/>
-      <c r="DJ114" t="inlineStr"/>
+      <c r="DJ114" t="inlineStr">
+        <is>
+          <t>trash-couldn't do anything</t>
+        </is>
+      </c>
       <c r="DK114" t="inlineStr"/>
       <c r="DL114" t="inlineStr"/>
       <c r="DM114" t="inlineStr"/>
@@ -48458,7 +49991,12 @@
       <c r="GI114" t="inlineStr"/>
       <c r="GJ114" t="inlineStr"/>
       <c r="GK114" t="inlineStr"/>
-      <c r="GL114" t="inlineStr">
+      <c r="GL114" t="inlineStr"/>
+      <c r="GM114" t="inlineStr"/>
+      <c r="GN114" t="inlineStr"/>
+      <c r="GO114" t="inlineStr"/>
+      <c r="GP114" t="inlineStr"/>
+      <c r="GQ114" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -48801,9 +50339,19 @@
         </is>
       </c>
       <c r="DF115" t="inlineStr"/>
-      <c r="DG115" t="inlineStr"/>
-      <c r="DH115" t="inlineStr"/>
-      <c r="DI115" t="inlineStr"/>
+      <c r="DG115" t="inlineStr">
+        <is>
+          <t>K24_27_35</t>
+        </is>
+      </c>
+      <c r="DH115" t="n">
+        <v>51</v>
+      </c>
+      <c r="DI115" t="inlineStr">
+        <is>
+          <t>K24_27_35_51</t>
+        </is>
+      </c>
       <c r="DJ115" t="inlineStr"/>
       <c r="DK115" t="inlineStr"/>
       <c r="DL115" t="inlineStr"/>
@@ -48884,7 +50432,12 @@
       <c r="GI115" t="inlineStr"/>
       <c r="GJ115" t="inlineStr"/>
       <c r="GK115" t="inlineStr"/>
-      <c r="GL115" t="inlineStr">
+      <c r="GL115" t="inlineStr"/>
+      <c r="GM115" t="inlineStr"/>
+      <c r="GN115" t="inlineStr"/>
+      <c r="GO115" t="inlineStr"/>
+      <c r="GP115" t="inlineStr"/>
+      <c r="GQ115" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -49207,9 +50760,19 @@
         </is>
       </c>
       <c r="DF116" t="inlineStr"/>
-      <c r="DG116" t="inlineStr"/>
-      <c r="DH116" t="inlineStr"/>
-      <c r="DI116" t="inlineStr"/>
+      <c r="DG116" t="inlineStr">
+        <is>
+          <t>K24_28_34</t>
+        </is>
+      </c>
+      <c r="DH116" t="n">
+        <v>428</v>
+      </c>
+      <c r="DI116" t="inlineStr">
+        <is>
+          <t>K24_28_34_428</t>
+        </is>
+      </c>
       <c r="DJ116" t="inlineStr"/>
       <c r="DK116" t="inlineStr"/>
       <c r="DL116" t="inlineStr"/>
@@ -49290,7 +50853,12 @@
       <c r="GI116" t="inlineStr"/>
       <c r="GJ116" t="inlineStr"/>
       <c r="GK116" t="inlineStr"/>
-      <c r="GL116" t="inlineStr">
+      <c r="GL116" t="inlineStr"/>
+      <c r="GM116" t="inlineStr"/>
+      <c r="GN116" t="inlineStr"/>
+      <c r="GO116" t="inlineStr"/>
+      <c r="GP116" t="inlineStr"/>
+      <c r="GQ116" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -49610,7 +51178,11 @@
       <c r="DG117" t="inlineStr"/>
       <c r="DH117" t="inlineStr"/>
       <c r="DI117" t="inlineStr"/>
-      <c r="DJ117" t="inlineStr"/>
+      <c r="DJ117" t="inlineStr">
+        <is>
+          <t>trash-couldn't do anything</t>
+        </is>
+      </c>
       <c r="DK117" t="inlineStr"/>
       <c r="DL117" t="inlineStr"/>
       <c r="DM117" t="inlineStr"/>
@@ -49690,7 +51262,12 @@
       <c r="GI117" t="inlineStr"/>
       <c r="GJ117" t="inlineStr"/>
       <c r="GK117" t="inlineStr"/>
-      <c r="GL117" t="inlineStr">
+      <c r="GL117" t="inlineStr"/>
+      <c r="GM117" t="inlineStr"/>
+      <c r="GN117" t="inlineStr"/>
+      <c r="GO117" t="inlineStr"/>
+      <c r="GP117" t="inlineStr"/>
+      <c r="GQ117" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -50022,7 +51599,11 @@
       <c r="DG118" t="inlineStr"/>
       <c r="DH118" t="inlineStr"/>
       <c r="DI118" t="inlineStr"/>
-      <c r="DJ118" t="inlineStr"/>
+      <c r="DJ118" t="inlineStr">
+        <is>
+          <t>trash-couldn't do anything</t>
+        </is>
+      </c>
       <c r="DK118" t="inlineStr"/>
       <c r="DL118" t="inlineStr"/>
       <c r="DM118" t="inlineStr"/>
@@ -50102,7 +51683,12 @@
       <c r="GI118" t="inlineStr"/>
       <c r="GJ118" t="inlineStr"/>
       <c r="GK118" t="inlineStr"/>
-      <c r="GL118" t="inlineStr">
+      <c r="GL118" t="inlineStr"/>
+      <c r="GM118" t="inlineStr"/>
+      <c r="GN118" t="inlineStr"/>
+      <c r="GO118" t="inlineStr"/>
+      <c r="GP118" t="inlineStr"/>
+      <c r="GQ118" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -50431,9 +52017,19 @@
         </is>
       </c>
       <c r="DF119" t="inlineStr"/>
-      <c r="DG119" t="inlineStr"/>
-      <c r="DH119" t="inlineStr"/>
-      <c r="DI119" t="inlineStr"/>
+      <c r="DG119" t="inlineStr">
+        <is>
+          <t>K24_2_4</t>
+        </is>
+      </c>
+      <c r="DH119" t="n">
+        <v>60</v>
+      </c>
+      <c r="DI119" t="inlineStr">
+        <is>
+          <t>K24_2_4_60</t>
+        </is>
+      </c>
       <c r="DJ119" t="inlineStr"/>
       <c r="DK119" t="inlineStr"/>
       <c r="DL119" t="inlineStr"/>
@@ -50514,7 +52110,12 @@
       <c r="GI119" t="inlineStr"/>
       <c r="GJ119" t="inlineStr"/>
       <c r="GK119" t="inlineStr"/>
-      <c r="GL119" t="inlineStr">
+      <c r="GL119" t="inlineStr"/>
+      <c r="GM119" t="inlineStr"/>
+      <c r="GN119" t="inlineStr"/>
+      <c r="GO119" t="inlineStr"/>
+      <c r="GP119" t="inlineStr"/>
+      <c r="GQ119" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -50831,9 +52432,19 @@
         </is>
       </c>
       <c r="DF120" t="inlineStr"/>
-      <c r="DG120" t="inlineStr"/>
-      <c r="DH120" t="inlineStr"/>
-      <c r="DI120" t="inlineStr"/>
+      <c r="DG120" t="inlineStr">
+        <is>
+          <t>K24_2_4</t>
+        </is>
+      </c>
+      <c r="DH120" t="n">
+        <v>60</v>
+      </c>
+      <c r="DI120" t="inlineStr">
+        <is>
+          <t>K24_2_4_60</t>
+        </is>
+      </c>
       <c r="DJ120" t="inlineStr"/>
       <c r="DK120" t="inlineStr"/>
       <c r="DL120" t="inlineStr"/>
@@ -50914,7 +52525,12 @@
       <c r="GI120" t="inlineStr"/>
       <c r="GJ120" t="inlineStr"/>
       <c r="GK120" t="inlineStr"/>
-      <c r="GL120" t="inlineStr">
+      <c r="GL120" t="inlineStr"/>
+      <c r="GM120" t="inlineStr"/>
+      <c r="GN120" t="inlineStr"/>
+      <c r="GO120" t="inlineStr"/>
+      <c r="GP120" t="inlineStr"/>
+      <c r="GQ120" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -51231,9 +52847,19 @@
         </is>
       </c>
       <c r="DF121" t="inlineStr"/>
-      <c r="DG121" t="inlineStr"/>
-      <c r="DH121" t="inlineStr"/>
-      <c r="DI121" t="inlineStr"/>
+      <c r="DG121" t="inlineStr">
+        <is>
+          <t>K24_2_4</t>
+        </is>
+      </c>
+      <c r="DH121" t="n">
+        <v>60</v>
+      </c>
+      <c r="DI121" t="inlineStr">
+        <is>
+          <t>K24_2_4_60</t>
+        </is>
+      </c>
       <c r="DJ121" t="inlineStr"/>
       <c r="DK121" t="inlineStr"/>
       <c r="DL121" t="inlineStr"/>
@@ -51314,7 +52940,12 @@
       <c r="GI121" t="inlineStr"/>
       <c r="GJ121" t="inlineStr"/>
       <c r="GK121" t="inlineStr"/>
-      <c r="GL121" t="inlineStr">
+      <c r="GL121" t="inlineStr"/>
+      <c r="GM121" t="inlineStr"/>
+      <c r="GN121" t="inlineStr"/>
+      <c r="GO121" t="inlineStr"/>
+      <c r="GP121" t="inlineStr"/>
+      <c r="GQ121" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -51637,9 +53268,19 @@
         </is>
       </c>
       <c r="DF122" t="inlineStr"/>
-      <c r="DG122" t="inlineStr"/>
-      <c r="DH122" t="inlineStr"/>
-      <c r="DI122" t="inlineStr"/>
+      <c r="DG122" t="inlineStr">
+        <is>
+          <t>K24_30_32</t>
+        </is>
+      </c>
+      <c r="DH122" t="n">
+        <v>198</v>
+      </c>
+      <c r="DI122" t="inlineStr">
+        <is>
+          <t>K24_30_32_198</t>
+        </is>
+      </c>
       <c r="DJ122" t="inlineStr"/>
       <c r="DK122" t="inlineStr"/>
       <c r="DL122" t="inlineStr"/>
@@ -51720,7 +53361,12 @@
       <c r="GI122" t="inlineStr"/>
       <c r="GJ122" t="inlineStr"/>
       <c r="GK122" t="inlineStr"/>
-      <c r="GL122" t="inlineStr">
+      <c r="GL122" t="inlineStr"/>
+      <c r="GM122" t="inlineStr"/>
+      <c r="GN122" t="inlineStr"/>
+      <c r="GO122" t="inlineStr"/>
+      <c r="GP122" t="inlineStr"/>
+      <c r="GQ122" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -52046,7 +53692,11 @@
       <c r="DG123" t="inlineStr"/>
       <c r="DH123" t="inlineStr"/>
       <c r="DI123" t="inlineStr"/>
-      <c r="DJ123" t="inlineStr"/>
+      <c r="DJ123" t="inlineStr">
+        <is>
+          <t>trash-couldn't do anything</t>
+        </is>
+      </c>
       <c r="DK123" t="inlineStr"/>
       <c r="DL123" t="inlineStr"/>
       <c r="DM123" t="inlineStr"/>
@@ -52126,7 +53776,12 @@
       <c r="GI123" t="inlineStr"/>
       <c r="GJ123" t="inlineStr"/>
       <c r="GK123" t="inlineStr"/>
-      <c r="GL123" t="inlineStr">
+      <c r="GL123" t="inlineStr"/>
+      <c r="GM123" t="inlineStr"/>
+      <c r="GN123" t="inlineStr"/>
+      <c r="GO123" t="inlineStr"/>
+      <c r="GP123" t="inlineStr"/>
+      <c r="GQ123" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -52484,7 +54139,11 @@
       <c r="DG124" t="inlineStr"/>
       <c r="DH124" t="inlineStr"/>
       <c r="DI124" t="inlineStr"/>
-      <c r="DJ124" t="inlineStr"/>
+      <c r="DJ124" t="inlineStr">
+        <is>
+          <t>trash-couldn't do anything</t>
+        </is>
+      </c>
       <c r="DK124" t="inlineStr"/>
       <c r="DL124" t="inlineStr"/>
       <c r="DM124" t="inlineStr"/>
@@ -52564,7 +54223,12 @@
       <c r="GI124" t="inlineStr"/>
       <c r="GJ124" t="inlineStr"/>
       <c r="GK124" t="inlineStr"/>
-      <c r="GL124" t="inlineStr">
+      <c r="GL124" t="inlineStr"/>
+      <c r="GM124" t="inlineStr"/>
+      <c r="GN124" t="inlineStr"/>
+      <c r="GO124" t="inlineStr"/>
+      <c r="GP124" t="inlineStr"/>
+      <c r="GQ124" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -52972,7 +54636,12 @@
       <c r="GI125" t="inlineStr"/>
       <c r="GJ125" t="inlineStr"/>
       <c r="GK125" t="inlineStr"/>
-      <c r="GL125" t="inlineStr">
+      <c r="GL125" t="inlineStr"/>
+      <c r="GM125" t="inlineStr"/>
+      <c r="GN125" t="inlineStr"/>
+      <c r="GO125" t="inlineStr"/>
+      <c r="GP125" t="inlineStr"/>
+      <c r="GQ125" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -53297,10 +54966,22 @@
         </is>
       </c>
       <c r="DF126" t="inlineStr"/>
-      <c r="DG126" t="inlineStr"/>
+      <c r="DG126" t="inlineStr">
+        <is>
+          <t>K24_34_13</t>
+        </is>
+      </c>
       <c r="DH126" t="inlineStr"/>
-      <c r="DI126" t="inlineStr"/>
-      <c r="DJ126" t="inlineStr"/>
+      <c r="DI126" t="inlineStr">
+        <is>
+          <t>K24_34_13_</t>
+        </is>
+      </c>
+      <c r="DJ126" t="inlineStr">
+        <is>
+          <t>in a tiny piece can't be imaged</t>
+        </is>
+      </c>
       <c r="DK126" t="inlineStr"/>
       <c r="DL126" t="inlineStr"/>
       <c r="DM126" t="inlineStr"/>
@@ -53380,7 +55061,12 @@
       <c r="GI126" t="inlineStr"/>
       <c r="GJ126" t="inlineStr"/>
       <c r="GK126" t="inlineStr"/>
-      <c r="GL126" t="inlineStr">
+      <c r="GL126" t="inlineStr"/>
+      <c r="GM126" t="inlineStr"/>
+      <c r="GN126" t="inlineStr"/>
+      <c r="GO126" t="inlineStr"/>
+      <c r="GP126" t="inlineStr"/>
+      <c r="GQ126" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -53705,10 +55391,22 @@
         </is>
       </c>
       <c r="DF127" t="inlineStr"/>
-      <c r="DG127" t="inlineStr"/>
+      <c r="DG127" t="inlineStr">
+        <is>
+          <t>K24_34_13</t>
+        </is>
+      </c>
       <c r="DH127" t="inlineStr"/>
-      <c r="DI127" t="inlineStr"/>
-      <c r="DJ127" t="inlineStr"/>
+      <c r="DI127" t="inlineStr">
+        <is>
+          <t>K24_34_13_</t>
+        </is>
+      </c>
+      <c r="DJ127" t="inlineStr">
+        <is>
+          <t>in a tiny piece can't be imaged</t>
+        </is>
+      </c>
       <c r="DK127" t="inlineStr"/>
       <c r="DL127" t="inlineStr"/>
       <c r="DM127" t="inlineStr"/>
@@ -53788,7 +55486,12 @@
       <c r="GI127" t="inlineStr"/>
       <c r="GJ127" t="inlineStr"/>
       <c r="GK127" t="inlineStr"/>
-      <c r="GL127" t="inlineStr">
+      <c r="GL127" t="inlineStr"/>
+      <c r="GM127" t="inlineStr"/>
+      <c r="GN127" t="inlineStr"/>
+      <c r="GO127" t="inlineStr"/>
+      <c r="GP127" t="inlineStr"/>
+      <c r="GQ127" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -54113,10 +55816,22 @@
         </is>
       </c>
       <c r="DF128" t="inlineStr"/>
-      <c r="DG128" t="inlineStr"/>
+      <c r="DG128" t="inlineStr">
+        <is>
+          <t>K24_34_13</t>
+        </is>
+      </c>
       <c r="DH128" t="inlineStr"/>
-      <c r="DI128" t="inlineStr"/>
-      <c r="DJ128" t="inlineStr"/>
+      <c r="DI128" t="inlineStr">
+        <is>
+          <t>K24_34_13_</t>
+        </is>
+      </c>
+      <c r="DJ128" t="inlineStr">
+        <is>
+          <t>in a tiny piece can't be imaged</t>
+        </is>
+      </c>
       <c r="DK128" t="inlineStr"/>
       <c r="DL128" t="inlineStr"/>
       <c r="DM128" t="inlineStr"/>
@@ -54196,7 +55911,12 @@
       <c r="GI128" t="inlineStr"/>
       <c r="GJ128" t="inlineStr"/>
       <c r="GK128" t="inlineStr"/>
-      <c r="GL128" t="inlineStr">
+      <c r="GL128" t="inlineStr"/>
+      <c r="GM128" t="inlineStr"/>
+      <c r="GN128" t="inlineStr"/>
+      <c r="GO128" t="inlineStr"/>
+      <c r="GP128" t="inlineStr"/>
+      <c r="GQ128" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -54509,9 +56229,19 @@
         </is>
       </c>
       <c r="DF129" t="inlineStr"/>
-      <c r="DG129" t="inlineStr"/>
-      <c r="DH129" t="inlineStr"/>
-      <c r="DI129" t="inlineStr"/>
+      <c r="DG129" t="inlineStr">
+        <is>
+          <t>K24_36_day2_12</t>
+        </is>
+      </c>
+      <c r="DH129" t="n">
+        <v>619</v>
+      </c>
+      <c r="DI129" t="inlineStr">
+        <is>
+          <t>K24_36_day2_12_619</t>
+        </is>
+      </c>
       <c r="DJ129" t="inlineStr"/>
       <c r="DK129" t="inlineStr"/>
       <c r="DL129" t="inlineStr"/>
@@ -54592,7 +56322,12 @@
       <c r="GI129" t="inlineStr"/>
       <c r="GJ129" t="inlineStr"/>
       <c r="GK129" t="inlineStr"/>
-      <c r="GL129" t="inlineStr">
+      <c r="GL129" t="inlineStr"/>
+      <c r="GM129" t="inlineStr"/>
+      <c r="GN129" t="inlineStr"/>
+      <c r="GO129" t="inlineStr"/>
+      <c r="GP129" t="inlineStr"/>
+      <c r="GQ129" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -54925,9 +56660,19 @@
         </is>
       </c>
       <c r="DF130" t="inlineStr"/>
-      <c r="DG130" t="inlineStr"/>
-      <c r="DH130" t="inlineStr"/>
-      <c r="DI130" t="inlineStr"/>
+      <c r="DG130" t="inlineStr">
+        <is>
+          <t>K24_36_day2_12</t>
+        </is>
+      </c>
+      <c r="DH130" t="n">
+        <v>619</v>
+      </c>
+      <c r="DI130" t="inlineStr">
+        <is>
+          <t>K24_36_day2_12_619</t>
+        </is>
+      </c>
       <c r="DJ130" t="inlineStr"/>
       <c r="DK130" t="inlineStr"/>
       <c r="DL130" t="inlineStr"/>
@@ -55008,7 +56753,12 @@
       <c r="GI130" t="inlineStr"/>
       <c r="GJ130" t="inlineStr"/>
       <c r="GK130" t="inlineStr"/>
-      <c r="GL130" t="inlineStr">
+      <c r="GL130" t="inlineStr"/>
+      <c r="GM130" t="inlineStr"/>
+      <c r="GN130" t="inlineStr"/>
+      <c r="GO130" t="inlineStr"/>
+      <c r="GP130" t="inlineStr"/>
+      <c r="GQ130" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -55321,9 +57071,19 @@
         </is>
       </c>
       <c r="DF131" t="inlineStr"/>
-      <c r="DG131" t="inlineStr"/>
-      <c r="DH131" t="inlineStr"/>
-      <c r="DI131" t="inlineStr"/>
+      <c r="DG131" t="inlineStr">
+        <is>
+          <t>K24_36_day2_12</t>
+        </is>
+      </c>
+      <c r="DH131" t="n">
+        <v>619</v>
+      </c>
+      <c r="DI131" t="inlineStr">
+        <is>
+          <t>K24_36_day2_12_619</t>
+        </is>
+      </c>
       <c r="DJ131" t="inlineStr"/>
       <c r="DK131" t="inlineStr"/>
       <c r="DL131" t="inlineStr"/>
@@ -55404,7 +57164,12 @@
       <c r="GI131" t="inlineStr"/>
       <c r="GJ131" t="inlineStr"/>
       <c r="GK131" t="inlineStr"/>
-      <c r="GL131" t="inlineStr">
+      <c r="GL131" t="inlineStr"/>
+      <c r="GM131" t="inlineStr"/>
+      <c r="GN131" t="inlineStr"/>
+      <c r="GO131" t="inlineStr"/>
+      <c r="GP131" t="inlineStr"/>
+      <c r="GQ131" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -55731,9 +57496,19 @@
         </is>
       </c>
       <c r="DF132" t="inlineStr"/>
-      <c r="DG132" t="inlineStr"/>
-      <c r="DH132" t="inlineStr"/>
-      <c r="DI132" t="inlineStr"/>
+      <c r="DG132" t="inlineStr">
+        <is>
+          <t>K24_36_day2_12</t>
+        </is>
+      </c>
+      <c r="DH132" t="n">
+        <v>619</v>
+      </c>
+      <c r="DI132" t="inlineStr">
+        <is>
+          <t>K24_36_day2_12_619</t>
+        </is>
+      </c>
       <c r="DJ132" t="inlineStr"/>
       <c r="DK132" t="inlineStr"/>
       <c r="DL132" t="inlineStr"/>
@@ -55814,7 +57589,12 @@
       <c r="GI132" t="inlineStr"/>
       <c r="GJ132" t="inlineStr"/>
       <c r="GK132" t="inlineStr"/>
-      <c r="GL132" t="inlineStr">
+      <c r="GL132" t="inlineStr"/>
+      <c r="GM132" t="inlineStr"/>
+      <c r="GN132" t="inlineStr"/>
+      <c r="GO132" t="inlineStr"/>
+      <c r="GP132" t="inlineStr"/>
+      <c r="GQ132" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -56139,10 +57919,24 @@
         </is>
       </c>
       <c r="DF133" t="inlineStr"/>
-      <c r="DG133" t="inlineStr"/>
-      <c r="DH133" t="inlineStr"/>
-      <c r="DI133" t="inlineStr"/>
-      <c r="DJ133" t="inlineStr"/>
+      <c r="DG133" t="inlineStr">
+        <is>
+          <t>K24_37_10</t>
+        </is>
+      </c>
+      <c r="DH133" t="n">
+        <v>334</v>
+      </c>
+      <c r="DI133" t="inlineStr">
+        <is>
+          <t>K24_37_10_334</t>
+        </is>
+      </c>
+      <c r="DJ133" t="inlineStr">
+        <is>
+          <t>B is in 474</t>
+        </is>
+      </c>
       <c r="DK133" t="inlineStr"/>
       <c r="DL133" t="inlineStr"/>
       <c r="DM133" t="inlineStr"/>
@@ -56222,7 +58016,12 @@
       <c r="GI133" t="inlineStr"/>
       <c r="GJ133" t="inlineStr"/>
       <c r="GK133" t="inlineStr"/>
-      <c r="GL133" t="inlineStr">
+      <c r="GL133" t="inlineStr"/>
+      <c r="GM133" t="inlineStr"/>
+      <c r="GN133" t="inlineStr"/>
+      <c r="GO133" t="inlineStr"/>
+      <c r="GP133" t="inlineStr"/>
+      <c r="GQ133" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -56630,7 +58429,12 @@
       <c r="GI134" t="inlineStr"/>
       <c r="GJ134" t="inlineStr"/>
       <c r="GK134" t="inlineStr"/>
-      <c r="GL134" t="inlineStr">
+      <c r="GL134" t="inlineStr"/>
+      <c r="GM134" t="inlineStr"/>
+      <c r="GN134" t="inlineStr"/>
+      <c r="GO134" t="inlineStr"/>
+      <c r="GP134" t="inlineStr"/>
+      <c r="GQ134" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -56955,9 +58759,19 @@
         </is>
       </c>
       <c r="DF135" t="inlineStr"/>
-      <c r="DG135" t="inlineStr"/>
-      <c r="DH135" t="inlineStr"/>
-      <c r="DI135" t="inlineStr"/>
+      <c r="DG135" t="inlineStr">
+        <is>
+          <t>K24_38_8</t>
+        </is>
+      </c>
+      <c r="DH135" t="n">
+        <v>104</v>
+      </c>
+      <c r="DI135" t="inlineStr">
+        <is>
+          <t>K24_38_8_104</t>
+        </is>
+      </c>
       <c r="DJ135" t="inlineStr"/>
       <c r="DK135" t="inlineStr"/>
       <c r="DL135" t="inlineStr"/>
@@ -57038,7 +58852,12 @@
       <c r="GI135" t="inlineStr"/>
       <c r="GJ135" t="inlineStr"/>
       <c r="GK135" t="inlineStr"/>
-      <c r="GL135" t="inlineStr">
+      <c r="GL135" t="inlineStr"/>
+      <c r="GM135" t="inlineStr"/>
+      <c r="GN135" t="inlineStr"/>
+      <c r="GO135" t="inlineStr"/>
+      <c r="GP135" t="inlineStr"/>
+      <c r="GQ135" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -57357,9 +59176,19 @@
         </is>
       </c>
       <c r="DF136" t="inlineStr"/>
-      <c r="DG136" t="inlineStr"/>
-      <c r="DH136" t="inlineStr"/>
-      <c r="DI136" t="inlineStr"/>
+      <c r="DG136" t="inlineStr">
+        <is>
+          <t>K24_38_8</t>
+        </is>
+      </c>
+      <c r="DH136" t="n">
+        <v>104</v>
+      </c>
+      <c r="DI136" t="inlineStr">
+        <is>
+          <t>K24_38_8_104</t>
+        </is>
+      </c>
       <c r="DJ136" t="inlineStr"/>
       <c r="DK136" t="inlineStr"/>
       <c r="DL136" t="inlineStr"/>
@@ -57440,7 +59269,12 @@
       <c r="GI136" t="inlineStr"/>
       <c r="GJ136" t="inlineStr"/>
       <c r="GK136" t="inlineStr"/>
-      <c r="GL136" t="inlineStr">
+      <c r="GL136" t="inlineStr"/>
+      <c r="GM136" t="inlineStr"/>
+      <c r="GN136" t="inlineStr"/>
+      <c r="GO136" t="inlineStr"/>
+      <c r="GP136" t="inlineStr"/>
+      <c r="GQ136" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -57753,9 +59587,19 @@
         </is>
       </c>
       <c r="DF137" t="inlineStr"/>
-      <c r="DG137" t="inlineStr"/>
-      <c r="DH137" t="inlineStr"/>
-      <c r="DI137" t="inlineStr"/>
+      <c r="DG137" t="inlineStr">
+        <is>
+          <t>K24_39_16</t>
+        </is>
+      </c>
+      <c r="DH137" t="n">
+        <v>123</v>
+      </c>
+      <c r="DI137" t="inlineStr">
+        <is>
+          <t>K24_39_16_123</t>
+        </is>
+      </c>
       <c r="DJ137" t="inlineStr"/>
       <c r="DK137" t="inlineStr"/>
       <c r="DL137" t="inlineStr"/>
@@ -57836,7 +59680,12 @@
       <c r="GI137" t="inlineStr"/>
       <c r="GJ137" t="inlineStr"/>
       <c r="GK137" t="inlineStr"/>
-      <c r="GL137" t="inlineStr">
+      <c r="GL137" t="inlineStr"/>
+      <c r="GM137" t="inlineStr"/>
+      <c r="GN137" t="inlineStr"/>
+      <c r="GO137" t="inlineStr"/>
+      <c r="GP137" t="inlineStr"/>
+      <c r="GQ137" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -58161,9 +60010,19 @@
         </is>
       </c>
       <c r="DF138" t="inlineStr"/>
-      <c r="DG138" t="inlineStr"/>
-      <c r="DH138" t="inlineStr"/>
-      <c r="DI138" t="inlineStr"/>
+      <c r="DG138" t="inlineStr">
+        <is>
+          <t>K24_39_16</t>
+        </is>
+      </c>
+      <c r="DH138" t="n">
+        <v>123</v>
+      </c>
+      <c r="DI138" t="inlineStr">
+        <is>
+          <t>K24_39_16_123</t>
+        </is>
+      </c>
       <c r="DJ138" t="inlineStr"/>
       <c r="DK138" t="inlineStr"/>
       <c r="DL138" t="inlineStr"/>
@@ -58244,7 +60103,12 @@
       <c r="GI138" t="inlineStr"/>
       <c r="GJ138" t="inlineStr"/>
       <c r="GK138" t="inlineStr"/>
-      <c r="GL138" t="inlineStr">
+      <c r="GL138" t="inlineStr"/>
+      <c r="GM138" t="inlineStr"/>
+      <c r="GN138" t="inlineStr"/>
+      <c r="GO138" t="inlineStr"/>
+      <c r="GP138" t="inlineStr"/>
+      <c r="GQ138" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -58567,9 +60431,19 @@
         </is>
       </c>
       <c r="DF139" t="inlineStr"/>
-      <c r="DG139" t="inlineStr"/>
-      <c r="DH139" t="inlineStr"/>
-      <c r="DI139" t="inlineStr"/>
+      <c r="DG139" t="inlineStr">
+        <is>
+          <t>K24_3_P2_7</t>
+        </is>
+      </c>
+      <c r="DH139" t="n">
+        <v>29</v>
+      </c>
+      <c r="DI139" t="inlineStr">
+        <is>
+          <t>K24_3_P2_7_29</t>
+        </is>
+      </c>
       <c r="DJ139" t="inlineStr"/>
       <c r="DK139" t="inlineStr"/>
       <c r="DL139" t="inlineStr"/>
@@ -58650,7 +60524,12 @@
       <c r="GI139" t="inlineStr"/>
       <c r="GJ139" t="inlineStr"/>
       <c r="GK139" t="inlineStr"/>
-      <c r="GL139" t="inlineStr">
+      <c r="GL139" t="inlineStr"/>
+      <c r="GM139" t="inlineStr"/>
+      <c r="GN139" t="inlineStr"/>
+      <c r="GO139" t="inlineStr"/>
+      <c r="GP139" t="inlineStr"/>
+      <c r="GQ139" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -58987,9 +60866,19 @@
         </is>
       </c>
       <c r="DF140" t="inlineStr"/>
-      <c r="DG140" t="inlineStr"/>
-      <c r="DH140" t="inlineStr"/>
-      <c r="DI140" t="inlineStr"/>
+      <c r="DG140" t="inlineStr">
+        <is>
+          <t>K24_3_P2_7</t>
+        </is>
+      </c>
+      <c r="DH140" t="n">
+        <v>29</v>
+      </c>
+      <c r="DI140" t="inlineStr">
+        <is>
+          <t>K24_3_P2_7_29</t>
+        </is>
+      </c>
       <c r="DJ140" t="inlineStr"/>
       <c r="DK140" t="inlineStr"/>
       <c r="DL140" t="inlineStr"/>
@@ -59070,7 +60959,12 @@
       <c r="GI140" t="inlineStr"/>
       <c r="GJ140" t="inlineStr"/>
       <c r="GK140" t="inlineStr"/>
-      <c r="GL140" t="inlineStr">
+      <c r="GL140" t="inlineStr"/>
+      <c r="GM140" t="inlineStr"/>
+      <c r="GN140" t="inlineStr"/>
+      <c r="GO140" t="inlineStr"/>
+      <c r="GP140" t="inlineStr"/>
+      <c r="GQ140" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -59413,9 +61307,19 @@
         </is>
       </c>
       <c r="DF141" t="inlineStr"/>
-      <c r="DG141" t="inlineStr"/>
-      <c r="DH141" t="inlineStr"/>
-      <c r="DI141" t="inlineStr"/>
+      <c r="DG141" t="inlineStr">
+        <is>
+          <t>K24_3_P2_7</t>
+        </is>
+      </c>
+      <c r="DH141" t="n">
+        <v>29</v>
+      </c>
+      <c r="DI141" t="inlineStr">
+        <is>
+          <t>K24_3_P2_7_29</t>
+        </is>
+      </c>
       <c r="DJ141" t="inlineStr"/>
       <c r="DK141" t="inlineStr"/>
       <c r="DL141" t="inlineStr"/>
@@ -59496,7 +61400,12 @@
       <c r="GI141" t="inlineStr"/>
       <c r="GJ141" t="inlineStr"/>
       <c r="GK141" t="inlineStr"/>
-      <c r="GL141" t="inlineStr">
+      <c r="GL141" t="inlineStr"/>
+      <c r="GM141" t="inlineStr"/>
+      <c r="GN141" t="inlineStr"/>
+      <c r="GO141" t="inlineStr"/>
+      <c r="GP141" t="inlineStr"/>
+      <c r="GQ141" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -59813,9 +61722,19 @@
         </is>
       </c>
       <c r="DF142" t="inlineStr"/>
-      <c r="DG142" t="inlineStr"/>
-      <c r="DH142" t="inlineStr"/>
-      <c r="DI142" t="inlineStr"/>
+      <c r="DG142" t="inlineStr">
+        <is>
+          <t>K24_3_P2_7</t>
+        </is>
+      </c>
+      <c r="DH142" t="n">
+        <v>29</v>
+      </c>
+      <c r="DI142" t="inlineStr">
+        <is>
+          <t>K24_3_P2_7_29</t>
+        </is>
+      </c>
       <c r="DJ142" t="inlineStr"/>
       <c r="DK142" t="inlineStr"/>
       <c r="DL142" t="inlineStr"/>
@@ -59896,7 +61815,12 @@
       <c r="GI142" t="inlineStr"/>
       <c r="GJ142" t="inlineStr"/>
       <c r="GK142" t="inlineStr"/>
-      <c r="GL142" t="inlineStr">
+      <c r="GL142" t="inlineStr"/>
+      <c r="GM142" t="inlineStr"/>
+      <c r="GN142" t="inlineStr"/>
+      <c r="GO142" t="inlineStr"/>
+      <c r="GP142" t="inlineStr"/>
+      <c r="GQ142" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -60213,9 +62137,19 @@
         </is>
       </c>
       <c r="DF143" t="inlineStr"/>
-      <c r="DG143" t="inlineStr"/>
-      <c r="DH143" t="inlineStr"/>
-      <c r="DI143" t="inlineStr"/>
+      <c r="DG143" t="inlineStr">
+        <is>
+          <t>K24_3_P2_7</t>
+        </is>
+      </c>
+      <c r="DH143" t="n">
+        <v>29</v>
+      </c>
+      <c r="DI143" t="inlineStr">
+        <is>
+          <t>K24_3_P2_7_29</t>
+        </is>
+      </c>
       <c r="DJ143" t="inlineStr"/>
       <c r="DK143" t="inlineStr"/>
       <c r="DL143" t="inlineStr"/>
@@ -60296,7 +62230,12 @@
       <c r="GI143" t="inlineStr"/>
       <c r="GJ143" t="inlineStr"/>
       <c r="GK143" t="inlineStr"/>
-      <c r="GL143" t="inlineStr">
+      <c r="GL143" t="inlineStr"/>
+      <c r="GM143" t="inlineStr"/>
+      <c r="GN143" t="inlineStr"/>
+      <c r="GO143" t="inlineStr"/>
+      <c r="GP143" t="inlineStr"/>
+      <c r="GQ143" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -60615,10 +62554,24 @@
         </is>
       </c>
       <c r="DF144" t="inlineStr"/>
-      <c r="DG144" t="inlineStr"/>
-      <c r="DH144" t="inlineStr"/>
-      <c r="DI144" t="inlineStr"/>
-      <c r="DJ144" t="inlineStr"/>
+      <c r="DG144" t="inlineStr">
+        <is>
+          <t>K24_40_15</t>
+        </is>
+      </c>
+      <c r="DH144" t="n">
+        <v>48</v>
+      </c>
+      <c r="DI144" t="inlineStr">
+        <is>
+          <t>K24_40_15_48</t>
+        </is>
+      </c>
+      <c r="DJ144" t="inlineStr">
+        <is>
+          <t>difficult to segment</t>
+        </is>
+      </c>
       <c r="DK144" t="inlineStr"/>
       <c r="DL144" t="inlineStr"/>
       <c r="DM144" t="inlineStr"/>
@@ -60698,7 +62651,12 @@
       <c r="GI144" t="inlineStr"/>
       <c r="GJ144" t="inlineStr"/>
       <c r="GK144" t="inlineStr"/>
-      <c r="GL144" t="inlineStr">
+      <c r="GL144" t="inlineStr"/>
+      <c r="GM144" t="inlineStr"/>
+      <c r="GN144" t="inlineStr"/>
+      <c r="GO144" t="inlineStr"/>
+      <c r="GP144" t="inlineStr"/>
+      <c r="GQ144" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -61023,10 +62981,24 @@
         </is>
       </c>
       <c r="DF145" t="inlineStr"/>
-      <c r="DG145" t="inlineStr"/>
-      <c r="DH145" t="inlineStr"/>
-      <c r="DI145" t="inlineStr"/>
-      <c r="DJ145" t="inlineStr"/>
+      <c r="DG145" t="inlineStr">
+        <is>
+          <t>K24_40_15</t>
+        </is>
+      </c>
+      <c r="DH145" t="n">
+        <v>48</v>
+      </c>
+      <c r="DI145" t="inlineStr">
+        <is>
+          <t>K24_40_15_48</t>
+        </is>
+      </c>
+      <c r="DJ145" t="inlineStr">
+        <is>
+          <t>difficult to segment</t>
+        </is>
+      </c>
       <c r="DK145" t="inlineStr"/>
       <c r="DL145" t="inlineStr"/>
       <c r="DM145" t="inlineStr"/>
@@ -61106,7 +63078,12 @@
       <c r="GI145" t="inlineStr"/>
       <c r="GJ145" t="inlineStr"/>
       <c r="GK145" t="inlineStr"/>
-      <c r="GL145" t="inlineStr">
+      <c r="GL145" t="inlineStr"/>
+      <c r="GM145" t="inlineStr"/>
+      <c r="GN145" t="inlineStr"/>
+      <c r="GO145" t="inlineStr"/>
+      <c r="GP145" t="inlineStr"/>
+      <c r="GQ145" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -61429,9 +63406,19 @@
         </is>
       </c>
       <c r="DF146" t="inlineStr"/>
-      <c r="DG146" t="inlineStr"/>
-      <c r="DH146" t="inlineStr"/>
-      <c r="DI146" t="inlineStr"/>
+      <c r="DG146" t="inlineStr">
+        <is>
+          <t>K24_4_9</t>
+        </is>
+      </c>
+      <c r="DH146" t="n">
+        <v>33</v>
+      </c>
+      <c r="DI146" t="inlineStr">
+        <is>
+          <t>K24_4_9_33</t>
+        </is>
+      </c>
       <c r="DJ146" t="inlineStr"/>
       <c r="DK146" t="inlineStr"/>
       <c r="DL146" t="inlineStr"/>
@@ -61512,7 +63499,12 @@
       <c r="GI146" t="inlineStr"/>
       <c r="GJ146" t="inlineStr"/>
       <c r="GK146" t="inlineStr"/>
-      <c r="GL146" t="inlineStr">
+      <c r="GL146" t="inlineStr"/>
+      <c r="GM146" t="inlineStr"/>
+      <c r="GN146" t="inlineStr"/>
+      <c r="GO146" t="inlineStr"/>
+      <c r="GP146" t="inlineStr"/>
+      <c r="GQ146" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -61841,9 +63833,19 @@
         </is>
       </c>
       <c r="DF147" t="inlineStr"/>
-      <c r="DG147" t="inlineStr"/>
-      <c r="DH147" t="inlineStr"/>
-      <c r="DI147" t="inlineStr"/>
+      <c r="DG147" t="inlineStr">
+        <is>
+          <t>K24_4_9</t>
+        </is>
+      </c>
+      <c r="DH147" t="n">
+        <v>33</v>
+      </c>
+      <c r="DI147" t="inlineStr">
+        <is>
+          <t>K24_4_9_33</t>
+        </is>
+      </c>
       <c r="DJ147" t="inlineStr"/>
       <c r="DK147" t="inlineStr"/>
       <c r="DL147" t="inlineStr"/>
@@ -61924,7 +63926,12 @@
       <c r="GI147" t="inlineStr"/>
       <c r="GJ147" t="inlineStr"/>
       <c r="GK147" t="inlineStr"/>
-      <c r="GL147" t="inlineStr">
+      <c r="GL147" t="inlineStr"/>
+      <c r="GM147" t="inlineStr"/>
+      <c r="GN147" t="inlineStr"/>
+      <c r="GO147" t="inlineStr"/>
+      <c r="GP147" t="inlineStr"/>
+      <c r="GQ147" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -62247,9 +64254,19 @@
         </is>
       </c>
       <c r="DF148" t="inlineStr"/>
-      <c r="DG148" t="inlineStr"/>
-      <c r="DH148" t="inlineStr"/>
-      <c r="DI148" t="inlineStr"/>
+      <c r="DG148" t="inlineStr">
+        <is>
+          <t>K24_4_9</t>
+        </is>
+      </c>
+      <c r="DH148" t="n">
+        <v>33</v>
+      </c>
+      <c r="DI148" t="inlineStr">
+        <is>
+          <t>K24_4_9_33</t>
+        </is>
+      </c>
       <c r="DJ148" t="inlineStr"/>
       <c r="DK148" t="inlineStr"/>
       <c r="DL148" t="inlineStr"/>
@@ -62330,7 +64347,12 @@
       <c r="GI148" t="inlineStr"/>
       <c r="GJ148" t="inlineStr"/>
       <c r="GK148" t="inlineStr"/>
-      <c r="GL148" t="inlineStr">
+      <c r="GL148" t="inlineStr"/>
+      <c r="GM148" t="inlineStr"/>
+      <c r="GN148" t="inlineStr"/>
+      <c r="GO148" t="inlineStr"/>
+      <c r="GP148" t="inlineStr"/>
+      <c r="GQ148" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -62651,9 +64673,19 @@
           <t>deeper down below first lot</t>
         </is>
       </c>
-      <c r="DG149" t="inlineStr"/>
-      <c r="DH149" t="inlineStr"/>
-      <c r="DI149" t="inlineStr"/>
+      <c r="DG149" t="inlineStr">
+        <is>
+          <t>K24_4_9</t>
+        </is>
+      </c>
+      <c r="DH149" t="n">
+        <v>33</v>
+      </c>
+      <c r="DI149" t="inlineStr">
+        <is>
+          <t>K24_4_9_33</t>
+        </is>
+      </c>
       <c r="DJ149" t="inlineStr"/>
       <c r="DK149" t="inlineStr"/>
       <c r="DL149" t="inlineStr"/>
@@ -62734,7 +64766,12 @@
       <c r="GI149" t="inlineStr"/>
       <c r="GJ149" t="inlineStr"/>
       <c r="GK149" t="inlineStr"/>
-      <c r="GL149" t="inlineStr">
+      <c r="GL149" t="inlineStr"/>
+      <c r="GM149" t="inlineStr"/>
+      <c r="GN149" t="inlineStr"/>
+      <c r="GO149" t="inlineStr"/>
+      <c r="GP149" t="inlineStr"/>
+      <c r="GQ149" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -63055,9 +65092,19 @@
           <t>deeper down below first lot</t>
         </is>
       </c>
-      <c r="DG150" t="inlineStr"/>
-      <c r="DH150" t="inlineStr"/>
-      <c r="DI150" t="inlineStr"/>
+      <c r="DG150" t="inlineStr">
+        <is>
+          <t>K24_4_9</t>
+        </is>
+      </c>
+      <c r="DH150" t="n">
+        <v>33</v>
+      </c>
+      <c r="DI150" t="inlineStr">
+        <is>
+          <t>K24_4_9_33</t>
+        </is>
+      </c>
       <c r="DJ150" t="inlineStr"/>
       <c r="DK150" t="inlineStr"/>
       <c r="DL150" t="inlineStr"/>
@@ -63138,7 +65185,12 @@
       <c r="GI150" t="inlineStr"/>
       <c r="GJ150" t="inlineStr"/>
       <c r="GK150" t="inlineStr"/>
-      <c r="GL150" t="inlineStr">
+      <c r="GL150" t="inlineStr"/>
+      <c r="GM150" t="inlineStr"/>
+      <c r="GN150" t="inlineStr"/>
+      <c r="GO150" t="inlineStr"/>
+      <c r="GP150" t="inlineStr"/>
+      <c r="GQ150" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -63469,9 +65521,19 @@
         </is>
       </c>
       <c r="DF151" t="inlineStr"/>
-      <c r="DG151" t="inlineStr"/>
-      <c r="DH151" t="inlineStr"/>
-      <c r="DI151" t="inlineStr"/>
+      <c r="DG151" t="inlineStr">
+        <is>
+          <t>K24_5_10</t>
+        </is>
+      </c>
+      <c r="DH151" t="n">
+        <v>54</v>
+      </c>
+      <c r="DI151" t="inlineStr">
+        <is>
+          <t>K24_5_10_54</t>
+        </is>
+      </c>
       <c r="DJ151" t="inlineStr"/>
       <c r="DK151" t="inlineStr"/>
       <c r="DL151" t="inlineStr"/>
@@ -63552,7 +65614,12 @@
       <c r="GI151" t="inlineStr"/>
       <c r="GJ151" t="inlineStr"/>
       <c r="GK151" t="inlineStr"/>
-      <c r="GL151" t="inlineStr">
+      <c r="GL151" t="inlineStr"/>
+      <c r="GM151" t="inlineStr"/>
+      <c r="GN151" t="inlineStr"/>
+      <c r="GO151" t="inlineStr"/>
+      <c r="GP151" t="inlineStr"/>
+      <c r="GQ151" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -63895,9 +65962,19 @@
         </is>
       </c>
       <c r="DF152" t="inlineStr"/>
-      <c r="DG152" t="inlineStr"/>
-      <c r="DH152" t="inlineStr"/>
-      <c r="DI152" t="inlineStr"/>
+      <c r="DG152" t="inlineStr">
+        <is>
+          <t>K24_6_11</t>
+        </is>
+      </c>
+      <c r="DH152" t="n">
+        <v>89</v>
+      </c>
+      <c r="DI152" t="inlineStr">
+        <is>
+          <t>K24_6_11_89</t>
+        </is>
+      </c>
       <c r="DJ152" t="inlineStr"/>
       <c r="DK152" t="inlineStr"/>
       <c r="DL152" t="inlineStr"/>
@@ -63978,7 +66055,12 @@
       <c r="GI152" t="inlineStr"/>
       <c r="GJ152" t="inlineStr"/>
       <c r="GK152" t="inlineStr"/>
-      <c r="GL152" t="inlineStr">
+      <c r="GL152" t="inlineStr"/>
+      <c r="GM152" t="inlineStr"/>
+      <c r="GN152" t="inlineStr"/>
+      <c r="GO152" t="inlineStr"/>
+      <c r="GP152" t="inlineStr"/>
+      <c r="GQ152" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -64307,9 +66389,19 @@
         </is>
       </c>
       <c r="DF153" t="inlineStr"/>
-      <c r="DG153" t="inlineStr"/>
-      <c r="DH153" t="inlineStr"/>
-      <c r="DI153" t="inlineStr"/>
+      <c r="DG153" t="inlineStr">
+        <is>
+          <t>K24_7_12</t>
+        </is>
+      </c>
+      <c r="DH153" t="n">
+        <v>414</v>
+      </c>
+      <c r="DI153" t="inlineStr">
+        <is>
+          <t>K24_7_12_414</t>
+        </is>
+      </c>
       <c r="DJ153" t="inlineStr"/>
       <c r="DK153" t="inlineStr"/>
       <c r="DL153" t="inlineStr"/>
@@ -64390,7 +66482,12 @@
       <c r="GI153" t="inlineStr"/>
       <c r="GJ153" t="inlineStr"/>
       <c r="GK153" t="inlineStr"/>
-      <c r="GL153" t="inlineStr">
+      <c r="GL153" t="inlineStr"/>
+      <c r="GM153" t="inlineStr"/>
+      <c r="GN153" t="inlineStr"/>
+      <c r="GO153" t="inlineStr"/>
+      <c r="GP153" t="inlineStr"/>
+      <c r="GQ153" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -64719,9 +66816,19 @@
         </is>
       </c>
       <c r="DF154" t="inlineStr"/>
-      <c r="DG154" t="inlineStr"/>
-      <c r="DH154" t="inlineStr"/>
-      <c r="DI154" t="inlineStr"/>
+      <c r="DG154" t="inlineStr">
+        <is>
+          <t>K24_7_12</t>
+        </is>
+      </c>
+      <c r="DH154" t="n">
+        <v>414</v>
+      </c>
+      <c r="DI154" t="inlineStr">
+        <is>
+          <t>K24_7_12_414</t>
+        </is>
+      </c>
       <c r="DJ154" t="inlineStr"/>
       <c r="DK154" t="inlineStr"/>
       <c r="DL154" t="inlineStr"/>
@@ -64802,7 +66909,12 @@
       <c r="GI154" t="inlineStr"/>
       <c r="GJ154" t="inlineStr"/>
       <c r="GK154" t="inlineStr"/>
-      <c r="GL154" t="inlineStr">
+      <c r="GL154" t="inlineStr"/>
+      <c r="GM154" t="inlineStr"/>
+      <c r="GN154" t="inlineStr"/>
+      <c r="GO154" t="inlineStr"/>
+      <c r="GP154" t="inlineStr"/>
+      <c r="GQ154" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -65148,7 +67260,11 @@
       <c r="DG155" t="inlineStr"/>
       <c r="DH155" t="inlineStr"/>
       <c r="DI155" t="inlineStr"/>
-      <c r="DJ155" t="inlineStr"/>
+      <c r="DJ155" t="inlineStr">
+        <is>
+          <t>trash-couldn't do anything</t>
+        </is>
+      </c>
       <c r="DK155" t="inlineStr"/>
       <c r="DL155" t="inlineStr"/>
       <c r="DM155" t="inlineStr"/>
@@ -65228,7 +67344,12 @@
       <c r="GI155" t="inlineStr"/>
       <c r="GJ155" t="inlineStr"/>
       <c r="GK155" t="inlineStr"/>
-      <c r="GL155" t="inlineStr">
+      <c r="GL155" t="inlineStr"/>
+      <c r="GM155" t="inlineStr"/>
+      <c r="GN155" t="inlineStr"/>
+      <c r="GO155" t="inlineStr"/>
+      <c r="GP155" t="inlineStr"/>
+      <c r="GQ155" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -65568,7 +67689,11 @@
       <c r="DG156" t="inlineStr"/>
       <c r="DH156" t="inlineStr"/>
       <c r="DI156" t="inlineStr"/>
-      <c r="DJ156" t="inlineStr"/>
+      <c r="DJ156" t="inlineStr">
+        <is>
+          <t>trash-couldn't do anything</t>
+        </is>
+      </c>
       <c r="DK156" t="inlineStr"/>
       <c r="DL156" t="inlineStr"/>
       <c r="DM156" t="inlineStr"/>
@@ -65648,7 +67773,12 @@
       <c r="GI156" t="inlineStr"/>
       <c r="GJ156" t="inlineStr"/>
       <c r="GK156" t="inlineStr"/>
-      <c r="GL156" t="inlineStr">
+      <c r="GL156" t="inlineStr"/>
+      <c r="GM156" t="inlineStr"/>
+      <c r="GN156" t="inlineStr"/>
+      <c r="GO156" t="inlineStr"/>
+      <c r="GP156" t="inlineStr"/>
+      <c r="GQ156" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -65974,7 +68104,11 @@
       <c r="DG157" t="inlineStr"/>
       <c r="DH157" t="inlineStr"/>
       <c r="DI157" t="inlineStr"/>
-      <c r="DJ157" t="inlineStr"/>
+      <c r="DJ157" t="inlineStr">
+        <is>
+          <t>trash-couldn't do anything</t>
+        </is>
+      </c>
       <c r="DK157" t="inlineStr"/>
       <c r="DL157" t="inlineStr"/>
       <c r="DM157" t="inlineStr"/>
@@ -66054,7 +68188,12 @@
       <c r="GI157" t="inlineStr"/>
       <c r="GJ157" t="inlineStr"/>
       <c r="GK157" t="inlineStr"/>
-      <c r="GL157" t="inlineStr">
+      <c r="GL157" t="inlineStr"/>
+      <c r="GM157" t="inlineStr"/>
+      <c r="GN157" t="inlineStr"/>
+      <c r="GO157" t="inlineStr"/>
+      <c r="GP157" t="inlineStr"/>
+      <c r="GQ157" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -66371,9 +68510,19 @@
         </is>
       </c>
       <c r="DF158" t="inlineStr"/>
-      <c r="DG158" t="inlineStr"/>
-      <c r="DH158" t="inlineStr"/>
-      <c r="DI158" t="inlineStr"/>
+      <c r="DG158" t="inlineStr">
+        <is>
+          <t>K24_9_13</t>
+        </is>
+      </c>
+      <c r="DH158" t="n">
+        <v>42</v>
+      </c>
+      <c r="DI158" t="inlineStr">
+        <is>
+          <t>K24_9_13_42</t>
+        </is>
+      </c>
       <c r="DJ158" t="inlineStr"/>
       <c r="DK158" t="inlineStr"/>
       <c r="DL158" t="inlineStr"/>
@@ -66454,7 +68603,12 @@
       <c r="GI158" t="inlineStr"/>
       <c r="GJ158" t="inlineStr"/>
       <c r="GK158" t="inlineStr"/>
-      <c r="GL158" t="inlineStr">
+      <c r="GL158" t="inlineStr"/>
+      <c r="GM158" t="inlineStr"/>
+      <c r="GN158" t="inlineStr"/>
+      <c r="GO158" t="inlineStr"/>
+      <c r="GP158" t="inlineStr"/>
+      <c r="GQ158" t="inlineStr">
         <is>
           <t>No</t>
         </is>
